--- a/uploaded_image_links.xlsx
+++ b/uploaded_image_links.xlsx
@@ -449,471 +449,283 @@
       <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275392/E1/BOSQUEMAGO/E1-B01%20Dureg%C3%B3n.png</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275394/E1/BOSQUEMAGO/E1-B02%20Wynsdey.png</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275395/E1/BOSQUEMAGO/E1-B03%20Deridurag%C3%B3n.png</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275396/E1/BOSQUEMAGO/E1-B04%20Driada.png</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275397/E1/BOSQUEMAGO/E1-B05%20Ddraig.png</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275398/E1/BOSQUEMAGO/E1-B06%20Hada%20Revitalizante.png</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275400/E1/BOSQUEMAGO/E1-B07%20Hydra%20Colosal.png</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275401/E1/BOSQUEMAGO/E1-B08%20Ninfa%20Cantante%20De%20Dragones.png</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275402/E1/BOSQUEMAGO/E1-B09%20Uzume.png</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275403/E1/BOSQUEMAGO/E1-B10%20Drag%C3%B3n%20Carmes%C3%AD.png</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275404/E1/BOSQUEMAGO/E1-B11%20Bosque%20Frondoso.png</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275405/E1/BOSQUEMAGO/E1-B12%20Tributo%20Del%20Bosque.png</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275407/E1/BOSQUEMAGO/E1_1-B01%20Cervalyra.png</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275408/E1/BOSQUEMAGO/E1_1-B02%20Lyna.png</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275409/E1/BOSQUEMAGO/E1_1-B03%20Wyverno%20De%20Las%20Nubes.png</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275411/E1/BOSQUEMAGO/E1_1-B04%20Juleus%20El%20Principe%20Olvidado.png</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275412/E1/BOSQUEMAGO/E1_1-B05%20Trampa%20Vegetal.png</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275413/E1/BOSQUEMAGO/E1_1-B06%20Token.png</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275414/E1/BOSQUEMAGO/E1_2-B01%20Anna.png</t>
-        </is>
-      </c>
+      <c r="B20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275415/E1/BOSQUEMAGO/E1_2-B02%20Wyverno%20Rapaz.png</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275417/E1/BOSQUEMAGO/E1_2-B03%20Tharnok.png</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275418/E1/BOSQUEMAGO/E1_2-B04%20Volc%C3%A1n%20De%20Dragones.png</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275419/E1/BOSQUEMAGO/E1_2-B05%20Llamarada%20Perforante.png</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275421/E1/BOSQUEMAGO/E1_2-B06%20Token.png</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275422/E1/BOSQUEMAGO/E1_3-B01%20Hatchkin.png</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275423/E1/BOSQUEMAGO/E1_3-B02%20Fiorvo.png</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275424/E1/BOSQUEMAGO/E1_3-B03%20Filyho.png</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275426/E1/BOSQUEMAGO/E1_3-B04%20Lectranatus.png</t>
-        </is>
-      </c>
+      <c r="B29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275427/E1/BOSQUEMAGO/E1_3-B05%20Mensaje%20De%20Los%20Esp%C3%ADritus%20Protectores.png</t>
-        </is>
-      </c>
+      <c r="B30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275429/E1/BOSQUEMAGO/E1_3-B06%20Token.png</t>
-        </is>
-      </c>
+      <c r="B31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275430/E1/DISRUPCION/E1-D01%20Cazador%20K3.png</t>
-        </is>
-      </c>
+      <c r="B32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275431/E1/DISRUPCION/E1-D02%20Geo%20Cham%C3%A1n.png</t>
-        </is>
-      </c>
+      <c r="B33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275432/E1/DISRUPCION/E1-D03%20VA-7.png</t>
-        </is>
-      </c>
+      <c r="B34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275434/E1/DISRUPCION/E1-D04%20Safikoe.png</t>
-        </is>
-      </c>
+      <c r="B35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275435/E1/DISRUPCION/E1-D05%20Extheo.png</t>
-        </is>
-      </c>
+      <c r="B36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275436/E1/DISRUPCION/E1-D06%20Nehiel.png</t>
-        </is>
-      </c>
+      <c r="B37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275438/E1/DISRUPCION/E1-D07%20Filushtie.png</t>
-        </is>
-      </c>
+      <c r="B38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275439/E1/DISRUPCION/E1-D08%20Biok.png</t>
-        </is>
-      </c>
+      <c r="B39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275440/E1/DISRUPCION/E1-D09%20Novikh%C3%A9.png</t>
-        </is>
-      </c>
+      <c r="B40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275441/E1/DISRUPCION/E1-D10%20Bio-prototipo%20A0.png</t>
-        </is>
-      </c>
+      <c r="B41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275443/E1/DISRUPCION/E1-D11%20Neocit%C3%A9.png</t>
-        </is>
-      </c>
+      <c r="B42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275444/E1/DISRUPCION/E1-D12%20Corrupci%C3%B3n%20Biomec%C3%A1nica.png</t>
-        </is>
-      </c>
+      <c r="B43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275445/E1/DISRUPCION/E1_1-D01%20Androide%20A7.png</t>
-        </is>
-      </c>
+      <c r="B44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275447/E1/DISRUPCION/E1_1-D02%20Sp-7h.png</t>
-        </is>
-      </c>
+      <c r="B45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275448/E1/DISRUPCION/E1_1-D03%20Unidad%20H3-R0.png</t>
-        </is>
-      </c>
+      <c r="B46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275449/E1/DISRUPCION/E1_1-D04%20Nucleo%20De%20Energ%C3%ADa.png</t>
-        </is>
-      </c>
+      <c r="B47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275450/E1/DISRUPCION/E1_1-D05%20Asalto%20A%C3%A9reo.png</t>
-        </is>
-      </c>
+      <c r="B48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -925,51 +737,31 @@
       <c r="A50" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275452/E1/DISRUPCION/E1_2-D01%20Archnikek.png</t>
-        </is>
-      </c>
+      <c r="B50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275453/E1/DISRUPCION/E1_2-D02%20Arquero%20Xiom%C3%A1tico.png</t>
-        </is>
-      </c>
+      <c r="B51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275454/E1/DISRUPCION/E1_2-D03%20Flarix%20Interdimensional.png</t>
-        </is>
-      </c>
+      <c r="B52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275455/E1/DISRUPCION/E1_2-D04%20Letsviek.png</t>
-        </is>
-      </c>
+      <c r="B53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275456/E1/DISRUPCION/E1_2-D05%20Composici%C3%B3n%20Refract%C3%A1ria.png</t>
-        </is>
-      </c>
+      <c r="B54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -981,51 +773,31 @@
       <c r="A56" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275457/E1/DISRUPCION/E1_3-D01%20Groll%20Vand%C3%A1lico.png</t>
-        </is>
-      </c>
+      <c r="B56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275459/E1/DISRUPCION/E1_3-D02%20H-0110-W.png</t>
-        </is>
-      </c>
+      <c r="B57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275460/E1/DISRUPCION/E1_3-D03%20SRL-EX8.png</t>
-        </is>
-      </c>
+      <c r="B58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275461/E1/DISRUPCION/E1_3-D04%20Velkerop-1.png</t>
-        </is>
-      </c>
+      <c r="B59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275462/E1/DISRUPCION/E1_3-D05%20Carne%20Como%20Material.png</t>
-        </is>
-      </c>
+      <c r="B60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1037,611 +809,367 @@
       <c r="A62" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275463/E1/GUERRERO/E1-G01%20Espada%20De%20Primera%20L%C3%ADnea.png</t>
-        </is>
-      </c>
+      <c r="B62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275464/E1/GUERRERO/E1-G02%20Caballero%20Umbr%C3%ADo.png</t>
-        </is>
-      </c>
+      <c r="B63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275465/E1/GUERRERO/E1-G03%20Martillo%20Frontal.png</t>
-        </is>
-      </c>
+      <c r="B64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275466/E1/GUERRERO/E1-G04%20Recluta%20Ledidana.png</t>
-        </is>
-      </c>
+      <c r="B65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275468/E1/GUERRERO/E1-G05%20Caballer%C3%ADa%20Cruzada.png</t>
-        </is>
-      </c>
+      <c r="B66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275469/E1/GUERRERO/E1-G06%20Espada%20Le%C3%B3n%20Dorado.png</t>
-        </is>
-      </c>
+      <c r="B67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275470/E1/GUERRERO/E1-G07%20Comandante%20De%20Las%20Espadas%20Drag%C3%B3n.png</t>
-        </is>
-      </c>
+      <c r="B68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275472/E1/GUERRERO/E1-G08%20Guardian%20imperial.png</t>
-        </is>
-      </c>
+      <c r="B69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275473/E1/GUERRERO/E1-G09%20Caballero%20Real.png</t>
-        </is>
-      </c>
+      <c r="B70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275474/E1/GUERRERO/E1-G10%20Imperial%20De%20La%20Llama%20Eterna.png</t>
-        </is>
-      </c>
+      <c r="B71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275475/E1/GUERRERO/E1-G11%20Tierra%20Feudal.png</t>
-        </is>
-      </c>
+      <c r="B72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275476/E1/GUERRERO/E1-G12%20Fervor%20De%20Guerra.png</t>
-        </is>
-      </c>
+      <c r="B73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275478/E1/GUERRERO/E1_1-G01%20Escudo%20De%20Primera%20L%C3%ADnea.png</t>
-        </is>
-      </c>
+      <c r="B74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275479/E1/GUERRERO/E1_1-G02%20Caballero%20F%C3%A9rreo.png</t>
-        </is>
-      </c>
+      <c r="B75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275480/E1/GUERRERO/E1_1-G03%20Cazarecompensas%20De%20Las%20Nieves.png</t>
-        </is>
-      </c>
+      <c r="B76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275481/E1/GUERRERO/E1_1-G04%20Principe%20Charles%20Di%20Castirion.png</t>
-        </is>
-      </c>
+      <c r="B77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275482/E1/GUERRERO/E1_1-G05%20Compa%C3%B1erismo.png</t>
-        </is>
-      </c>
+      <c r="B78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275484/E1/GUERRERO/E1_1-G06%20Token.png</t>
-        </is>
-      </c>
+      <c r="B79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275485/E1/GUERRERO/E1_2-G01%20Caballero%20Guardia.png</t>
-        </is>
-      </c>
+      <c r="B80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275486/E1/GUERRERO/E1_2-G02%20Atelea%20De%20Viresia.png</t>
-        </is>
-      </c>
+      <c r="B81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275487/E1/GUERRERO/E1_2-G03%20Golth.png</t>
-        </is>
-      </c>
+      <c r="B82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275488/E1/GUERRERO/E1_2-G04%20Torre%20De%20Vig%C3%ADa.png</t>
-        </is>
-      </c>
+      <c r="B83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275489/E1/GUERRERO/E1_2-G05%20Duelo%20De%20Traici%C3%B3n.png</t>
-        </is>
-      </c>
+      <c r="B84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275491/E1/GUERRERO/E1_2-G06%20Token.png</t>
-        </is>
-      </c>
+      <c r="B85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275492/E1/GUERRERO/E1_3-G01%20Pe%C3%B3n%20Experimentado.png</t>
-        </is>
-      </c>
+      <c r="B86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275494/E1/GUERRERO/E1_3-G02%20Arco%20Le%C3%B3n%20Dorado.png</t>
-        </is>
-      </c>
+      <c r="B87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275495/E1/GUERRERO/E1_3-G03%20Caballero%20Jurado.png</t>
-        </is>
-      </c>
+      <c r="B88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275496/E1/GUERRERO/E1_3-G04%20Ejecutor%20De%20Las%20Nieves.png</t>
-        </is>
-      </c>
+      <c r="B89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275498/E1/GUERRERO/E1_3-G05%20Valor%20Heroico.png</t>
-        </is>
-      </c>
+      <c r="B90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275499/E1/GUERRERO/E1_3-G06%20Token.png</t>
-        </is>
-      </c>
+      <c r="B91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275500/E1/PESADILLA/E1-P01%20Alb%C3%ADgio.png</t>
-        </is>
-      </c>
+      <c r="B92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275501/E1/PESADILLA/E1-P02%20Bestia%20P%C3%BAtrida.png</t>
-        </is>
-      </c>
+      <c r="B93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275503/E1/PESADILLA/E1-P03%20Sombra%20Errante.png</t>
-        </is>
-      </c>
+      <c r="B94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275504/E1/PESADILLA/E1-P04%20Espantapajaros%20Carro%C3%B1ero.png</t>
-        </is>
-      </c>
+      <c r="B95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275505/E1/PESADILLA/E1-P05%20Cazador%20De%20Bestias.png</t>
-        </is>
-      </c>
+      <c r="B96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275507/E1/PESADILLA/E1-P06%20Segador%20De%20Almas.png</t>
-        </is>
-      </c>
+      <c r="B97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275508/E1/PESADILLA/E1-P07%20Cascador%20Hilarante.png</t>
-        </is>
-      </c>
+      <c r="B98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275509/E1/PESADILLA/E1-P08%20Ara%C3%B1ador.png</t>
-        </is>
-      </c>
+      <c r="B99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275510/E1/PESADILLA/E1-P09%20Khaan.png</t>
-        </is>
-      </c>
+      <c r="B100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275511/E1/PESADILLA/E1-P10%20Apostol%20De%20La%20Infamia.png</t>
-        </is>
-      </c>
+      <c r="B101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275512/E1/PESADILLA/E1-P11%20Ruinas%20De%20Sangre.png</t>
-        </is>
-      </c>
+      <c r="B102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275514/E1/PESADILLA/E1-P12%20Ritual%20De%20Sacrif%C3%ADcio.png</t>
-        </is>
-      </c>
+      <c r="B103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275516/E1/PESADILLA/E1_1-P01%20Lobo%20Embrujado.png</t>
-        </is>
-      </c>
+      <c r="B104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275517/E1/PESADILLA/E1_1-P02%20Aullador.png</t>
-        </is>
-      </c>
+      <c r="B105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275518/E1/PESADILLA/E1_1-P03%20Esqueleto%20De%20Las%20Mazmorras.png</t>
-        </is>
-      </c>
+      <c r="B106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275520/E1/PESADILLA/E1_1-P04%20Necrobrujo%20Invocado.png</t>
-        </is>
-      </c>
+      <c r="B107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275521/E1/PESADILLA/E1_1-P05%20Invocaci%C3%B3n%20De%20Los%20Muertos%20Del%20Pantano.png</t>
-        </is>
-      </c>
+      <c r="B108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275523/E1/PESADILLA/E1_1-P06%20Token.png</t>
-        </is>
-      </c>
+      <c r="B109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275524/E1/PESADILLA/E1_2-P01%20Esqueleto%20Errante.png</t>
-        </is>
-      </c>
+      <c r="B110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275525/E1/PESADILLA/E1_2-P02%20Aracnopanto.png</t>
-        </is>
-      </c>
+      <c r="B111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275526/E1/PESADILLA/E1_2-P03%20Vigilante%20Cadav%C3%A9rico.png</t>
-        </is>
-      </c>
+      <c r="B112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275528/E1/PESADILLA/E1_2-P04%20Furia%20%C3%81lmica.png</t>
-        </is>
-      </c>
+      <c r="B113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275529/E1/PESADILLA/E1_2-P05%20Llamada%20Espectral.png</t>
-        </is>
-      </c>
+      <c r="B114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275530/E1/PESADILLA/E1_2-P06%20Token.png</t>
-        </is>
-      </c>
+      <c r="B115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275531/E1/PESADILLA/E1_3-P01%20Explorador%20Olvidado.png</t>
-        </is>
-      </c>
+      <c r="B116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275533/E1/PESADILLA/E1_3-P02%20Lureruri.png</t>
-        </is>
-      </c>
+      <c r="B117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>116</v>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275534/E1/PESADILLA/E1_3-P03%20Zaranthrax.png</t>
-        </is>
-      </c>
+      <c r="B118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>117</v>
       </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275535/E1/PESADILLA/E1_3-P04%20Zombi%20Berserker.png</t>
-        </is>
-      </c>
+      <c r="B119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
         <v>118</v>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275537/E1/PESADILLA/E1_3-P05%20Conjuro%20De%20Oscuridad%20Infinita.png</t>
-        </is>
-      </c>
+      <c r="B120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
         <v>119</v>
       </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275538/E1/PESADILLA/E1_3-P06%20Token.png</t>
-        </is>
-      </c>
+      <c r="B121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
         <v>120</v>
       </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275539/E2/BOSQUEMAGO/E2-B01%20Elida.png</t>
-        </is>
-      </c>
+      <c r="B122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -1653,31 +1181,19 @@
       <c r="A124" t="n">
         <v>122</v>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275540/E2/BOSQUEMAGO/E2-B03%20Dela.png</t>
-        </is>
-      </c>
+      <c r="B124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
         <v>123</v>
       </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275542/E2/BOSQUEMAGO/E2-B04%20Palad%C3%ADn%20De%20La%20Tierra%20Oculta.png</t>
-        </is>
-      </c>
+      <c r="B125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
         <v>124</v>
       </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275543/E2/BOSQUEMAGO/E2-B05%20Dianthe.png</t>
-        </is>
-      </c>
+      <c r="B126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -1689,21 +1205,13 @@
       <c r="A128" t="n">
         <v>126</v>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275544/E2/BOSQUEMAGO/E2-B07%20Drag%C3%B3n%20Templado.png</t>
-        </is>
-      </c>
+      <c r="B128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
         <v>127</v>
       </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275546/E2/BOSQUEMAGO/E2-B08%20Bosque%20Perdido.png</t>
-        </is>
-      </c>
+      <c r="B129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -1721,31 +1229,19 @@
       <c r="A132" t="n">
         <v>130</v>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275547/E2/BOSQUEMAGO/E2_1-B03%20Metaldrake.png</t>
-        </is>
-      </c>
+      <c r="B132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
         <v>131</v>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275548/E2/BOSQUEMAGO/E2_1-B04%20Bosque%20M%C3%A1gico%20De%20Los%20Esp%C3%ADritus.png</t>
-        </is>
-      </c>
+      <c r="B133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
         <v>132</v>
       </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275549/E2/BOSQUEMAGO/E2_2-B01%20Hada%20Perdida.png</t>
-        </is>
-      </c>
+      <c r="B134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -1757,21 +1253,13 @@
       <c r="A136" t="n">
         <v>134</v>
       </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275551/E2/BOSQUEMAGO/E2_2-B03%20Valanidris.png</t>
-        </is>
-      </c>
+      <c r="B136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
         <v>135</v>
       </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275552/E2/BOSQUEMAGO/E2_2-B04%20Floraci%C3%B3n%20De%20Las%20Hadas.png</t>
-        </is>
-      </c>
+      <c r="B137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -1783,61 +1271,37 @@
       <c r="A139" t="n">
         <v>137</v>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275553/E2/BOSQUEMAGO/E2_3-B02%20%C3%81nima%20Feral.png</t>
-        </is>
-      </c>
+      <c r="B139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
         <v>138</v>
       </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275555/E2/BOSQUEMAGO/E2_3-B03%20Falanis%20El%20Wyverno%20De%20La%20Tormenta.png</t>
-        </is>
-      </c>
+      <c r="B140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
         <v>139</v>
       </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275556/E2/BOSQUEMAGO/E2_3-B04%20Danza%20De%20Ensue%C3%B1o.png</t>
-        </is>
-      </c>
+      <c r="B141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
         <v>140</v>
       </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275557/E2/DISRUPCION/E2-D01%20Explorador%20Viajero.png</t>
-        </is>
-      </c>
+      <c r="B142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
         <v>141</v>
       </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275558/E2/DISRUPCION/E2-D02%20VS-1.png</t>
-        </is>
-      </c>
+      <c r="B143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
         <v>142</v>
       </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275559/E2/DISRUPCION/E2-D03%20AX-4.png</t>
-        </is>
-      </c>
+      <c r="B144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -1849,11 +1313,7 @@
       <c r="A146" t="n">
         <v>144</v>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275561/E2/DISRUPCION/E2-D05%20ES-707.png</t>
-        </is>
-      </c>
+      <c r="B146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -1865,11 +1325,7 @@
       <c r="A148" t="n">
         <v>146</v>
       </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275562/E2/DISRUPCION/E2-D07%20Cianotipo%20De%20Aut%C3%B3mata.png</t>
-        </is>
-      </c>
+      <c r="B148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -1881,31 +1337,19 @@
       <c r="A150" t="n">
         <v>148</v>
       </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275563/E2/DISRUPCION/E2_1-D01%20Explorador%20Viajero%20V2.png</t>
-        </is>
-      </c>
+      <c r="B150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
         <v>149</v>
       </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275564/E2/DISRUPCION/E2_1-D02%20EXO-91.png</t>
-        </is>
-      </c>
+      <c r="B151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
         <v>150</v>
       </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275566/E2/DISRUPCION/E2_1-D03%20Geo%20Vigilante.png</t>
-        </is>
-      </c>
+      <c r="B152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -1917,31 +1361,19 @@
       <c r="A154" t="n">
         <v>152</v>
       </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275567/E2/DISRUPCION/E2_2-D01%20Vigilante%20Pasivo.png</t>
-        </is>
-      </c>
+      <c r="B154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
         <v>153</v>
       </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275568/E2/DISRUPCION/E2_2-D02%20Sobrecarga.png</t>
-        </is>
-      </c>
+      <c r="B155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
         <v>154</v>
       </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275570/E2/DISRUPCION/E2_2-D03%20Proto%20Ca%C3%B1on%20De%20Largo%20Alcance.png</t>
-        </is>
-      </c>
+      <c r="B156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -1953,11 +1385,7 @@
       <c r="A158" t="n">
         <v>156</v>
       </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275571/E2/DISRUPCION/E2_3-D01%20A-1002-Corredor.png</t>
-        </is>
-      </c>
+      <c r="B158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -1969,11 +1397,7 @@
       <c r="A160" t="n">
         <v>158</v>
       </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275572/E2/DISRUPCION/E2_3-D03%20KA-0%20X1.png</t>
-        </is>
-      </c>
+      <c r="B160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -1991,21 +1415,13 @@
       <c r="A163" t="n">
         <v>161</v>
       </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275573/E2/GUERRERO/E2-G02%20Explorador%20Temerario.png</t>
-        </is>
-      </c>
+      <c r="B163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
         <v>162</v>
       </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275575/E2/GUERRERO/E2-G03%20Alabarda%20De%20Ala%20Blanca.png</t>
-        </is>
-      </c>
+      <c r="B164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -2017,21 +1433,13 @@
       <c r="A166" t="n">
         <v>164</v>
       </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275576/E2/GUERRERO/E2-G05%20Establo.png</t>
-        </is>
-      </c>
+      <c r="B166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
         <v>165</v>
       </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275577/E2/GUERRERO/E2-G06%20T%C3%A1cticas%20De%20Guerra.png</t>
-        </is>
-      </c>
+      <c r="B167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -2049,11 +1457,7 @@
       <c r="A170" t="n">
         <v>168</v>
       </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275578/E2/GUERRERO/E2_1-G01%20Alabarda%20De%20Primera%20L%C3%ADnea.png</t>
-        </is>
-      </c>
+      <c r="B170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -2065,11 +1469,7 @@
       <c r="A172" t="n">
         <v>170</v>
       </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275580/E2/GUERRERO/E2_1-G03%20A%20La%20Carga%21.png</t>
-        </is>
-      </c>
+      <c r="B172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -2087,21 +1487,13 @@
       <c r="A175" t="n">
         <v>173</v>
       </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275581/E2/GUERRERO/E2_2-G02%20Caballero%20Leal.png</t>
-        </is>
-      </c>
+      <c r="B175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
         <v>174</v>
       </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275582/E2/GUERRERO/E2_2-G03%20Mercenario%20Valeroso.png</t>
-        </is>
-      </c>
+      <c r="B176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -2119,11 +1511,7 @@
       <c r="A179" t="n">
         <v>177</v>
       </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275584/E2/GUERRERO/E2_3-G02%20Comandante%20Veterano.png</t>
-        </is>
-      </c>
+      <c r="B179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -2147,21 +1535,13 @@
       <c r="A183" t="n">
         <v>181</v>
       </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275585/E2/PESADILLA/E2-P02%20Devorador.png</t>
-        </is>
-      </c>
+      <c r="B183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
         <v>182</v>
       </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275587/E2/PESADILLA/E2-P03%20Come%20Hombres.png</t>
-        </is>
-      </c>
+      <c r="B184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -2185,51 +1565,31 @@
       <c r="A188" t="n">
         <v>186</v>
       </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275588/E2/PESADILLA/E2-P07%20Culto%20Convocatorio.png</t>
-        </is>
-      </c>
+      <c r="B188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="n">
         <v>187</v>
       </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275589/E2/PESADILLA/E2-P08%20Fest%C3%ADn.png</t>
-        </is>
-      </c>
+      <c r="B189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="n">
         <v>188</v>
       </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275590/E2/PESADILLA/E2_1-P01%20Can%20Infernal.png</t>
-        </is>
-      </c>
+      <c r="B190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="n">
         <v>189</v>
       </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275591/E2/PESADILLA/E2_1-P02%20Comandante%20Del%20Ej%C3%A9rcito%20Perdido.png</t>
-        </is>
-      </c>
+      <c r="B191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
         <v>190</v>
       </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275593/E2/PESADILLA/E2_1-P03%20Devorador%20De%20Cazadores.png</t>
-        </is>
-      </c>
+      <c r="B192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -2247,31 +1607,19 @@
       <c r="A195" t="n">
         <v>193</v>
       </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275594/E2/PESADILLA/E2_2-P02%20Centauros%20De%20La%20Noche%20Iluminada.png</t>
-        </is>
-      </c>
+      <c r="B195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
         <v>194</v>
       </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275595/E2/PESADILLA/E2_2-P03%20Traga%20Almas.png</t>
-        </is>
-      </c>
+      <c r="B196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
         <v>195</v>
       </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275596/E2/PESADILLA/E2_2-P04%20Hellios.png</t>
-        </is>
-      </c>
+      <c r="B197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -2295,31 +1643,19 @@
       <c r="A201" t="n">
         <v>199</v>
       </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275597/E2/PESADILLA/E2_3-P04%20Fusi%C3%B3n%20De%20Los%20Huesos%20Encarnados.png</t>
-        </is>
-      </c>
+      <c r="B201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="n">
         <v>200</v>
       </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275599/E3/BOSQUEMAGO/E3-B01%20Dirug%C3%B3n.png</t>
-        </is>
-      </c>
+      <c r="B202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="n">
         <v>201</v>
       </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275600/E3/BOSQUEMAGO/E3-B02%20Ptreorag%C3%B3n.png</t>
-        </is>
-      </c>
+      <c r="B203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -2331,11 +1667,7 @@
       <c r="A205" t="n">
         <v>203</v>
       </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275601/E3/BOSQUEMAGO/E3-B04%20Fresnag%C3%B3n.png</t>
-        </is>
-      </c>
+      <c r="B205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -2353,51 +1685,31 @@
       <c r="A208" t="n">
         <v>206</v>
       </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275602/E3/BOSQUEMAGO/E3-B07%20Monta%C3%B1as%20Volc%C3%A1nicas.png</t>
-        </is>
-      </c>
+      <c r="B208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="n">
         <v>207</v>
       </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275603/E3/BOSQUEMAGO/E3-B08%20Embestida%20Aerea.png</t>
-        </is>
-      </c>
+      <c r="B209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="n">
         <v>208</v>
       </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275604/E3/BOSQUEMAGO/E3_1-B01%20Elegante%20Wyrm.png</t>
-        </is>
-      </c>
+      <c r="B210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="n">
         <v>209</v>
       </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275605/E3/BOSQUEMAGO/E3_1-B02%20Ddraker.png</t>
-        </is>
-      </c>
+      <c r="B211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="n">
         <v>210</v>
       </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275607/E3/BOSQUEMAGO/E3_1-B03%20Unicornio%20Espada.png</t>
-        </is>
-      </c>
+      <c r="B212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -2409,21 +1721,13 @@
       <c r="A214" t="n">
         <v>212</v>
       </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275608/E3/BOSQUEMAGO/E3_2-B01%20Bis%C3%B3n%20Lanudo%20Lunar.png</t>
-        </is>
-      </c>
+      <c r="B214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="n">
         <v>213</v>
       </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275609/E3/BOSQUEMAGO/E3_2-B02%20Dracotyrantus%20Magna.png</t>
-        </is>
-      </c>
+      <c r="B215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -2441,31 +1745,19 @@
       <c r="A218" t="n">
         <v>216</v>
       </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275610/E3/BOSQUEMAGO/E3_3-B01%20Pegaso%20De%20Pradera.png</t>
-        </is>
-      </c>
+      <c r="B218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="n">
         <v>217</v>
       </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275612/E3/BOSQUEMAGO/E3_3-B02%20Drag%C3%B3n%20Pluma%20Cristal.png</t>
-        </is>
-      </c>
+      <c r="B219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="n">
         <v>218</v>
       </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275613/E3/BOSQUEMAGO/E3_3-B03%20Gaeos%20El%20Ala%20De%20La%20Tierra.png</t>
-        </is>
-      </c>
+      <c r="B220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -2477,41 +1769,25 @@
       <c r="A222" t="n">
         <v>220</v>
       </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275614/E3/DISRUPCION/E3-D01%20Prometeo%20Erasmoos.png</t>
-        </is>
-      </c>
+      <c r="B222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="n">
         <v>221</v>
       </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275615/E3/DISRUPCION/E3-D02%20Khalesa.png</t>
-        </is>
-      </c>
+      <c r="B223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="n">
         <v>222</v>
       </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275617/E3/DISRUPCION/E3-D03%20Feretrus.png</t>
-        </is>
-      </c>
+      <c r="B224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="n">
         <v>223</v>
       </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275618/E3/DISRUPCION/E3-D04%20Principe%20Eos.png</t>
-        </is>
-      </c>
+      <c r="B225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -2523,11 +1799,7 @@
       <c r="A227" t="n">
         <v>225</v>
       </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275619/E3/DISRUPCION/E3-D06%20Compresi%C3%B3n%20Interdimensional.png</t>
-        </is>
-      </c>
+      <c r="B227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -2545,21 +1817,13 @@
       <c r="A230" t="n">
         <v>228</v>
       </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275621/E3/DISRUPCION/E3_1-D01%20Cronoflureteus.png</t>
-        </is>
-      </c>
+      <c r="B230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="n">
         <v>229</v>
       </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275622/E3/DISRUPCION/E3_1-D02%20Torre%20Ritual.png</t>
-        </is>
-      </c>
+      <c r="B231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -2577,21 +1841,13 @@
       <c r="A234" t="n">
         <v>232</v>
       </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275623/E3/DISRUPCION/E3_2-D01%20Entidad%20Ermita%C3%B1a%20Errante.png</t>
-        </is>
-      </c>
+      <c r="B234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="n">
         <v>233</v>
       </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275624/E3/DISRUPCION/E3_2-D02%20Protectora%20Interdimensional.png</t>
-        </is>
-      </c>
+      <c r="B235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -2609,21 +1865,13 @@
       <c r="A238" t="n">
         <v>236</v>
       </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275626/E3/DISRUPCION/E3_3-D01%20Platareum.png</t>
-        </is>
-      </c>
+      <c r="B238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="n">
         <v>237</v>
       </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275627/E3/DISRUPCION/E3_3-D02%20Eteleo%20Caos.png</t>
-        </is>
-      </c>
+      <c r="B239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -2641,61 +1889,37 @@
       <c r="A242" t="n">
         <v>240</v>
       </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275628/E3/GUERRERO/E3-G01%20Arquero%20De%20Emboscada.png</t>
-        </is>
-      </c>
+      <c r="B242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="n">
         <v>241</v>
       </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275629/E3/GUERRERO/E3-G02%20Asaltante%20P%C3%ADcaro.png</t>
-        </is>
-      </c>
+      <c r="B243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="n">
         <v>242</v>
       </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275631/E3/GUERRERO/E3-G03%20Letric%20De%20Eslavies.png</t>
-        </is>
-      </c>
+      <c r="B244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="n">
         <v>243</v>
       </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275632/E3/GUERRERO/E3-G04%20Emboscada.png</t>
-        </is>
-      </c>
+      <c r="B245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="n">
         <v>244</v>
       </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275633/E3/GUERRERO/E3-G05%20Ataque%20Sorpresa.png</t>
-        </is>
-      </c>
+      <c r="B246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="n">
         <v>245</v>
       </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275634/E3/GUERRERO/E3-G06%20Bot%C3%ADn.png</t>
-        </is>
-      </c>
+      <c r="B247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -2713,21 +1937,13 @@
       <c r="A250" t="n">
         <v>248</v>
       </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275635/E3/GUERRERO/E3_1-G01%20Mercenario%20Nocturno.png</t>
-        </is>
-      </c>
+      <c r="B250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="n">
         <v>249</v>
       </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275636/E3/GUERRERO/E3_1-G02%20Encargo.png</t>
-        </is>
-      </c>
+      <c r="B251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -2745,31 +1961,19 @@
       <c r="A254" t="n">
         <v>252</v>
       </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275638/E3/GUERRERO/E3_2-G01%20Jack%20Kest%C3%B3.png</t>
-        </is>
-      </c>
+      <c r="B254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="n">
         <v>253</v>
       </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275639/E3/GUERRERO/E3_2-G02%20Taberna.png</t>
-        </is>
-      </c>
+      <c r="B255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="n">
         <v>254</v>
       </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275640/E3/GUERRERO/E3_2-G03%20Infamia.png</t>
-        </is>
-      </c>
+      <c r="B256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -2781,21 +1985,13 @@
       <c r="A258" t="n">
         <v>256</v>
       </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275641/E3/GUERRERO/E3_3-G01%20Loan%20El%20Despiadado.png</t>
-        </is>
-      </c>
+      <c r="B258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="n">
         <v>257</v>
       </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275643/E3/GUERRERO/E3_3-G02%20Kholeus%20El%20Inmortal.png</t>
-        </is>
-      </c>
+      <c r="B259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -2813,11 +2009,7 @@
       <c r="A262" t="n">
         <v>260</v>
       </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275644/E3/PESADILLA/E3-P01%20Abraza%20Almas.png</t>
-        </is>
-      </c>
+      <c r="B262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -2829,21 +2021,13 @@
       <c r="A264" t="n">
         <v>262</v>
       </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275645/E3/PESADILLA/E3-P03%20Convocador%20De%20Sombras.png</t>
-        </is>
-      </c>
+      <c r="B264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="n">
         <v>263</v>
       </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275646/E3/PESADILLA/E3-P04%20Amalgama%20Cadav%C3%A9rica.png</t>
-        </is>
-      </c>
+      <c r="B265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -2867,11 +2051,7 @@
       <c r="A269" t="n">
         <v>267</v>
       </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275647/E3/PESADILLA/E3-P08%20Asedio%20Del%20Inframundo.png</t>
-        </is>
-      </c>
+      <c r="B269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -2883,31 +2063,19 @@
       <c r="A271" t="n">
         <v>269</v>
       </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275649/E3/PESADILLA/E3_1-P02%20Alarido%20Espectral.png</t>
-        </is>
-      </c>
+      <c r="B271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="n">
         <v>270</v>
       </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275650/E3/PESADILLA/E3_1-P03%20Augurio%20Floreciente.png</t>
-        </is>
-      </c>
+      <c r="B272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="n">
         <v>271</v>
       </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275652/E3/PESADILLA/E3_1-P04%20Cosecha%20De%20Almas.png</t>
-        </is>
-      </c>
+      <c r="B273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -2919,81 +2087,49 @@
       <c r="A275" t="n">
         <v>273</v>
       </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275653/E3/PESADILLA/E3_2-P02%20Fereteus.png</t>
-        </is>
-      </c>
+      <c r="B275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="n">
         <v>274</v>
       </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275654/E3/PESADILLA/E3_2-P03%20Desollador.png</t>
-        </is>
-      </c>
+      <c r="B276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="n">
         <v>275</v>
       </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275655/E3/PESADILLA/E3_2-P04%20Maleficio%20Devastador.png</t>
-        </is>
-      </c>
+      <c r="B277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="n">
         <v>276</v>
       </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275656/E3/PESADILLA/E3_3-P01%20Hul.png</t>
-        </is>
-      </c>
+      <c r="B278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="n">
         <v>277</v>
       </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275657/E3/PESADILLA/E3_3-P02%20Rey%20Oscuro.png</t>
-        </is>
-      </c>
+      <c r="B279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="n">
         <v>278</v>
       </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275658/E3/PESADILLA/E3_3-P03%20Reclamo%20Del%20Inframundo.png</t>
-        </is>
-      </c>
+      <c r="B280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="n">
         <v>279</v>
       </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275659/E3/PESADILLA/E3_3-P04%20Pacto%20De%20Sangre%20Pura.png</t>
-        </is>
-      </c>
+      <c r="B281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="n">
         <v>280</v>
       </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275660/E4/BOSQUEMAGO/E4-B01%20Florri%C3%B3n.png</t>
-        </is>
-      </c>
+      <c r="B282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -3005,11 +2141,7 @@
       <c r="A284" t="n">
         <v>282</v>
       </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275661/E4/BOSQUEMAGO/E4-B03%20Le%C3%B3n%20De%20La%20Zarza%20Sombr%C3%ADa.png</t>
-        </is>
-      </c>
+      <c r="B284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -3027,21 +2159,13 @@
       <c r="A287" t="n">
         <v>285</v>
       </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275663/E4/BOSQUEMAGO/E4-B06%20Magnaus%20Protector%20Del%20BosqueM%C3%A1gico.png</t>
-        </is>
-      </c>
+      <c r="B287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="n">
         <v>286</v>
       </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275664/E4/BOSQUEMAGO/E4-B07%20BosqueM%C3%A1gico%20Profundo.png</t>
-        </is>
-      </c>
+      <c r="B288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -3053,11 +2177,7 @@
       <c r="A290" t="n">
         <v>288</v>
       </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275665/E4/BOSQUEMAGO/E4_1-B01%20Tinflarus.png</t>
-        </is>
-      </c>
+      <c r="B290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -3069,11 +2189,7 @@
       <c r="A292" t="n">
         <v>290</v>
       </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275666/E4/BOSQUEMAGO/E4_1-B03%20BosqueM%C3%A1gico%20De%20La%20Fauna.png</t>
-        </is>
-      </c>
+      <c r="B292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -3085,21 +2201,13 @@
       <c r="A294" t="n">
         <v>292</v>
       </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275668/E4/BOSQUEMAGO/E4_2-B01%20Tigre%20R%C3%BAnico.png</t>
-        </is>
-      </c>
+      <c r="B294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="n">
         <v>293</v>
       </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275669/E4/BOSQUEMAGO/E4_2-B02%20Kir%C3%ADn.png</t>
-        </is>
-      </c>
+      <c r="B295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -3123,21 +2231,13 @@
       <c r="A299" t="n">
         <v>297</v>
       </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275671/E4/BOSQUEMAGO/E4_3-B02%20Grifo.png</t>
-        </is>
-      </c>
+      <c r="B299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="n">
         <v>298</v>
       </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275672/E4/BOSQUEMAGO/E4_3-B03%20Guardi%C3%A1n%20Anciano%20Del%20BosqueM%C3%A1gico.png</t>
-        </is>
-      </c>
+      <c r="B300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -3149,31 +2249,19 @@
       <c r="A302" t="n">
         <v>300</v>
       </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275673/E4/GUERRERO/E4-G01%20Pe%C3%B3n%20Del%20Castillo.png</t>
-        </is>
-      </c>
+      <c r="B302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="n">
         <v>301</v>
       </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275675/E4/GUERRERO/E4-G02%20Infanter%C3%ADa%20de%20Primera%20L%C3%ADnea.png</t>
-        </is>
-      </c>
+      <c r="B303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="n">
         <v>302</v>
       </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275676/E4/GUERRERO/E4-G03%20Caballer%C3%ADa%20De%20Primera%20L%C3%ADnea.png</t>
-        </is>
-      </c>
+      <c r="B304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -3203,11 +2291,7 @@
       <c r="A309" t="n">
         <v>307</v>
       </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275677/E4/GUERRERO/E4-G08%20Fervor%20De%20Primera%20L%C3%ADnea.png</t>
-        </is>
-      </c>
+      <c r="B309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -3219,21 +2303,13 @@
       <c r="A311" t="n">
         <v>309</v>
       </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275678/E4/GUERRERO/E4_1-G02%20Prince%20Alphonse%20Di%20Castirion.png</t>
-        </is>
-      </c>
+      <c r="B311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="n">
         <v>310</v>
       </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275680/E4/GUERRERO/E4_1-G03%20Reino%20Castirion.png</t>
-        </is>
-      </c>
+      <c r="B312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -3251,21 +2327,13 @@
       <c r="A315" t="n">
         <v>313</v>
       </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275681/E4/GUERRERO/E4_2-G02%20Charles%20Di%20Castirion.png</t>
-        </is>
-      </c>
+      <c r="B315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="n">
         <v>314</v>
       </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275682/E4/GUERRERO/E4_2-G03%20Estandarte%20De%20Primera%20L%C3%ADnea.png</t>
-        </is>
-      </c>
+      <c r="B316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -3283,21 +2351,13 @@
       <c r="A319" t="n">
         <v>317</v>
       </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275683/E4/GUERRERO/E4_3-G02%20Caballero%20Heroico.png</t>
-        </is>
-      </c>
+      <c r="B319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="n">
         <v>318</v>
       </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275685/E4/GUERRERO/E4_3-G03%20Trabuquete.png</t>
-        </is>
-      </c>
+      <c r="B320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -3309,21 +2369,13 @@
       <c r="A322" t="n">
         <v>320</v>
       </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275686/E4/DISRUPCION/E4-D01%20BIO-EXUS-3.png</t>
-        </is>
-      </c>
+      <c r="B322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="n">
         <v>321</v>
       </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275687/E4/DISRUPCION/E4-D02%20Bio-Exterminador%20Errante.png</t>
-        </is>
-      </c>
+      <c r="B323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -3335,11 +2387,7 @@
       <c r="A325" t="n">
         <v>323</v>
       </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275688/E4/DISRUPCION/E4-D04%20Explorador%20De%20Emergencia.png</t>
-        </is>
-      </c>
+      <c r="B325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -3357,11 +2405,7 @@
       <c r="A328" t="n">
         <v>326</v>
       </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275689/E4/DISRUPCION/E4-D07%20BIO-Aniquilador.png</t>
-        </is>
-      </c>
+      <c r="B328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -3379,21 +2423,13 @@
       <c r="A331" t="n">
         <v>329</v>
       </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275691/E4/DISRUPCION/E4_1-D02%20Ciudad%20Desolada.png</t>
-        </is>
-      </c>
+      <c r="B331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="n">
         <v>330</v>
       </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275692/E4/DISRUPCION/E4_1-D03%20Producci%C3%B3n%20De%20Biomaquinaria.png</t>
-        </is>
-      </c>
+      <c r="B332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -3411,21 +2447,13 @@
       <c r="A335" t="n">
         <v>333</v>
       </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275693/E4/DISRUPCION/E4_2-D02%20Fabricante%20De%20Ciudad.png</t>
-        </is>
-      </c>
+      <c r="B335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="n">
         <v>334</v>
       </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275694/E4/DISRUPCION/E4_2-D03%20ERR-707.png</t>
-        </is>
-      </c>
+      <c r="B336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -3443,21 +2471,13 @@
       <c r="A339" t="n">
         <v>337</v>
       </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275696/E4/DISRUPCION/E4_3-D02%20Bio-Aniquilador%20Incompleto.png</t>
-        </is>
-      </c>
+      <c r="B339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="n">
         <v>338</v>
       </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275697/E4/DISRUPCION/E4_3-D03%20Objetivo%20Adquirido.png</t>
-        </is>
-      </c>
+      <c r="B340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -3469,31 +2489,19 @@
       <c r="A342" t="n">
         <v>340</v>
       </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275698/E4/PESADILLA/E4-P01%20Bruja%20Mensajera.png</t>
-        </is>
-      </c>
+      <c r="B342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="n">
         <v>341</v>
       </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275699/E4/PESADILLA/E4-P02%20Pir%C3%B3mago.png</t>
-        </is>
-      </c>
+      <c r="B343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="n">
         <v>342</v>
       </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275700/E4/PESADILLA/E4-P03%20Hrauf.png</t>
-        </is>
-      </c>
+      <c r="B344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -3511,61 +2519,37 @@
       <c r="A347" t="n">
         <v>345</v>
       </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275701/E4/PESADILLA/E4-P06%20Liche.png</t>
-        </is>
-      </c>
+      <c r="B347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="n">
         <v>346</v>
       </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275702/E4/PESADILLA/E4-P07%20Imperio%20Desolado.png</t>
-        </is>
-      </c>
+      <c r="B348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="n">
         <v>347</v>
       </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275704/E4/PESADILLA/E4-P07%20Ritual%20Convocatorio.png</t>
-        </is>
-      </c>
+      <c r="B349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="n">
         <v>348</v>
       </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275705/E4/PESADILLA/E4_1-P01%20Bruja%20Lunar.png</t>
-        </is>
-      </c>
+      <c r="B350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="n">
         <v>349</v>
       </c>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275706/E4/PESADILLA/E4_1-P02%20Augurio%20De%20Cat%C3%A1strofe.png</t>
-        </is>
-      </c>
+      <c r="B351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="n">
         <v>350</v>
       </c>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275707/E4/PESADILLA/E4_1-P03%20N%27Rax.png</t>
-        </is>
-      </c>
+      <c r="B352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -3583,41 +2567,25 @@
       <c r="A355" t="n">
         <v>353</v>
       </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275708/E4/PESADILLA/E4_2-P02%20Conjurado%20Olvidado.png</t>
-        </is>
-      </c>
+      <c r="B355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="n">
         <v>354</v>
       </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275710/E4/PESADILLA/E4_2-P03%20Zot.png</t>
-        </is>
-      </c>
+      <c r="B356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="n">
         <v>355</v>
       </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275711/E4/PESADILLA/E4_2-P04%20Quebrantamiento.png</t>
-        </is>
-      </c>
+      <c r="B357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="n">
         <v>356</v>
       </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275712/E4/PESADILLA/E4_3-P01%20Gaur.png</t>
-        </is>
-      </c>
+      <c r="B358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -3641,11 +2609,7 @@
       <c r="A362" t="n">
         <v>360</v>
       </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275713/E5/BOSQUEMAGO/E5-B01%20Cr%C3%ADa%20Quim%C3%A9rica.png</t>
-        </is>
-      </c>
+      <c r="B362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -3657,11 +2621,7 @@
       <c r="A364" t="n">
         <v>362</v>
       </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275714/E5/BOSQUEMAGO/E5-B03%20Glifo%20R%C3%BAnico.png</t>
-        </is>
-      </c>
+      <c r="B364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -3679,31 +2639,19 @@
       <c r="A367" t="n">
         <v>365</v>
       </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275715/E5/BOSQUEMAGO/E5-B06%20Quimera%20Divina.png</t>
-        </is>
-      </c>
+      <c r="B367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="n">
         <v>366</v>
       </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275716/E5/BOSQUEMAGO/E5-B07%20Grimorio%20De%20Invocaciones.png</t>
-        </is>
-      </c>
+      <c r="B368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="n">
         <v>367</v>
       </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275717/E5/BOSQUEMAGO/E5-B08%20Secta%20De%20La%20Bestia%20Del%20Final%20De%20Los%20Tiempos.png</t>
-        </is>
-      </c>
+      <c r="B369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -3715,21 +2663,13 @@
       <c r="A371" t="n">
         <v>369</v>
       </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275718/E5/BOSQUEMAGO/E5_1-B02%20Ketzeol.png</t>
-        </is>
-      </c>
+      <c r="B371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="n">
         <v>370</v>
       </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275720/E5/BOSQUEMAGO/E5_1-B03%20Capricio%20Rayo%20Del%20Monte.png</t>
-        </is>
-      </c>
+      <c r="B372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -3741,11 +2681,7 @@
       <c r="A374" t="n">
         <v>372</v>
       </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275721/E5/BOSQUEMAGO/E5_2-B01%20Orador%20De%20Las%20Quimeras.png</t>
-        </is>
-      </c>
+      <c r="B374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -3787,11 +2723,7 @@
       <c r="A381" t="n">
         <v>379</v>
       </c>
-      <c r="B381" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275722/E5/BOSQUEMAGO/E5_3-B04%20Aberraci%C3%B3n%20Quim%C3%A9rica.png</t>
-        </is>
-      </c>
+      <c r="B381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -3917,61 +2849,37 @@
       <c r="A402" t="n">
         <v>400</v>
       </c>
-      <c r="B402" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275724/E5/DISRUPCION/E5-D01%20Pintor%20De%20Los%20Cielos.png</t>
-        </is>
-      </c>
+      <c r="B402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="n">
         <v>401</v>
       </c>
-      <c r="B403" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275725/E5/DISRUPCION/E5-D02%20%C3%81ngel%20Mensajero.png</t>
-        </is>
-      </c>
+      <c r="B403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" t="n">
         <v>402</v>
       </c>
-      <c r="B404" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275726/E5/DISRUPCION/E5-D03%20Shilpher%20El%20Protector.png</t>
-        </is>
-      </c>
+      <c r="B404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="n">
         <v>403</v>
       </c>
-      <c r="B405" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275727/E5/DISRUPCION/E5-D04%20Lilith%20Las%20Alas%20Del%20Susurro.png</t>
-        </is>
-      </c>
+      <c r="B405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" t="n">
         <v>404</v>
       </c>
-      <c r="B406" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275729/E5/DISRUPCION/E5-D05%20Uriel%20El%20Fuego%20De%20La%20Esperanza.png</t>
-        </is>
-      </c>
+      <c r="B406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" t="n">
         <v>405</v>
       </c>
-      <c r="B407" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275730/E5/DISRUPCION/E5-D06%20Samael%20El%20Fuego%20De%20La%20Destrucci%C3%B3n.png</t>
-        </is>
-      </c>
+      <c r="B407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -3989,31 +2897,19 @@
       <c r="A410" t="n">
         <v>408</v>
       </c>
-      <c r="B410" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275731/E5/DISRUPCION/E5_1-D01%20Oradora%20De%20Los%20Ca%C3%ADdos.png</t>
-        </is>
-      </c>
+      <c r="B410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" t="n">
         <v>409</v>
       </c>
-      <c r="B411" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275732/E5/DISRUPCION/E5_1-D02%20Pecado%20Encadenado.png</t>
-        </is>
-      </c>
+      <c r="B411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" t="n">
         <v>410</v>
       </c>
-      <c r="B412" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275733/E5/DISRUPCION/E5_1-D03%20Voluntad%20Del%20Fuego%20Ignoto.png</t>
-        </is>
-      </c>
+      <c r="B412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -4031,21 +2927,13 @@
       <c r="A415" t="n">
         <v>413</v>
       </c>
-      <c r="B415" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275735/E5/DISRUPCION/E5_2-D02%20Raziel%20El%20Ojo%20De%20La%20Luz%20Y%20La%20Oscuridad.png</t>
-        </is>
-      </c>
+      <c r="B415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" t="n">
         <v>414</v>
       </c>
-      <c r="B416" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275736/E5/DISRUPCION/E5_2-D03%20Decepci%C3%B3n%20Del%20Nombre%20Perdido.png</t>
-        </is>
-      </c>
+      <c r="B416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -4057,21 +2945,13 @@
       <c r="A418" t="n">
         <v>416</v>
       </c>
-      <c r="B418" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275738/E5/DISRUPCION/E5_3-D01%20Seraf%C3%ADn%20Ignoto%20Fuego%20Del%20Caos.png</t>
-        </is>
-      </c>
+      <c r="B418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" t="n">
         <v>417</v>
       </c>
-      <c r="B419" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275739/E5/DISRUPCION/E5_3-D02%20Catedral%20De%20La%20Luz%20Divina.png</t>
-        </is>
-      </c>
+      <c r="B419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -4089,101 +2969,61 @@
       <c r="A422" t="n">
         <v>420</v>
       </c>
-      <c r="B422" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275740/E5/PESADILLA/E5-P01%20Dregmilt.png</t>
-        </is>
-      </c>
+      <c r="B422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" t="n">
         <v>421</v>
       </c>
-      <c r="B423" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275741/E5/PESADILLA/E5-P02%20Zau.png</t>
-        </is>
-      </c>
+      <c r="B423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" t="n">
         <v>422</v>
       </c>
-      <c r="B424" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275743/E5/PESADILLA/E5-P03%20Gloopers.png</t>
-        </is>
-      </c>
+      <c r="B424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" t="n">
         <v>423</v>
       </c>
-      <c r="B425" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275744/E5/PESADILLA/E5-P04%20Jax%20Kreel.png</t>
-        </is>
-      </c>
+      <c r="B425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" t="n">
         <v>424</v>
       </c>
-      <c r="B426" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275745/E5/PESADILLA/E5-P05%20Capit%C3%A1n%20Sharkly.png</t>
-        </is>
-      </c>
+      <c r="B426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" t="n">
         <v>425</v>
       </c>
-      <c r="B427" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275746/E5/PESADILLA/E5-P06%20Nixal%27Abizot%20El%20Terror%20De%20La%20Penumbra%20Abisal.png</t>
-        </is>
-      </c>
+      <c r="B427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" t="n">
         <v>426</v>
       </c>
-      <c r="B428" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275748/E5/PESADILLA/E5-P07%20Oceano%20Tormentoso.png</t>
-        </is>
-      </c>
+      <c r="B428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" t="n">
         <v>427</v>
       </c>
-      <c r="B429" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275749/E5/PESADILLA/E5-P08%20%C2%A1Ataque%20Desde%20Las%20Profundidades%21.png</t>
-        </is>
-      </c>
+      <c r="B429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" t="n">
         <v>428</v>
       </c>
-      <c r="B430" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275750/E5/PESADILLA/E5_1-P01%20Sel.png</t>
-        </is>
-      </c>
+      <c r="B430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" t="n">
         <v>429</v>
       </c>
-      <c r="B431" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275752/E5/PESADILLA/E5_1-P02%20Abysalis.png</t>
-        </is>
-      </c>
+      <c r="B431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -4201,21 +3041,13 @@
       <c r="A434" t="n">
         <v>432</v>
       </c>
-      <c r="B434" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275753/E5/PESADILLA/E5_2-P01%20Dregmilt%20De%20Costas%20Pantanosas.png</t>
-        </is>
-      </c>
+      <c r="B434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" t="n">
         <v>433</v>
       </c>
-      <c r="B435" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275754/E5/PESADILLA/E5_2-P02%20Voe.png</t>
-        </is>
-      </c>
+      <c r="B435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -4617,11 +3449,7 @@
       <c r="A502" t="n">
         <v>500</v>
       </c>
-      <c r="B502" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275755/E6/PESADILLA/E6-P01%20Jug.png</t>
-        </is>
-      </c>
+      <c r="B502" t="inlineStr"/>
     </row>
     <row r="503">
       <c r="A503" t="n">
@@ -4645,41 +3473,25 @@
       <c r="A506" t="n">
         <v>504</v>
       </c>
-      <c r="B506" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275756/E6/PESADILLA/E6-P05%20Zrau.png</t>
-        </is>
-      </c>
+      <c r="B506" t="inlineStr"/>
     </row>
     <row r="507">
       <c r="A507" t="n">
         <v>505</v>
       </c>
-      <c r="B507" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275758/E6/PESADILLA/E6-P06%20Exanirot.png</t>
-        </is>
-      </c>
+      <c r="B507" t="inlineStr"/>
     </row>
     <row r="508">
       <c r="A508" t="n">
         <v>506</v>
       </c>
-      <c r="B508" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275759/E6/PESADILLA/E6-P07%20Mundo%20Corrupto.png</t>
-        </is>
-      </c>
+      <c r="B508" t="inlineStr"/>
     </row>
     <row r="509">
       <c r="A509" t="n">
         <v>507</v>
       </c>
-      <c r="B509" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275760/E6/PESADILLA/E6-P08%20Alarido%20Iracundo.png</t>
-        </is>
-      </c>
+      <c r="B509" t="inlineStr"/>
     </row>
     <row r="510">
       <c r="A510" t="n">
@@ -4703,11 +3515,7 @@
       <c r="A513" t="n">
         <v>511</v>
       </c>
-      <c r="B513" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275761/E6/PESADILLA/E6_1-P04%20Vortem.png</t>
-        </is>
-      </c>
+      <c r="B513" t="inlineStr"/>
     </row>
     <row r="514">
       <c r="A514" t="n">
@@ -4731,11 +3539,7 @@
       <c r="A517" t="n">
         <v>515</v>
       </c>
-      <c r="B517" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750275762/E6/PESADILLA/E6_2-P04%20Lacriem.png</t>
-        </is>
-      </c>
+      <c r="B517" t="inlineStr"/>
     </row>
     <row r="518">
       <c r="A518" t="n">
@@ -4759,7 +3563,11 @@
       <c r="A521" t="n">
         <v>519</v>
       </c>
-      <c r="B521" t="inlineStr"/>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287317/E6/PESADILLA/E6_3-P04%20Furia%20Encarnada.png</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/uploaded_image_links.xlsx
+++ b/uploaded_image_links.xlsx
@@ -449,283 +449,471 @@
       <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287819/E1/BOSQUEMAGO/E1-B01%20Dureg%C3%B3n.png</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287820/E1/BOSQUEMAGO/E1-B02%20Wynsdey.png</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287821/E1/BOSQUEMAGO/E1-B03%20Deridurag%C3%B3n.png</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287822/E1/BOSQUEMAGO/E1-B04%20Driada.png</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287823/E1/BOSQUEMAGO/E1-B05%20Ddraig.png</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287824/E1/BOSQUEMAGO/E1-B06%20Hada%20Revitalizante.png</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287825/E1/BOSQUEMAGO/E1-B07%20Hydra%20Colosal.png</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287826/E1/BOSQUEMAGO/E1-B08%20Ninfa%20Cantante%20De%20Dragones.png</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287827/E1/BOSQUEMAGO/E1-B09%20Uzume.png</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287828/E1/BOSQUEMAGO/E1-B10%20Drag%C3%B3n%20Carmes%C3%AD.png</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287829/E1/BOSQUEMAGO/E1-B11%20Bosque%20Frondoso.png</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287831/E1/BOSQUEMAGO/E1-B12%20Tributo%20Del%20Bosque.png</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287832/E1/BOSQUEMAGO/E1_1-B01%20Cervalyra.png</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287833/E1/BOSQUEMAGO/E1_1-B02%20Lyna.png</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287834/E1/BOSQUEMAGO/E1_1-B03%20Wyverno%20De%20Las%20Nubes.png</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287835/E1/BOSQUEMAGO/E1_1-B04%20Juleus%20El%20Principe%20Olvidado.png</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287836/E1/BOSQUEMAGO/E1_1-B05%20Trampa%20Vegetal.png</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287837/E1/BOSQUEMAGO/E1_1-B06%20Token.png</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287838/E1/BOSQUEMAGO/E1_2-B01%20Anna.png</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287839/E1/BOSQUEMAGO/E1_2-B02%20Wyverno%20Rapaz.png</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287841/E1/BOSQUEMAGO/E1_2-B03%20Tharnok.png</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287842/E1/BOSQUEMAGO/E1_2-B04%20Volc%C3%A1n%20De%20Dragones.png</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287843/E1/BOSQUEMAGO/E1_2-B05%20Llamarada%20Perforante.png</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287844/E1/BOSQUEMAGO/E1_2-B06%20Token.png</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287845/E1/BOSQUEMAGO/E1_3-B01%20Hatchkin.png</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287846/E1/BOSQUEMAGO/E1_3-B02%20Fiorvo.png</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287847/E1/BOSQUEMAGO/E1_3-B03%20Filyho.png</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287848/E1/BOSQUEMAGO/E1_3-B04%20Lectranatus.png</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287849/E1/BOSQUEMAGO/E1_3-B05%20Mensaje%20De%20Los%20Esp%C3%ADritus%20Protectores.png</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287850/E1/BOSQUEMAGO/E1_3-B06%20Token.png</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287851/E1/DISRUPCION/E1-D01%20Cazador%20K3.png</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287852/E1/DISRUPCION/E1-D02%20Geo%20Cham%C3%A1n.png</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287853/E1/DISRUPCION/E1-D03%20VA-7.png</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287854/E1/DISRUPCION/E1-D04%20Safikoe.png</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287855/E1/DISRUPCION/E1-D05%20Extheo.png</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287856/E1/DISRUPCION/E1-D06%20Nehiel.png</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287858/E1/DISRUPCION/E1-D07%20Filushtie.png</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287859/E1/DISRUPCION/E1-D08%20Biok.png</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287860/E1/DISRUPCION/E1-D09%20Novikh%C3%A9.png</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287861/E1/DISRUPCION/E1-D10%20Bio-prototipo%20A0.png</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287862/E1/DISRUPCION/E1-D11%20Neocit%C3%A9.png</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287863/E1/DISRUPCION/E1-D12%20Corrupci%C3%B3n%20Biomec%C3%A1nica.png</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287864/E1/DISRUPCION/E1_1-D01%20Androide%20A7.png</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287866/E1/DISRUPCION/E1_1-D02%20Sp-7h.png</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287867/E1/DISRUPCION/E1_1-D03%20Unidad%20H3-R0.png</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287868/E1/DISRUPCION/E1_1-D04%20Nucleo%20De%20Energ%C3%ADa.png</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287869/E1/DISRUPCION/E1_1-D05%20Asalto%20A%C3%A9reo.png</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -737,31 +925,51 @@
       <c r="A50" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287870/E1/DISRUPCION/E1_2-D01%20Archnikek.png</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287872/E1/DISRUPCION/E1_2-D02%20Arquero%20Xiom%C3%A1tico.png</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287873/E1/DISRUPCION/E1_2-D03%20Flarix%20Interdimensional.png</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287874/E1/DISRUPCION/E1_2-D04%20Letsviek.png</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287875/E1/DISRUPCION/E1_2-D05%20Composici%C3%B3n%20Refract%C3%A1ria.png</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -773,31 +981,51 @@
       <c r="A56" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287876/E1/DISRUPCION/E1_3-D01%20Groll%20Vand%C3%A1lico.png</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287877/E1/DISRUPCION/E1_3-D02%20H-0110-W.png</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287878/E1/DISRUPCION/E1_3-D03%20SRL-EX8.png</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287879/E1/DISRUPCION/E1_3-D04%20Velkerop-1.png</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287880/E1/DISRUPCION/E1_3-D05%20Carne%20Como%20Material.png</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -809,367 +1037,611 @@
       <c r="A62" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287881/E1/GUERRERO/E1-G01%20Espada%20De%20Primera%20L%C3%ADnea.png</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287882/E1/GUERRERO/E1-G02%20Caballero%20Umbr%C3%ADo.png</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287883/E1/GUERRERO/E1-G03%20Martillo%20Frontal.png</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287884/E1/GUERRERO/E1-G04%20Recluta%20Ledidana.png</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287885/E1/GUERRERO/E1-G05%20Caballer%C3%ADa%20Cruzada.png</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287886/E1/GUERRERO/E1-G06%20Espada%20Le%C3%B3n%20Dorado.png</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287887/E1/GUERRERO/E1-G07%20Comandante%20De%20Las%20Espadas%20Drag%C3%B3n.png</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287888/E1/GUERRERO/E1-G08%20Guardian%20imperial.png</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287889/E1/GUERRERO/E1-G09%20Caballero%20Real.png</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287890/E1/GUERRERO/E1-G10%20Imperial%20De%20La%20Llama%20Eterna.png</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287891/E1/GUERRERO/E1-G11%20Tierra%20Feudal.png</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287892/E1/GUERRERO/E1-G12%20Fervor%20De%20Guerra.png</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287894/E1/GUERRERO/E1_1-G01%20Escudo%20De%20Primera%20L%C3%ADnea.png</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr"/>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287895/E1/GUERRERO/E1_1-G02%20Caballero%20F%C3%A9rreo.png</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr"/>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287896/E1/GUERRERO/E1_1-G03%20Cazarecompensas%20De%20Las%20Nieves.png</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr"/>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287897/E1/GUERRERO/E1_1-G04%20Principe%20Charles%20Di%20Castirion.png</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr"/>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287898/E1/GUERRERO/E1_1-G05%20Compa%C3%B1erismo.png</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr"/>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287899/E1/GUERRERO/E1_1-G06%20Token.png</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr"/>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287900/E1/GUERRERO/E1_2-G01%20Caballero%20Guardia.png</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr"/>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287901/E1/GUERRERO/E1_2-G02%20Atelea%20De%20Viresia.png</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr"/>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287902/E1/GUERRERO/E1_2-G03%20Golth.png</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr"/>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287903/E1/GUERRERO/E1_2-G04%20Torre%20De%20Vig%C3%ADa.png</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr"/>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287904/E1/GUERRERO/E1_2-G05%20Duelo%20De%20Traici%C3%B3n.png</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr"/>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287906/E1/GUERRERO/E1_2-G06%20Token.png</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr"/>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287907/E1/GUERRERO/E1_3-G01%20Pe%C3%B3n%20Experimentado.png</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr"/>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287908/E1/GUERRERO/E1_3-G02%20Arco%20Le%C3%B3n%20Dorado.png</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr"/>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287909/E1/GUERRERO/E1_3-G03%20Caballero%20Jurado.png</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr"/>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287910/E1/GUERRERO/E1_3-G04%20Ejecutor%20De%20Las%20Nieves.png</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr"/>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287911/E1/GUERRERO/E1_3-G05%20Valor%20Heroico.png</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr"/>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287912/E1/GUERRERO/E1_3-G06%20Token.png</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr"/>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287913/E1/PESADILLA/E1-P01%20Alb%C3%ADgio.png</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr"/>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287914/E1/PESADILLA/E1-P02%20Bestia%20P%C3%BAtrida.png</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr"/>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287915/E1/PESADILLA/E1-P03%20Sombra%20Errante.png</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr"/>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287917/E1/PESADILLA/E1-P04%20Espantapajaros%20Carro%C3%B1ero.png</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr"/>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287918/E1/PESADILLA/E1-P05%20Cazador%20De%20Bestias.png</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr"/>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287920/E1/PESADILLA/E1-P06%20Segador%20De%20Almas.png</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr"/>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287922/E1/PESADILLA/E1-P07%20Cascador%20Hilarante.png</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr"/>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287923/E1/PESADILLA/E1-P08%20Ara%C3%B1ador.png</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr"/>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287925/E1/PESADILLA/E1-P09%20Khaan.png</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr"/>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287927/E1/PESADILLA/E1-P10%20Apostol%20De%20La%20Infamia.png</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr"/>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287928/E1/PESADILLA/E1-P11%20Ruinas%20De%20Sangre.png</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr"/>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287929/E1/PESADILLA/E1-P12%20Ritual%20De%20Sacrif%C3%ADcio.png</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr"/>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287931/E1/PESADILLA/E1_1-P01%20Lobo%20Embrujado.png</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr"/>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287932/E1/PESADILLA/E1_1-P02%20Aullador.png</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr"/>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287933/E1/PESADILLA/E1_1-P03%20Esqueleto%20De%20Las%20Mazmorras.png</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr"/>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287934/E1/PESADILLA/E1_1-P04%20Necrobrujo%20Invocado.png</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr"/>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287935/E1/PESADILLA/E1_1-P05%20Invocaci%C3%B3n%20De%20Los%20Muertos%20Del%20Pantano.png</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="inlineStr"/>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287937/E1/PESADILLA/E1_1-P06%20Token.png</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr"/>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287938/E1/PESADILLA/E1_2-P01%20Esqueleto%20Errante.png</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="inlineStr"/>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287939/E1/PESADILLA/E1_2-P02%20Aracnopanto.png</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="inlineStr"/>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287940/E1/PESADILLA/E1_2-P03%20Vigilante%20Cadav%C3%A9rico.png</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr"/>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287941/E1/PESADILLA/E1_2-P04%20Furia%20%C3%81lmica.png</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="inlineStr"/>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287942/E1/PESADILLA/E1_2-P05%20Llamada%20Espectral.png</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="inlineStr"/>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287943/E1/PESADILLA/E1_2-P06%20Token.png</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="inlineStr"/>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287944/E1/PESADILLA/E1_3-P01%20Explorador%20Olvidado.png</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287945/E1/PESADILLA/E1_3-P02%20Lureruri.png</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>116</v>
       </c>
-      <c r="B118" t="inlineStr"/>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287947/E1/PESADILLA/E1_3-P03%20Zaranthrax.png</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>117</v>
       </c>
-      <c r="B119" t="inlineStr"/>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287948/E1/PESADILLA/E1_3-P04%20Zombi%20Berserker.png</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
         <v>118</v>
       </c>
-      <c r="B120" t="inlineStr"/>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287949/E1/PESADILLA/E1_3-P05%20Conjuro%20De%20Oscuridad%20Infinita.png</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
         <v>119</v>
       </c>
-      <c r="B121" t="inlineStr"/>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287950/E1/PESADILLA/E1_3-P06%20Token.png</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
         <v>120</v>
       </c>
-      <c r="B122" t="inlineStr"/>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287951/E2/BOSQUEMAGO/E2-B01%20Elida.png</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -1181,19 +1653,31 @@
       <c r="A124" t="n">
         <v>122</v>
       </c>
-      <c r="B124" t="inlineStr"/>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287952/E2/BOSQUEMAGO/E2-B03%20Dela.png</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
         <v>123</v>
       </c>
-      <c r="B125" t="inlineStr"/>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287953/E2/BOSQUEMAGO/E2-B04%20Palad%C3%ADn%20De%20La%20Tierra%20Oculta.png</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
         <v>124</v>
       </c>
-      <c r="B126" t="inlineStr"/>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287954/E2/BOSQUEMAGO/E2-B05%20Dianthe.png</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -1205,13 +1689,21 @@
       <c r="A128" t="n">
         <v>126</v>
       </c>
-      <c r="B128" t="inlineStr"/>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287956/E2/BOSQUEMAGO/E2-B07%20Drag%C3%B3n%20Templado.png</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
         <v>127</v>
       </c>
-      <c r="B129" t="inlineStr"/>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287957/E2/BOSQUEMAGO/E2-B08%20Bosque%20Perdido.png</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -1229,19 +1721,31 @@
       <c r="A132" t="n">
         <v>130</v>
       </c>
-      <c r="B132" t="inlineStr"/>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287959/E2/BOSQUEMAGO/E2_1-B03%20Metaldrake.png</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
         <v>131</v>
       </c>
-      <c r="B133" t="inlineStr"/>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287961/E2/BOSQUEMAGO/E2_1-B04%20Bosque%20M%C3%A1gico%20De%20Los%20Esp%C3%ADritus.png</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
         <v>132</v>
       </c>
-      <c r="B134" t="inlineStr"/>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287962/E2/BOSQUEMAGO/E2_2-B01%20Hada%20Perdida.png</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -1253,13 +1757,21 @@
       <c r="A136" t="n">
         <v>134</v>
       </c>
-      <c r="B136" t="inlineStr"/>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287963/E2/BOSQUEMAGO/E2_2-B03%20Valanidris.png</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
         <v>135</v>
       </c>
-      <c r="B137" t="inlineStr"/>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287964/E2/BOSQUEMAGO/E2_2-B04%20Floraci%C3%B3n%20De%20Las%20Hadas.png</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -1271,37 +1783,61 @@
       <c r="A139" t="n">
         <v>137</v>
       </c>
-      <c r="B139" t="inlineStr"/>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287966/E2/BOSQUEMAGO/E2_3-B02%20%C3%81nima%20Feral.png</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
         <v>138</v>
       </c>
-      <c r="B140" t="inlineStr"/>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287967/E2/BOSQUEMAGO/E2_3-B03%20Falanis%20El%20Wyverno%20De%20La%20Tormenta.png</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
         <v>139</v>
       </c>
-      <c r="B141" t="inlineStr"/>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287968/E2/BOSQUEMAGO/E2_3-B04%20Danza%20De%20Ensue%C3%B1o.png</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
         <v>140</v>
       </c>
-      <c r="B142" t="inlineStr"/>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287970/E2/DISRUPCION/E2-D01%20Explorador%20Viajero.png</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
         <v>141</v>
       </c>
-      <c r="B143" t="inlineStr"/>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287971/E2/DISRUPCION/E2-D02%20VS-1.png</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
         <v>142</v>
       </c>
-      <c r="B144" t="inlineStr"/>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287972/E2/DISRUPCION/E2-D03%20AX-4.png</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -1313,7 +1849,11 @@
       <c r="A146" t="n">
         <v>144</v>
       </c>
-      <c r="B146" t="inlineStr"/>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287973/E2/DISRUPCION/E2-D05%20ES-707.png</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -1325,7 +1865,11 @@
       <c r="A148" t="n">
         <v>146</v>
       </c>
-      <c r="B148" t="inlineStr"/>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287974/E2/DISRUPCION/E2-D07%20Cianotipo%20De%20Aut%C3%B3mata.png</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -1337,19 +1881,31 @@
       <c r="A150" t="n">
         <v>148</v>
       </c>
-      <c r="B150" t="inlineStr"/>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287975/E2/DISRUPCION/E2_1-D01%20Explorador%20Viajero%20V2.png</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
         <v>149</v>
       </c>
-      <c r="B151" t="inlineStr"/>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287978/E2/DISRUPCION/E2_1-D02%20EXO-91.png</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
         <v>150</v>
       </c>
-      <c r="B152" t="inlineStr"/>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287979/E2/DISRUPCION/E2_1-D03%20Geo%20Vigilante.png</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -1361,19 +1917,31 @@
       <c r="A154" t="n">
         <v>152</v>
       </c>
-      <c r="B154" t="inlineStr"/>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287980/E2/DISRUPCION/E2_2-D01%20Vigilante%20Pasivo.png</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
         <v>153</v>
       </c>
-      <c r="B155" t="inlineStr"/>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287982/E2/DISRUPCION/E2_2-D02%20Sobrecarga.png</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
         <v>154</v>
       </c>
-      <c r="B156" t="inlineStr"/>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287983/E2/DISRUPCION/E2_2-D03%20Proto%20Ca%C3%B1on%20De%20Largo%20Alcance.png</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -1385,7 +1953,11 @@
       <c r="A158" t="n">
         <v>156</v>
       </c>
-      <c r="B158" t="inlineStr"/>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287985/E2/DISRUPCION/E2_3-D01%20A-1002-Corredor.png</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -1397,7 +1969,11 @@
       <c r="A160" t="n">
         <v>158</v>
       </c>
-      <c r="B160" t="inlineStr"/>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287987/E2/DISRUPCION/E2_3-D03%20KA-0%20X1.png</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -1415,13 +1991,21 @@
       <c r="A163" t="n">
         <v>161</v>
       </c>
-      <c r="B163" t="inlineStr"/>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287989/E2/GUERRERO/E2-G02%20Explorador%20Temerario.png</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
         <v>162</v>
       </c>
-      <c r="B164" t="inlineStr"/>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287991/E2/GUERRERO/E2-G03%20Alabarda%20De%20Ala%20Blanca.png</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -1433,13 +2017,21 @@
       <c r="A166" t="n">
         <v>164</v>
       </c>
-      <c r="B166" t="inlineStr"/>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287992/E2/GUERRERO/E2-G05%20Establo.png</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
         <v>165</v>
       </c>
-      <c r="B167" t="inlineStr"/>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287994/E2/GUERRERO/E2-G06%20T%C3%A1cticas%20De%20Guerra.png</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -1457,7 +2049,11 @@
       <c r="A170" t="n">
         <v>168</v>
       </c>
-      <c r="B170" t="inlineStr"/>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287995/E2/GUERRERO/E2_1-G01%20Alabarda%20De%20Primera%20L%C3%ADnea.png</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -1469,7 +2065,11 @@
       <c r="A172" t="n">
         <v>170</v>
       </c>
-      <c r="B172" t="inlineStr"/>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287997/E2/GUERRERO/E2_1-G03%20A%20La%20Carga%21.png</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -1487,13 +2087,21 @@
       <c r="A175" t="n">
         <v>173</v>
       </c>
-      <c r="B175" t="inlineStr"/>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287998/E2/GUERRERO/E2_2-G02%20Caballero%20Leal.png</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
         <v>174</v>
       </c>
-      <c r="B176" t="inlineStr"/>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287999/E2/GUERRERO/E2_2-G03%20Mercenario%20Valeroso.png</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -1511,7 +2119,11 @@
       <c r="A179" t="n">
         <v>177</v>
       </c>
-      <c r="B179" t="inlineStr"/>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288000/E2/GUERRERO/E2_3-G02%20Comandante%20Veterano.png</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -1535,13 +2147,21 @@
       <c r="A183" t="n">
         <v>181</v>
       </c>
-      <c r="B183" t="inlineStr"/>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288001/E2/PESADILLA/E2-P02%20Devorador.png</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
         <v>182</v>
       </c>
-      <c r="B184" t="inlineStr"/>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288002/E2/PESADILLA/E2-P03%20Come%20Hombres.png</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -1565,31 +2185,51 @@
       <c r="A188" t="n">
         <v>186</v>
       </c>
-      <c r="B188" t="inlineStr"/>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288004/E2/PESADILLA/E2-P07%20Culto%20Convocatorio.png</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
         <v>187</v>
       </c>
-      <c r="B189" t="inlineStr"/>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288005/E2/PESADILLA/E2-P08%20Fest%C3%ADn.png</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
         <v>188</v>
       </c>
-      <c r="B190" t="inlineStr"/>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288006/E2/PESADILLA/E2_1-P01%20Can%20Infernal.png</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
         <v>189</v>
       </c>
-      <c r="B191" t="inlineStr"/>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288007/E2/PESADILLA/E2_1-P02%20Comandante%20Del%20Ej%C3%A9rcito%20Perdido.png</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
         <v>190</v>
       </c>
-      <c r="B192" t="inlineStr"/>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288008/E2/PESADILLA/E2_1-P03%20Devorador%20De%20Cazadores.png</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -1607,19 +2247,31 @@
       <c r="A195" t="n">
         <v>193</v>
       </c>
-      <c r="B195" t="inlineStr"/>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288009/E2/PESADILLA/E2_2-P02%20Centauros%20De%20La%20Noche%20Iluminada.png</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
         <v>194</v>
       </c>
-      <c r="B196" t="inlineStr"/>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288010/E2/PESADILLA/E2_2-P03%20Traga%20Almas.png</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
         <v>195</v>
       </c>
-      <c r="B197" t="inlineStr"/>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288011/E2/PESADILLA/E2_2-P04%20Hellios.png</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -1643,19 +2295,31 @@
       <c r="A201" t="n">
         <v>199</v>
       </c>
-      <c r="B201" t="inlineStr"/>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288012/E2/PESADILLA/E2_3-P04%20Fusi%C3%B3n%20De%20Los%20Huesos%20Encarnados.png</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
         <v>200</v>
       </c>
-      <c r="B202" t="inlineStr"/>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288013/E3/BOSQUEMAGO/E3-B01%20Dirug%C3%B3n.png</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
         <v>201</v>
       </c>
-      <c r="B203" t="inlineStr"/>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288015/E3/BOSQUEMAGO/E3-B02%20Ptreorag%C3%B3n.png</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -1667,7 +2331,11 @@
       <c r="A205" t="n">
         <v>203</v>
       </c>
-      <c r="B205" t="inlineStr"/>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288016/E3/BOSQUEMAGO/E3-B04%20Fresnag%C3%B3n.png</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -1685,31 +2353,51 @@
       <c r="A208" t="n">
         <v>206</v>
       </c>
-      <c r="B208" t="inlineStr"/>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288017/E3/BOSQUEMAGO/E3-B07%20Monta%C3%B1as%20Volc%C3%A1nicas.png</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
         <v>207</v>
       </c>
-      <c r="B209" t="inlineStr"/>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288018/E3/BOSQUEMAGO/E3-B08%20Embestida%20Aerea.png</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
         <v>208</v>
       </c>
-      <c r="B210" t="inlineStr"/>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288019/E3/BOSQUEMAGO/E3_1-B01%20Elegante%20Wyrm.png</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
         <v>209</v>
       </c>
-      <c r="B211" t="inlineStr"/>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288020/E3/BOSQUEMAGO/E3_1-B02%20Ddraker.png</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
         <v>210</v>
       </c>
-      <c r="B212" t="inlineStr"/>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288021/E3/BOSQUEMAGO/E3_1-B03%20Unicornio%20Espada.png</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -1721,13 +2409,21 @@
       <c r="A214" t="n">
         <v>212</v>
       </c>
-      <c r="B214" t="inlineStr"/>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288022/E3/BOSQUEMAGO/E3_2-B01%20Bis%C3%B3n%20Lanudo%20Lunar.png</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
         <v>213</v>
       </c>
-      <c r="B215" t="inlineStr"/>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288024/E3/BOSQUEMAGO/E3_2-B02%20Dracotyrantus%20Magna.png</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -1745,19 +2441,31 @@
       <c r="A218" t="n">
         <v>216</v>
       </c>
-      <c r="B218" t="inlineStr"/>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288025/E3/BOSQUEMAGO/E3_3-B01%20Pegaso%20De%20Pradera.png</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
         <v>217</v>
       </c>
-      <c r="B219" t="inlineStr"/>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288027/E3/BOSQUEMAGO/E3_3-B02%20Drag%C3%B3n%20Pluma%20Cristal.png</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
         <v>218</v>
       </c>
-      <c r="B220" t="inlineStr"/>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288028/E3/BOSQUEMAGO/E3_3-B03%20Gaeos%20El%20Ala%20De%20La%20Tierra.png</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -1769,25 +2477,41 @@
       <c r="A222" t="n">
         <v>220</v>
       </c>
-      <c r="B222" t="inlineStr"/>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288029/E3/DISRUPCION/E3-D01%20Prometeo%20Erasmoos.png</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
         <v>221</v>
       </c>
-      <c r="B223" t="inlineStr"/>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288030/E3/DISRUPCION/E3-D02%20Khalesa.png</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
         <v>222</v>
       </c>
-      <c r="B224" t="inlineStr"/>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288031/E3/DISRUPCION/E3-D03%20Feretrus.png</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
         <v>223</v>
       </c>
-      <c r="B225" t="inlineStr"/>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288032/E3/DISRUPCION/E3-D04%20Principe%20Eos.png</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -1799,7 +2523,11 @@
       <c r="A227" t="n">
         <v>225</v>
       </c>
-      <c r="B227" t="inlineStr"/>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288034/E3/DISRUPCION/E3-D06%20Compresi%C3%B3n%20Interdimensional.png</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -1817,13 +2545,21 @@
       <c r="A230" t="n">
         <v>228</v>
       </c>
-      <c r="B230" t="inlineStr"/>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288035/E3/DISRUPCION/E3_1-D01%20Cronoflureteus.png</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
         <v>229</v>
       </c>
-      <c r="B231" t="inlineStr"/>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288036/E3/DISRUPCION/E3_1-D02%20Torre%20Ritual.png</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -1841,13 +2577,21 @@
       <c r="A234" t="n">
         <v>232</v>
       </c>
-      <c r="B234" t="inlineStr"/>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288038/E3/DISRUPCION/E3_2-D01%20Entidad%20Ermita%C3%B1a%20Errante.png</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
         <v>233</v>
       </c>
-      <c r="B235" t="inlineStr"/>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288039/E3/DISRUPCION/E3_2-D02%20Protectora%20Interdimensional.png</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -1865,13 +2609,21 @@
       <c r="A238" t="n">
         <v>236</v>
       </c>
-      <c r="B238" t="inlineStr"/>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288040/E3/DISRUPCION/E3_3-D01%20Platareum.png</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
         <v>237</v>
       </c>
-      <c r="B239" t="inlineStr"/>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288041/E3/DISRUPCION/E3_3-D02%20Eteleo%20Caos.png</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -1889,37 +2641,61 @@
       <c r="A242" t="n">
         <v>240</v>
       </c>
-      <c r="B242" t="inlineStr"/>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288042/E3/GUERRERO/E3-G01%20Arquero%20De%20Emboscada.png</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
         <v>241</v>
       </c>
-      <c r="B243" t="inlineStr"/>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288043/E3/GUERRERO/E3-G02%20Asaltante%20P%C3%ADcaro.png</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
         <v>242</v>
       </c>
-      <c r="B244" t="inlineStr"/>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288044/E3/GUERRERO/E3-G03%20Letric%20De%20Eslavies.png</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
         <v>243</v>
       </c>
-      <c r="B245" t="inlineStr"/>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288045/E3/GUERRERO/E3-G04%20Emboscada.png</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
         <v>244</v>
       </c>
-      <c r="B246" t="inlineStr"/>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288047/E3/GUERRERO/E3-G05%20Ataque%20Sorpresa.png</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
         <v>245</v>
       </c>
-      <c r="B247" t="inlineStr"/>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288049/E3/GUERRERO/E3-G06%20Bot%C3%ADn.png</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -1937,13 +2713,21 @@
       <c r="A250" t="n">
         <v>248</v>
       </c>
-      <c r="B250" t="inlineStr"/>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288060/E3/GUERRERO/E3_1-G01%20Mercenario%20Nocturno.png</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
         <v>249</v>
       </c>
-      <c r="B251" t="inlineStr"/>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288061/E3/GUERRERO/E3_1-G02%20Encargo.png</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -1961,19 +2745,31 @@
       <c r="A254" t="n">
         <v>252</v>
       </c>
-      <c r="B254" t="inlineStr"/>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288062/E3/GUERRERO/E3_2-G01%20Jack%20Kest%C3%B3.png</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
         <v>253</v>
       </c>
-      <c r="B255" t="inlineStr"/>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288064/E3/GUERRERO/E3_2-G02%20Taberna.png</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
         <v>254</v>
       </c>
-      <c r="B256" t="inlineStr"/>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288065/E3/GUERRERO/E3_2-G03%20Infamia.png</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -1985,13 +2781,21 @@
       <c r="A258" t="n">
         <v>256</v>
       </c>
-      <c r="B258" t="inlineStr"/>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288067/E3/GUERRERO/E3_3-G01%20Loan%20El%20Despiadado.png</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
         <v>257</v>
       </c>
-      <c r="B259" t="inlineStr"/>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288068/E3/GUERRERO/E3_3-G02%20Kholeus%20El%20Inmortal.png</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -2009,7 +2813,11 @@
       <c r="A262" t="n">
         <v>260</v>
       </c>
-      <c r="B262" t="inlineStr"/>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288069/E3/PESADILLA/E3-P01%20Abraza%20Almas.png</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -2021,13 +2829,21 @@
       <c r="A264" t="n">
         <v>262</v>
       </c>
-      <c r="B264" t="inlineStr"/>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288071/E3/PESADILLA/E3-P03%20Convocador%20De%20Sombras.png</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
         <v>263</v>
       </c>
-      <c r="B265" t="inlineStr"/>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288072/E3/PESADILLA/E3-P04%20Amalgama%20Cadav%C3%A9rica.png</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -2051,7 +2867,11 @@
       <c r="A269" t="n">
         <v>267</v>
       </c>
-      <c r="B269" t="inlineStr"/>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288073/E3/PESADILLA/E3-P08%20Asedio%20Del%20Inframundo.png</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -2063,19 +2883,31 @@
       <c r="A271" t="n">
         <v>269</v>
       </c>
-      <c r="B271" t="inlineStr"/>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288075/E3/PESADILLA/E3_1-P02%20Alarido%20Espectral.png</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
         <v>270</v>
       </c>
-      <c r="B272" t="inlineStr"/>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288076/E3/PESADILLA/E3_1-P03%20Augurio%20Floreciente.png</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
         <v>271</v>
       </c>
-      <c r="B273" t="inlineStr"/>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288077/E3/PESADILLA/E3_1-P04%20Cosecha%20De%20Almas.png</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -2087,49 +2919,81 @@
       <c r="A275" t="n">
         <v>273</v>
       </c>
-      <c r="B275" t="inlineStr"/>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288078/E3/PESADILLA/E3_2-P02%20Fereteus.png</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
         <v>274</v>
       </c>
-      <c r="B276" t="inlineStr"/>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288079/E3/PESADILLA/E3_2-P03%20Desollador.png</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
         <v>275</v>
       </c>
-      <c r="B277" t="inlineStr"/>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288080/E3/PESADILLA/E3_2-P04%20Maleficio%20Devastador.png</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
         <v>276</v>
       </c>
-      <c r="B278" t="inlineStr"/>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288081/E3/PESADILLA/E3_3-P01%20Hul.png</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
         <v>277</v>
       </c>
-      <c r="B279" t="inlineStr"/>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288082/E3/PESADILLA/E3_3-P02%20Rey%20Oscuro.png</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
         <v>278</v>
       </c>
-      <c r="B280" t="inlineStr"/>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288083/E3/PESADILLA/E3_3-P03%20Reclamo%20Del%20Inframundo.png</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
         <v>279</v>
       </c>
-      <c r="B281" t="inlineStr"/>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288084/E3/PESADILLA/E3_3-P04%20Pacto%20De%20Sangre%20Pura.png</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
         <v>280</v>
       </c>
-      <c r="B282" t="inlineStr"/>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288085/E4/BOSQUEMAGO/E4-B01%20Florri%C3%B3n.png</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -2141,7 +3005,11 @@
       <c r="A284" t="n">
         <v>282</v>
       </c>
-      <c r="B284" t="inlineStr"/>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288086/E4/BOSQUEMAGO/E4-B03%20Le%C3%B3n%20De%20La%20Zarza%20Sombr%C3%ADa.png</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -2159,13 +3027,21 @@
       <c r="A287" t="n">
         <v>285</v>
       </c>
-      <c r="B287" t="inlineStr"/>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288087/E4/BOSQUEMAGO/E4-B06%20Magnaus%20Protector%20Del%20BosqueM%C3%A1gico.png</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
         <v>286</v>
       </c>
-      <c r="B288" t="inlineStr"/>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288088/E4/BOSQUEMAGO/E4-B07%20BosqueM%C3%A1gico%20Profundo.png</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -2177,7 +3053,11 @@
       <c r="A290" t="n">
         <v>288</v>
       </c>
-      <c r="B290" t="inlineStr"/>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288089/E4/BOSQUEMAGO/E4_1-B01%20Tinflarus.png</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -2189,7 +3069,11 @@
       <c r="A292" t="n">
         <v>290</v>
       </c>
-      <c r="B292" t="inlineStr"/>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288091/E4/BOSQUEMAGO/E4_1-B03%20BosqueM%C3%A1gico%20De%20La%20Fauna.png</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -2201,13 +3085,21 @@
       <c r="A294" t="n">
         <v>292</v>
       </c>
-      <c r="B294" t="inlineStr"/>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288092/E4/BOSQUEMAGO/E4_2-B01%20Tigre%20R%C3%BAnico.png</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
         <v>293</v>
       </c>
-      <c r="B295" t="inlineStr"/>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288093/E4/BOSQUEMAGO/E4_2-B02%20Kir%C3%ADn.png</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -2231,13 +3123,21 @@
       <c r="A299" t="n">
         <v>297</v>
       </c>
-      <c r="B299" t="inlineStr"/>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288094/E4/BOSQUEMAGO/E4_3-B02%20Grifo.png</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
         <v>298</v>
       </c>
-      <c r="B300" t="inlineStr"/>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288095/E4/BOSQUEMAGO/E4_3-B03%20Guardi%C3%A1n%20Anciano%20Del%20BosqueM%C3%A1gico.png</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -2249,19 +3149,31 @@
       <c r="A302" t="n">
         <v>300</v>
       </c>
-      <c r="B302" t="inlineStr"/>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288096/E4/GUERRERO/E4-G01%20Pe%C3%B3n%20Del%20Castillo.png</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
         <v>301</v>
       </c>
-      <c r="B303" t="inlineStr"/>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288098/E4/GUERRERO/E4-G02%20Infanter%C3%ADa%20de%20Primera%20L%C3%ADnea.png</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
         <v>302</v>
       </c>
-      <c r="B304" t="inlineStr"/>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288099/E4/GUERRERO/E4-G03%20Caballer%C3%ADa%20De%20Primera%20L%C3%ADnea.png</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -2291,7 +3203,11 @@
       <c r="A309" t="n">
         <v>307</v>
       </c>
-      <c r="B309" t="inlineStr"/>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288100/E4/GUERRERO/E4-G08%20Fervor%20De%20Primera%20L%C3%ADnea.png</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -2303,13 +3219,21 @@
       <c r="A311" t="n">
         <v>309</v>
       </c>
-      <c r="B311" t="inlineStr"/>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288101/E4/GUERRERO/E4_1-G02%20Prince%20Alphonse%20Di%20Castirion.png</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
         <v>310</v>
       </c>
-      <c r="B312" t="inlineStr"/>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288102/E4/GUERRERO/E4_1-G03%20Reino%20Castirion.png</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -2327,13 +3251,21 @@
       <c r="A315" t="n">
         <v>313</v>
       </c>
-      <c r="B315" t="inlineStr"/>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288104/E4/GUERRERO/E4_2-G02%20Charles%20Di%20Castirion.png</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
         <v>314</v>
       </c>
-      <c r="B316" t="inlineStr"/>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288105/E4/GUERRERO/E4_2-G03%20Estandarte%20De%20Primera%20L%C3%ADnea.png</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -2351,13 +3283,21 @@
       <c r="A319" t="n">
         <v>317</v>
       </c>
-      <c r="B319" t="inlineStr"/>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288106/E4/GUERRERO/E4_3-G02%20Caballero%20Heroico.png</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
         <v>318</v>
       </c>
-      <c r="B320" t="inlineStr"/>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288107/E4/GUERRERO/E4_3-G03%20Trabuquete.png</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -2369,13 +3309,21 @@
       <c r="A322" t="n">
         <v>320</v>
       </c>
-      <c r="B322" t="inlineStr"/>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288109/E4/DISRUPCION/E4-D01%20BIO-EXUS-3.png</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
         <v>321</v>
       </c>
-      <c r="B323" t="inlineStr"/>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288110/E4/DISRUPCION/E4-D02%20Bio-Exterminador%20Errante.png</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -2387,7 +3335,11 @@
       <c r="A325" t="n">
         <v>323</v>
       </c>
-      <c r="B325" t="inlineStr"/>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288111/E4/DISRUPCION/E4-D04%20Explorador%20De%20Emergencia.png</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -2405,7 +3357,11 @@
       <c r="A328" t="n">
         <v>326</v>
       </c>
-      <c r="B328" t="inlineStr"/>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288113/E4/DISRUPCION/E4-D07%20BIO-Aniquilador.png</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -2423,13 +3379,21 @@
       <c r="A331" t="n">
         <v>329</v>
       </c>
-      <c r="B331" t="inlineStr"/>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288114/E4/DISRUPCION/E4_1-D02%20Ciudad%20Desolada.png</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
         <v>330</v>
       </c>
-      <c r="B332" t="inlineStr"/>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288116/E4/DISRUPCION/E4_1-D03%20Producci%C3%B3n%20De%20Biomaquinaria.png</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -2447,13 +3411,21 @@
       <c r="A335" t="n">
         <v>333</v>
       </c>
-      <c r="B335" t="inlineStr"/>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288117/E4/DISRUPCION/E4_2-D02%20Fabricante%20De%20Ciudad.png</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
         <v>334</v>
       </c>
-      <c r="B336" t="inlineStr"/>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288118/E4/DISRUPCION/E4_2-D03%20ERR-707.png</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -2471,13 +3443,21 @@
       <c r="A339" t="n">
         <v>337</v>
       </c>
-      <c r="B339" t="inlineStr"/>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288119/E4/DISRUPCION/E4_3-D02%20Bio-Aniquilador%20Incompleto.png</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
         <v>338</v>
       </c>
-      <c r="B340" t="inlineStr"/>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288121/E4/DISRUPCION/E4_3-D03%20Objetivo%20Adquirido.png</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -2489,19 +3469,31 @@
       <c r="A342" t="n">
         <v>340</v>
       </c>
-      <c r="B342" t="inlineStr"/>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288122/E4/PESADILLA/E4-P01%20Bruja%20Mensajera.png</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
         <v>341</v>
       </c>
-      <c r="B343" t="inlineStr"/>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288123/E4/PESADILLA/E4-P02%20Pir%C3%B3mago.png</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
         <v>342</v>
       </c>
-      <c r="B344" t="inlineStr"/>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288124/E4/PESADILLA/E4-P03%20Hrauf.png</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -2519,37 +3511,61 @@
       <c r="A347" t="n">
         <v>345</v>
       </c>
-      <c r="B347" t="inlineStr"/>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288125/E4/PESADILLA/E4-P06%20Liche.png</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
         <v>346</v>
       </c>
-      <c r="B348" t="inlineStr"/>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288126/E4/PESADILLA/E4-P07%20Imperio%20Desolado.png</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
         <v>347</v>
       </c>
-      <c r="B349" t="inlineStr"/>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288127/E4/PESADILLA/E4-P07%20Ritual%20Convocatorio.png</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
         <v>348</v>
       </c>
-      <c r="B350" t="inlineStr"/>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288128/E4/PESADILLA/E4_1-P01%20Bruja%20Lunar.png</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
         <v>349</v>
       </c>
-      <c r="B351" t="inlineStr"/>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288130/E4/PESADILLA/E4_1-P02%20Augurio%20De%20Cat%C3%A1strofe.png</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
         <v>350</v>
       </c>
-      <c r="B352" t="inlineStr"/>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288131/E4/PESADILLA/E4_1-P03%20N%27Rax.png</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -2567,25 +3583,41 @@
       <c r="A355" t="n">
         <v>353</v>
       </c>
-      <c r="B355" t="inlineStr"/>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288132/E4/PESADILLA/E4_2-P02%20Conjurado%20Olvidado.png</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
         <v>354</v>
       </c>
-      <c r="B356" t="inlineStr"/>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288134/E4/PESADILLA/E4_2-P03%20Zot.png</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
         <v>355</v>
       </c>
-      <c r="B357" t="inlineStr"/>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288135/E4/PESADILLA/E4_2-P04%20Quebrantamiento.png</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
         <v>356</v>
       </c>
-      <c r="B358" t="inlineStr"/>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288136/E4/PESADILLA/E4_3-P01%20Gaur.png</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -2609,7 +3641,11 @@
       <c r="A362" t="n">
         <v>360</v>
       </c>
-      <c r="B362" t="inlineStr"/>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288138/E5/BOSQUEMAGO/E5-B01%20Cr%C3%ADa%20Quim%C3%A9rica.png</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -2621,7 +3657,11 @@
       <c r="A364" t="n">
         <v>362</v>
       </c>
-      <c r="B364" t="inlineStr"/>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288139/E5/BOSQUEMAGO/E5-B03%20Glifo%20R%C3%BAnico.png</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -2639,19 +3679,31 @@
       <c r="A367" t="n">
         <v>365</v>
       </c>
-      <c r="B367" t="inlineStr"/>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288140/E5/BOSQUEMAGO/E5-B06%20Quimera%20Divina.png</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
         <v>366</v>
       </c>
-      <c r="B368" t="inlineStr"/>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288141/E5/BOSQUEMAGO/E5-B07%20Grimorio%20De%20Invocaciones.png</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
         <v>367</v>
       </c>
-      <c r="B369" t="inlineStr"/>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288142/E5/BOSQUEMAGO/E5-B08%20Secta%20De%20La%20Bestia%20Del%20Final%20De%20Los%20Tiempos.png</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -2663,13 +3715,21 @@
       <c r="A371" t="n">
         <v>369</v>
       </c>
-      <c r="B371" t="inlineStr"/>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288143/E5/BOSQUEMAGO/E5_1-B02%20Ketzeol.png</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
         <v>370</v>
       </c>
-      <c r="B372" t="inlineStr"/>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288144/E5/BOSQUEMAGO/E5_1-B03%20Capricio%20Rayo%20Del%20Monte.png</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -2681,7 +3741,11 @@
       <c r="A374" t="n">
         <v>372</v>
       </c>
-      <c r="B374" t="inlineStr"/>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288146/E5/BOSQUEMAGO/E5_2-B01%20Orador%20De%20Las%20Quimeras.png</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -2723,7 +3787,11 @@
       <c r="A381" t="n">
         <v>379</v>
       </c>
-      <c r="B381" t="inlineStr"/>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288147/E5/BOSQUEMAGO/E5_3-B04%20Aberraci%C3%B3n%20Quim%C3%A9rica.png</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -2849,37 +3917,61 @@
       <c r="A402" t="n">
         <v>400</v>
       </c>
-      <c r="B402" t="inlineStr"/>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288148/E5/DISRUPCION/E5-D01%20Pintor%20De%20Los%20Cielos.png</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
         <v>401</v>
       </c>
-      <c r="B403" t="inlineStr"/>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288149/E5/DISRUPCION/E5-D02%20%C3%81ngel%20Mensajero.png</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
         <v>402</v>
       </c>
-      <c r="B404" t="inlineStr"/>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288150/E5/DISRUPCION/E5-D03%20Shilpher%20El%20Protector.png</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
         <v>403</v>
       </c>
-      <c r="B405" t="inlineStr"/>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288151/E5/DISRUPCION/E5-D04%20Lilith%20Las%20Alas%20Del%20Susurro.png</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
         <v>404</v>
       </c>
-      <c r="B406" t="inlineStr"/>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288152/E5/DISRUPCION/E5-D05%20Uriel%20El%20Fuego%20De%20La%20Esperanza.png</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
         <v>405</v>
       </c>
-      <c r="B407" t="inlineStr"/>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288153/E5/DISRUPCION/E5-D06%20Samael%20El%20Fuego%20De%20La%20Destrucci%C3%B3n.png</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -2897,19 +3989,31 @@
       <c r="A410" t="n">
         <v>408</v>
       </c>
-      <c r="B410" t="inlineStr"/>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288154/E5/DISRUPCION/E5_1-D01%20Oradora%20De%20Los%20Ca%C3%ADdos.png</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
         <v>409</v>
       </c>
-      <c r="B411" t="inlineStr"/>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288155/E5/DISRUPCION/E5_1-D02%20Pecado%20Encadenado.png</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
         <v>410</v>
       </c>
-      <c r="B412" t="inlineStr"/>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288157/E5/DISRUPCION/E5_1-D03%20Voluntad%20Del%20Fuego%20Ignoto.png</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -2927,13 +4031,21 @@
       <c r="A415" t="n">
         <v>413</v>
       </c>
-      <c r="B415" t="inlineStr"/>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288157/E5/DISRUPCION/E5_2-D02%20Raziel%20El%20Ojo%20De%20La%20Luz%20Y%20La%20Oscuridad.png</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
         <v>414</v>
       </c>
-      <c r="B416" t="inlineStr"/>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288158/E5/DISRUPCION/E5_2-D03%20Decepci%C3%B3n%20Del%20Nombre%20Perdido.png</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -2945,13 +4057,21 @@
       <c r="A418" t="n">
         <v>416</v>
       </c>
-      <c r="B418" t="inlineStr"/>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288160/E5/DISRUPCION/E5_3-D01%20Seraf%C3%ADn%20Ignoto%20Fuego%20Del%20Caos.png</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
         <v>417</v>
       </c>
-      <c r="B419" t="inlineStr"/>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288161/E5/DISRUPCION/E5_3-D02%20Catedral%20De%20La%20Luz%20Divina.png</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -2969,61 +4089,101 @@
       <c r="A422" t="n">
         <v>420</v>
       </c>
-      <c r="B422" t="inlineStr"/>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288162/E5/PESADILLA/E5-P01%20Dregmilt.png</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
         <v>421</v>
       </c>
-      <c r="B423" t="inlineStr"/>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288163/E5/PESADILLA/E5-P02%20Zau.png</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
         <v>422</v>
       </c>
-      <c r="B424" t="inlineStr"/>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288164/E5/PESADILLA/E5-P03%20Gloopers.png</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
         <v>423</v>
       </c>
-      <c r="B425" t="inlineStr"/>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288167/E5/PESADILLA/E5-P04%20Jax%20Kreel.png</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
         <v>424</v>
       </c>
-      <c r="B426" t="inlineStr"/>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288168/E5/PESADILLA/E5-P05%20Capit%C3%A1n%20Sharkly.png</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
         <v>425</v>
       </c>
-      <c r="B427" t="inlineStr"/>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288169/E5/PESADILLA/E5-P06%20Nixal%27Abizot%20El%20Terror%20De%20La%20Penumbra%20Abisal.png</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
         <v>426</v>
       </c>
-      <c r="B428" t="inlineStr"/>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288171/E5/PESADILLA/E5-P07%20Oceano%20Tormentoso.png</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
         <v>427</v>
       </c>
-      <c r="B429" t="inlineStr"/>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288172/E5/PESADILLA/E5-P08%20%C2%A1Ataque%20Desde%20Las%20Profundidades%21.png</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
         <v>428</v>
       </c>
-      <c r="B430" t="inlineStr"/>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288173/E5/PESADILLA/E5_1-P01%20Sel.png</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
         <v>429</v>
       </c>
-      <c r="B431" t="inlineStr"/>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288175/E5/PESADILLA/E5_1-P02%20Abysalis.png</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -3041,13 +4201,21 @@
       <c r="A434" t="n">
         <v>432</v>
       </c>
-      <c r="B434" t="inlineStr"/>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288176/E5/PESADILLA/E5_2-P01%20Dregmilt%20De%20Costas%20Pantanosas.png</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
         <v>433</v>
       </c>
-      <c r="B435" t="inlineStr"/>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288177/E5/PESADILLA/E5_2-P02%20Voe.png</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -3449,7 +4617,11 @@
       <c r="A502" t="n">
         <v>500</v>
       </c>
-      <c r="B502" t="inlineStr"/>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288179/E6/PESADILLA/E6-P01%20Jug.png</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
@@ -3473,25 +4645,41 @@
       <c r="A506" t="n">
         <v>504</v>
       </c>
-      <c r="B506" t="inlineStr"/>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288180/E6/PESADILLA/E6-P05%20Zrau.png</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
         <v>505</v>
       </c>
-      <c r="B507" t="inlineStr"/>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288181/E6/PESADILLA/E6-P06%20Exanirot.png</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
         <v>506</v>
       </c>
-      <c r="B508" t="inlineStr"/>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288182/E6/PESADILLA/E6-P07%20Mundo%20Corrupto.png</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
         <v>507</v>
       </c>
-      <c r="B509" t="inlineStr"/>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288183/E6/PESADILLA/E6-P08%20Alarido%20Iracundo.png</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
@@ -3515,7 +4703,11 @@
       <c r="A513" t="n">
         <v>511</v>
       </c>
-      <c r="B513" t="inlineStr"/>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288184/E6/PESADILLA/E6_1-P04%20Vortem.png</t>
+        </is>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
@@ -3539,7 +4731,11 @@
       <c r="A517" t="n">
         <v>515</v>
       </c>
-      <c r="B517" t="inlineStr"/>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288185/E6/PESADILLA/E6_2-P04%20Lacriem.png</t>
+        </is>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
@@ -3563,11 +4759,7 @@
       <c r="A521" t="n">
         <v>519</v>
       </c>
-      <c r="B521" t="inlineStr">
-        <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287317/E6/PESADILLA/E6_3-P04%20Furia%20Encarnada.png</t>
-        </is>
-      </c>
+      <c r="B521" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/uploaded_image_links.xlsx
+++ b/uploaded_image_links.xlsx
@@ -3941,7 +3941,11 @@
       <c r="A400" t="n">
         <v>398</v>
       </c>
-      <c r="B400" t="inlineStr"/>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750707388/E5/GUERRERO/E5_3-G03%20Sohei.png</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">

--- a/uploaded_image_links.xlsx
+++ b/uploaded_image_links.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287819/E1/BOSQUEMAGO/E1-B01%20Dureg%C3%B3n.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708349/E1/BOSQUEMAGO/E1-B01%20Dureg%C3%B3n.png</t>
         </is>
       </c>
     </row>
@@ -461,7 +461,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287820/E1/BOSQUEMAGO/E1-B02%20Wynsdey.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708351/E1/BOSQUEMAGO/E1-B02%20Wynsdey.png</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287821/E1/BOSQUEMAGO/E1-B03%20Deridurag%C3%B3n.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708352/E1/BOSQUEMAGO/E1-B03%20Deridurag%C3%B3n.png</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287822/E1/BOSQUEMAGO/E1-B04%20Driada.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708353/E1/BOSQUEMAGO/E1-B04%20Driada.png</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287823/E1/BOSQUEMAGO/E1-B05%20Ddraig.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708354/E1/BOSQUEMAGO/E1-B05%20Ddraig.png</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287824/E1/BOSQUEMAGO/E1-B06%20Hada%20Revitalizante.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708356/E1/BOSQUEMAGO/E1-B06%20Hada%20Revitalizante.png</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287825/E1/BOSQUEMAGO/E1-B07%20Hydra%20Colosal.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708357/E1/BOSQUEMAGO/E1-B07%20Hydra%20Colosal.png</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287826/E1/BOSQUEMAGO/E1-B08%20Ninfa%20Cantante%20De%20Dragones.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708359/E1/BOSQUEMAGO/E1-B08%20Ninfa%20Cantante%20De%20Dragones.png</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287827/E1/BOSQUEMAGO/E1-B09%20Uzume.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708360/E1/BOSQUEMAGO/E1-B09%20Uzume.png</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287828/E1/BOSQUEMAGO/E1-B10%20Drag%C3%B3n%20Carmes%C3%AD.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708361/E1/BOSQUEMAGO/E1-B10%20Drag%C3%B3n%20Carmes%C3%AD.png</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287829/E1/BOSQUEMAGO/E1-B11%20Bosque%20Frondoso.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708362/E1/BOSQUEMAGO/E1-B11%20Bosque%20Frondoso.png</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287831/E1/BOSQUEMAGO/E1-B12%20Tributo%20Del%20Bosque.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708363/E1/BOSQUEMAGO/E1-B12%20Tributo%20Del%20Bosque.png</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287832/E1/BOSQUEMAGO/E1_1-B01%20Cervalyra.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708365/E1/BOSQUEMAGO/E1_1-B01%20Cervalyra.png</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287833/E1/BOSQUEMAGO/E1_1-B02%20Lyna.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708366/E1/BOSQUEMAGO/E1_1-B02%20Lyna.png</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287834/E1/BOSQUEMAGO/E1_1-B03%20Wyverno%20De%20Las%20Nubes.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708367/E1/BOSQUEMAGO/E1_1-B03%20Wyverno%20De%20Las%20Nubes.png</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287835/E1/BOSQUEMAGO/E1_1-B04%20Juleus%20El%20Principe%20Olvidado.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708369/E1/BOSQUEMAGO/E1_1-B04%20Juleus%20El%20Principe%20Olvidado.png</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287836/E1/BOSQUEMAGO/E1_1-B05%20Trampa%20Vegetal.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708370/E1/BOSQUEMAGO/E1_1-B05%20Trampa%20Vegetal.png</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287837/E1/BOSQUEMAGO/E1_1-B06%20Token.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708371/E1/BOSQUEMAGO/E1_1-B06%20Token.png</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287838/E1/BOSQUEMAGO/E1_2-B01%20Anna.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708373/E1/BOSQUEMAGO/E1_2-B01%20Anna.png</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287839/E1/BOSQUEMAGO/E1_2-B02%20Wyverno%20Rapaz.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708375/E1/BOSQUEMAGO/E1_2-B02%20Wyverno%20Rapaz.png</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287841/E1/BOSQUEMAGO/E1_2-B03%20Tharnok.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708376/E1/BOSQUEMAGO/E1_2-B03%20Tharnok.png</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287842/E1/BOSQUEMAGO/E1_2-B04%20Volc%C3%A1n%20De%20Dragones.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708378/E1/BOSQUEMAGO/E1_2-B04%20Volc%C3%A1n%20De%20Dragones.png</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287843/E1/BOSQUEMAGO/E1_2-B05%20Llamarada%20Perforante.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708379/E1/BOSQUEMAGO/E1_2-B05%20Llamarada%20Perforante.png</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287844/E1/BOSQUEMAGO/E1_2-B06%20Token.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708380/E1/BOSQUEMAGO/E1_2-B06%20Token.png</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287845/E1/BOSQUEMAGO/E1_3-B01%20Hatchkin.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708382/E1/BOSQUEMAGO/E1_3-B01%20Hatchkin.png</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287846/E1/BOSQUEMAGO/E1_3-B02%20Fiorvo.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708383/E1/BOSQUEMAGO/E1_3-B02%20Fiorvo.png</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287847/E1/BOSQUEMAGO/E1_3-B03%20Filyho.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708385/E1/BOSQUEMAGO/E1_3-B03%20Filyho.png</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287848/E1/BOSQUEMAGO/E1_3-B04%20Lectranatus.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708386/E1/BOSQUEMAGO/E1_3-B04%20Lectranatus.png</t>
         </is>
       </c>
     </row>
@@ -731,7 +731,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287849/E1/BOSQUEMAGO/E1_3-B05%20Mensaje%20De%20Los%20Esp%C3%ADritus%20Protectores.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708388/E1/BOSQUEMAGO/E1_3-B05%20Mensaje%20De%20Los%20Esp%C3%ADritus%20Protectores.png</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287850/E1/BOSQUEMAGO/E1_3-B06%20Token.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708389/E1/BOSQUEMAGO/E1_3-B06%20Token.png</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287851/E1/DISRUPCION/E1-D01%20Cazador%20K3.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708391/E1/DISRUPCION/E1-D01%20Cazador%20K3.png</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287852/E1/DISRUPCION/E1-D02%20Geo%20Cham%C3%A1n.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708392/E1/DISRUPCION/E1-D02%20Geo%20Cham%C3%A1n.png</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287853/E1/DISRUPCION/E1-D03%20VA-7.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708394/E1/DISRUPCION/E1-D03%20VA-7.png</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287854/E1/DISRUPCION/E1-D04%20Safikoe.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708395/E1/DISRUPCION/E1-D04%20Safikoe.png</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287855/E1/DISRUPCION/E1-D05%20Extheo.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708396/E1/DISRUPCION/E1-D05%20Extheo.png</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287856/E1/DISRUPCION/E1-D06%20Nehiel.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708398/E1/DISRUPCION/E1-D06%20Nehiel.png</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287858/E1/DISRUPCION/E1-D07%20Filushtie.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708399/E1/DISRUPCION/E1-D07%20Filushtie.png</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287859/E1/DISRUPCION/E1-D08%20Biok.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708401/E1/DISRUPCION/E1-D08%20Biok.png</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287860/E1/DISRUPCION/E1-D09%20Novikh%C3%A9.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708402/E1/DISRUPCION/E1-D09%20Novikh%C3%A9.png</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287861/E1/DISRUPCION/E1-D10%20Bio-prototipo%20A0.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708404/E1/DISRUPCION/E1-D10%20Bio-prototipo%20A0.png</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287862/E1/DISRUPCION/E1-D11%20Neocit%C3%A9.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708405/E1/DISRUPCION/E1-D11%20Neocit%C3%A9.png</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287863/E1/DISRUPCION/E1-D12%20Corrupci%C3%B3n%20Biomec%C3%A1nica.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708407/E1/DISRUPCION/E1-D12%20Corrupci%C3%B3n%20Biomec%C3%A1nica.png</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287864/E1/DISRUPCION/E1_1-D01%20Androide%20A7.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708409/E1/DISRUPCION/E1_1-D01%20Androide%20A7.png</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287866/E1/DISRUPCION/E1_1-D02%20Sp-7h.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708410/E1/DISRUPCION/E1_1-D02%20Sp-7h.png</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287867/E1/DISRUPCION/E1_1-D03%20Unidad%20H3-R0.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708411/E1/DISRUPCION/E1_1-D03%20Unidad%20H3-R0.png</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287868/E1/DISRUPCION/E1_1-D04%20Nucleo%20De%20Energ%C3%ADa.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708413/E1/DISRUPCION/E1_1-D04%20Nucleo%20De%20Energ%C3%ADa.png</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287869/E1/DISRUPCION/E1_1-D05%20Asalto%20A%C3%A9reo.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708414/E1/DISRUPCION/E1_1-D05%20Asalto%20A%C3%A9reo.png</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287870/E1/DISRUPCION/E1_2-D01%20Archnikek.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708416/E1/DISRUPCION/E1_2-D01%20Archnikek.png</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287872/E1/DISRUPCION/E1_2-D02%20Arquero%20Xiom%C3%A1tico.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708417/E1/DISRUPCION/E1_2-D02%20Arquero%20Xiom%C3%A1tico.png</t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287873/E1/DISRUPCION/E1_2-D03%20Flarix%20Interdimensional.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708418/E1/DISRUPCION/E1_2-D03%20Flarix%20Interdimensional.png</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287874/E1/DISRUPCION/E1_2-D04%20Letsviek.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708420/E1/DISRUPCION/E1_2-D04%20Letsviek.png</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287875/E1/DISRUPCION/E1_2-D05%20Composici%C3%B3n%20Refract%C3%A1ria.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708421/E1/DISRUPCION/E1_2-D05%20Composici%C3%B3n%20Refract%C3%A1ria.png</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287876/E1/DISRUPCION/E1_3-D01%20Groll%20Vand%C3%A1lico.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708423/E1/DISRUPCION/E1_3-D01%20Groll%20Vand%C3%A1lico.png</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287877/E1/DISRUPCION/E1_3-D02%20H-0110-W.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708424/E1/DISRUPCION/E1_3-D02%20H-0110-W.png</t>
         </is>
       </c>
     </row>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287878/E1/DISRUPCION/E1_3-D03%20SRL-EX8.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708425/E1/DISRUPCION/E1_3-D03%20SRL-EX8.png</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287879/E1/DISRUPCION/E1_3-D04%20Velkerop-1.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708427/E1/DISRUPCION/E1_3-D04%20Velkerop-1.png</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287880/E1/DISRUPCION/E1_3-D05%20Carne%20Como%20Material.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708429/E1/DISRUPCION/E1_3-D05%20Carne%20Como%20Material.png</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287881/E1/GUERRERO/E1-G01%20Espada%20De%20Primera%20L%C3%ADnea.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708430/E1/GUERRERO/E1-G01%20Espada%20De%20Primera%20L%C3%ADnea.png</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287882/E1/GUERRERO/E1-G02%20Caballero%20Umbr%C3%ADo.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708431/E1/GUERRERO/E1-G02%20Caballero%20Umbr%C3%ADo.png</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287883/E1/GUERRERO/E1-G03%20Martillo%20Frontal.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708432/E1/GUERRERO/E1-G03%20Martillo%20Frontal.png</t>
         </is>
       </c>
     </row>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287884/E1/GUERRERO/E1-G04%20Recluta%20Ledidana.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708434/E1/GUERRERO/E1-G04%20Recluta%20Ledidana.png</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287885/E1/GUERRERO/E1-G05%20Caballer%C3%ADa%20Cruzada.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708435/E1/GUERRERO/E1-G05%20Caballer%C3%ADa%20Cruzada.png</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287886/E1/GUERRERO/E1-G06%20Espada%20Le%C3%B3n%20Dorado.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708437/E1/GUERRERO/E1-G06%20Espada%20Le%C3%B3n%20Dorado.png</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287887/E1/GUERRERO/E1-G07%20Comandante%20De%20Las%20Espadas%20Drag%C3%B3n.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708438/E1/GUERRERO/E1-G07%20Comandante%20De%20Las%20Espadas%20Drag%C3%B3n.png</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287888/E1/GUERRERO/E1-G08%20Guardian%20imperial.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708439/E1/GUERRERO/E1-G08%20Guardian%20imperial.png</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287889/E1/GUERRERO/E1-G09%20Caballero%20Real.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708440/E1/GUERRERO/E1-G09%20Caballero%20Real.png</t>
         </is>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287890/E1/GUERRERO/E1-G10%20Imperial%20De%20La%20Llama%20Eterna.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708442/E1/GUERRERO/E1-G10%20Imperial%20De%20La%20Llama%20Eterna.png</t>
         </is>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287891/E1/GUERRERO/E1-G11%20Tierra%20Feudal.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708443/E1/GUERRERO/E1-G11%20Tierra%20Feudal.png</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287892/E1/GUERRERO/E1-G12%20Fervor%20De%20Guerra.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708444/E1/GUERRERO/E1-G12%20Fervor%20De%20Guerra.png</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287894/E1/GUERRERO/E1_1-G01%20Escudo%20De%20Primera%20L%C3%ADnea.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708446/E1/GUERRERO/E1_1-G01%20Escudo%20De%20Primera%20L%C3%ADnea.png</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287895/E1/GUERRERO/E1_1-G02%20Caballero%20F%C3%A9rreo.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708447/E1/GUERRERO/E1_1-G02%20Caballero%20F%C3%A9rreo.png</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287896/E1/GUERRERO/E1_1-G03%20Cazarecompensas%20De%20Las%20Nieves.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708449/E1/GUERRERO/E1_1-G03%20Cazarecompensas%20De%20Las%20Nieves.png</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287897/E1/GUERRERO/E1_1-G04%20Principe%20Charles%20Di%20Castirion.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708450/E1/GUERRERO/E1_1-G04%20Principe%20Charles%20Di%20Castirion.png</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287898/E1/GUERRERO/E1_1-G05%20Compa%C3%B1erismo.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708451/E1/GUERRERO/E1_1-G05%20Compa%C3%B1erismo.png</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287899/E1/GUERRERO/E1_1-G06%20Token.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708452/E1/GUERRERO/E1_1-G06%20Token.png</t>
         </is>
       </c>
     </row>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287900/E1/GUERRERO/E1_2-G01%20Caballero%20Guardia.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708454/E1/GUERRERO/E1_2-G01%20Caballero%20Guardia.png</t>
         </is>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287901/E1/GUERRERO/E1_2-G02%20Atelea%20De%20Viresia.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708455/E1/GUERRERO/E1_2-G02%20Atelea%20De%20Viresia.png</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287902/E1/GUERRERO/E1_2-G03%20Golth.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708456/E1/GUERRERO/E1_2-G03%20Golth.png</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287903/E1/GUERRERO/E1_2-G04%20Torre%20De%20Vig%C3%ADa.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708458/E1/GUERRERO/E1_2-G04%20Torre%20De%20Vig%C3%ADa.png</t>
         </is>
       </c>
     </row>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287904/E1/GUERRERO/E1_2-G05%20Duelo%20De%20Traici%C3%B3n.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708459/E1/GUERRERO/E1_2-G05%20Duelo%20De%20Traici%C3%B3n.png</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287906/E1/GUERRERO/E1_2-G06%20Token.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708461/E1/GUERRERO/E1_2-G06%20Token.png</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287907/E1/GUERRERO/E1_3-G01%20Pe%C3%B3n%20Experimentado.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708462/E1/GUERRERO/E1_3-G01%20Pe%C3%B3n%20Experimentado.png</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287908/E1/GUERRERO/E1_3-G02%20Arco%20Le%C3%B3n%20Dorado.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708464/E1/GUERRERO/E1_3-G02%20Arco%20Le%C3%B3n%20Dorado.png</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287909/E1/GUERRERO/E1_3-G03%20Caballero%20Jurado.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708465/E1/GUERRERO/E1_3-G03%20Caballero%20Jurado.png</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287910/E1/GUERRERO/E1_3-G04%20Ejecutor%20De%20Las%20Nieves.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708466/E1/GUERRERO/E1_3-G04%20Ejecutor%20De%20Las%20Nieves.png</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287911/E1/GUERRERO/E1_3-G05%20Valor%20Heroico.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708467/E1/GUERRERO/E1_3-G05%20Valor%20Heroico.png</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287912/E1/GUERRERO/E1_3-G06%20Token.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708468/E1/GUERRERO/E1_3-G06%20Token.png</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287913/E1/PESADILLA/E1-P01%20Alb%C3%ADgio.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708470/E1/PESADILLA/E1-P01%20Alb%C3%ADgio.png</t>
         </is>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287914/E1/PESADILLA/E1-P02%20Bestia%20P%C3%BAtrida.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708471/E1/PESADILLA/E1-P02%20Bestia%20P%C3%BAtrida.png</t>
         </is>
       </c>
     </row>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287915/E1/PESADILLA/E1-P03%20Sombra%20Errante.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708473/E1/PESADILLA/E1-P03%20Sombra%20Errante.png</t>
         </is>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287917/E1/PESADILLA/E1-P04%20Espantapajaros%20Carro%C3%B1ero.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708474/E1/PESADILLA/E1-P04%20Espantapajaros%20Carro%C3%B1ero.png</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287918/E1/PESADILLA/E1-P05%20Cazador%20De%20Bestias.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708475/E1/PESADILLA/E1-P05%20Cazador%20De%20Bestias.png</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287920/E1/PESADILLA/E1-P06%20Segador%20De%20Almas.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708478/E1/PESADILLA/E1-P06%20Segador%20De%20Almas.png</t>
         </is>
       </c>
     </row>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287922/E1/PESADILLA/E1-P07%20Cascador%20Hilarante.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708480/E1/PESADILLA/E1-P07%20Cascador%20Hilarante.png</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287923/E1/PESADILLA/E1-P08%20Ara%C3%B1ador.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708481/E1/PESADILLA/E1-P08%20Ara%C3%B1ador.png</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287925/E1/PESADILLA/E1-P09%20Khaan.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708483/E1/PESADILLA/E1-P09%20Khaan.png</t>
         </is>
       </c>
     </row>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287927/E1/PESADILLA/E1-P10%20Apostol%20De%20La%20Infamia.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708484/E1/PESADILLA/E1-P10%20Apostol%20De%20La%20Infamia.png</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287928/E1/PESADILLA/E1-P11%20Ruinas%20De%20Sangre.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708485/E1/PESADILLA/E1-P11%20Ruinas%20De%20Sangre.png</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287929/E1/PESADILLA/E1-P12%20Ritual%20De%20Sacrif%C3%ADcio.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708487/E1/PESADILLA/E1-P12%20Ritual%20De%20Sacrif%C3%ADcio.png</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287931/E1/PESADILLA/E1_1-P01%20Lobo%20Embrujado.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708488/E1/PESADILLA/E1_1-P01%20Lobo%20Embrujado.png</t>
         </is>
       </c>
     </row>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287932/E1/PESADILLA/E1_1-P02%20Aullador.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708490/E1/PESADILLA/E1_1-P02%20Aullador.png</t>
         </is>
       </c>
     </row>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287933/E1/PESADILLA/E1_1-P03%20Esqueleto%20De%20Las%20Mazmorras.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708491/E1/PESADILLA/E1_1-P03%20Esqueleto%20De%20Las%20Mazmorras.png</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287934/E1/PESADILLA/E1_1-P04%20Necrobrujo%20Invocado.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708492/E1/PESADILLA/E1_1-P04%20Necrobrujo%20Invocado.png</t>
         </is>
       </c>
     </row>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287935/E1/PESADILLA/E1_1-P05%20Invocaci%C3%B3n%20De%20Los%20Muertos%20Del%20Pantano.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708494/E1/PESADILLA/E1_1-P05%20Invocaci%C3%B3n%20De%20Los%20Muertos%20Del%20Pantano.png</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287937/E1/PESADILLA/E1_1-P06%20Token.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708495/E1/PESADILLA/E1_1-P06%20Token.png</t>
         </is>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287938/E1/PESADILLA/E1_2-P01%20Esqueleto%20Errante.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708496/E1/PESADILLA/E1_2-P01%20Esqueleto%20Errante.png</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287939/E1/PESADILLA/E1_2-P02%20Aracnopanto.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708498/E1/PESADILLA/E1_2-P02%20Aracnopanto.png</t>
         </is>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287940/E1/PESADILLA/E1_2-P03%20Vigilante%20Cadav%C3%A9rico.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708499/E1/PESADILLA/E1_2-P03%20Vigilante%20Cadav%C3%A9rico.png</t>
         </is>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287941/E1/PESADILLA/E1_2-P04%20Furia%20%C3%81lmica.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708501/E1/PESADILLA/E1_2-P04%20Furia%20%C3%81lmica.png</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287942/E1/PESADILLA/E1_2-P05%20Llamada%20Espectral.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708502/E1/PESADILLA/E1_2-P05%20Llamada%20Espectral.png</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287943/E1/PESADILLA/E1_2-P06%20Token.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708504/E1/PESADILLA/E1_2-P06%20Token.png</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287944/E1/PESADILLA/E1_3-P01%20Explorador%20Olvidado.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708505/E1/PESADILLA/E1_3-P01%20Explorador%20Olvidado.png</t>
         </is>
       </c>
     </row>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287945/E1/PESADILLA/E1_3-P02%20Lureruri.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708507/E1/PESADILLA/E1_3-P02%20Lureruri.png</t>
         </is>
       </c>
     </row>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287947/E1/PESADILLA/E1_3-P03%20Zaranthrax.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708508/E1/PESADILLA/E1_3-P03%20Zaranthrax.png</t>
         </is>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287948/E1/PESADILLA/E1_3-P04%20Zombi%20Berserker.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708509/E1/PESADILLA/E1_3-P04%20Zombi%20Berserker.png</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287949/E1/PESADILLA/E1_3-P05%20Conjuro%20De%20Oscuridad%20Infinita.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708511/E1/PESADILLA/E1_3-P05%20Conjuro%20De%20Oscuridad%20Infinita.png</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287950/E1/PESADILLA/E1_3-P06%20Token.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708513/E1/PESADILLA/E1_3-P06%20Token.png</t>
         </is>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287951/E2/BOSQUEMAGO/E2-B01%20Elida.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708514/E2/BOSQUEMAGO/E2-B01%20Elida.png</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287952/E2/BOSQUEMAGO/E2-B03%20Dela.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708516/E2/BOSQUEMAGO/E2-B03%20Dela.png</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287953/E2/BOSQUEMAGO/E2-B04%20Palad%C3%ADn%20De%20La%20Tierra%20Oculta.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708517/E2/BOSQUEMAGO/E2-B04%20Palad%C3%ADn%20De%20La%20Tierra%20Oculta.png</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287954/E2/BOSQUEMAGO/E2-B05%20Dianthe.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708518/E2/BOSQUEMAGO/E2-B05%20Dianthe.png</t>
         </is>
       </c>
     </row>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287956/E2/BOSQUEMAGO/E2-B07%20Drag%C3%B3n%20Templado.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708520/E2/BOSQUEMAGO/E2-B07%20Drag%C3%B3n%20Templado.png</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287957/E2/BOSQUEMAGO/E2-B08%20Bosque%20Perdido.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708522/E2/BOSQUEMAGO/E2-B08%20Bosque%20Perdido.png</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287959/E2/BOSQUEMAGO/E2_1-B03%20Metaldrake.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708523/E2/BOSQUEMAGO/E2_1-B03%20Metaldrake.png</t>
         </is>
       </c>
     </row>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287961/E2/BOSQUEMAGO/E2_1-B04%20Bosque%20M%C3%A1gico%20De%20Los%20Esp%C3%ADritus.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708525/E2/BOSQUEMAGO/E2_1-B04%20Bosque%20M%C3%A1gico%20De%20Los%20Esp%C3%ADritus.png</t>
         </is>
       </c>
     </row>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287962/E2/BOSQUEMAGO/E2_2-B01%20Hada%20Perdida.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708526/E2/BOSQUEMAGO/E2_2-B01%20Hada%20Perdida.png</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287963/E2/BOSQUEMAGO/E2_2-B03%20Valanidris.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708527/E2/BOSQUEMAGO/E2_2-B03%20Valanidris.png</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287964/E2/BOSQUEMAGO/E2_2-B04%20Floraci%C3%B3n%20De%20Las%20Hadas.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708529/E2/BOSQUEMAGO/E2_2-B04%20Floraci%C3%B3n%20De%20Las%20Hadas.png</t>
         </is>
       </c>
     </row>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287966/E2/BOSQUEMAGO/E2_3-B02%20%C3%81nima%20Feral.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708530/E2/BOSQUEMAGO/E2_3-B02%20%C3%81nima%20Feral.png</t>
         </is>
       </c>
     </row>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287967/E2/BOSQUEMAGO/E2_3-B03%20Falanis%20El%20Wyverno%20De%20La%20Tormenta.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708532/E2/BOSQUEMAGO/E2_3-B03%20Falanis%20El%20Wyverno%20De%20La%20Tormenta.png</t>
         </is>
       </c>
     </row>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287968/E2/BOSQUEMAGO/E2_3-B04%20Danza%20De%20Ensue%C3%B1o.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708533/E2/BOSQUEMAGO/E2_3-B04%20Danza%20De%20Ensue%C3%B1o.png</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287970/E2/DISRUPCION/E2-D01%20Explorador%20Viajero.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708534/E2/DISRUPCION/E2-D01%20Explorador%20Viajero.png</t>
         </is>
       </c>
     </row>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287971/E2/DISRUPCION/E2-D02%20VS-1.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708536/E2/DISRUPCION/E2-D02%20VS-1.png</t>
         </is>
       </c>
     </row>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287972/E2/DISRUPCION/E2-D03%20AX-4.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708537/E2/DISRUPCION/E2-D03%20AX-4.png</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287973/E2/DISRUPCION/E2-D05%20ES-707.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708539/E2/DISRUPCION/E2-D05%20ES-707.png</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287974/E2/DISRUPCION/E2-D07%20Cianotipo%20De%20Aut%C3%B3mata.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708540/E2/DISRUPCION/E2-D07%20Cianotipo%20De%20Aut%C3%B3mata.png</t>
         </is>
       </c>
     </row>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287975/E2/DISRUPCION/E2_1-D01%20Explorador%20Viajero%20V2.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708542/E2/DISRUPCION/E2_1-D01%20Explorador%20Viajero%20V2.png</t>
         </is>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287978/E2/DISRUPCION/E2_1-D02%20EXO-91.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708543/E2/DISRUPCION/E2_1-D02%20EXO-91.png</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287979/E2/DISRUPCION/E2_1-D03%20Geo%20Vigilante.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708545/E2/DISRUPCION/E2_1-D03%20Geo%20Vigilante.png</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287980/E2/DISRUPCION/E2_2-D01%20Vigilante%20Pasivo.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708546/E2/DISRUPCION/E2_2-D01%20Vigilante%20Pasivo.png</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287982/E2/DISRUPCION/E2_2-D02%20Sobrecarga.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708548/E2/DISRUPCION/E2_2-D02%20Sobrecarga.png</t>
         </is>
       </c>
     </row>
@@ -1939,7 +1939,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287983/E2/DISRUPCION/E2_2-D03%20Proto%20Ca%C3%B1on%20De%20Largo%20Alcance.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708549/E2/DISRUPCION/E2_2-D03%20Proto%20Ca%C3%B1on%20De%20Largo%20Alcance.png</t>
         </is>
       </c>
     </row>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287985/E2/DISRUPCION/E2_3-D01%20A-1002-Corredor.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708550/E2/DISRUPCION/E2_3-D01%20A-1002-Corredor.png</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287987/E2/DISRUPCION/E2_3-D03%20KA-0%20X1.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708552/E2/DISRUPCION/E2_3-D03%20KA-0%20X1.png</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287989/E2/GUERRERO/E2-G02%20Explorador%20Temerario.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708553/E2/GUERRERO/E2-G02%20Explorador%20Temerario.png</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287991/E2/GUERRERO/E2-G03%20Alabarda%20De%20Ala%20Blanca.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708554/E2/GUERRERO/E2-G03%20Alabarda%20De%20Ala%20Blanca.png</t>
         </is>
       </c>
     </row>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287992/E2/GUERRERO/E2-G05%20Establo.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708556/E2/GUERRERO/E2-G05%20Establo.png</t>
         </is>
       </c>
     </row>
@@ -2029,7 +2029,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287994/E2/GUERRERO/E2-G06%20T%C3%A1cticas%20De%20Guerra.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708557/E2/GUERRERO/E2-G06%20T%C3%A1cticas%20De%20Guerra.png</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287995/E2/GUERRERO/E2_1-G01%20Alabarda%20De%20Primera%20L%C3%ADnea.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708559/E2/GUERRERO/E2_1-G01%20Alabarda%20De%20Primera%20L%C3%ADnea.png</t>
         </is>
       </c>
     </row>
@@ -2067,7 +2067,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287997/E2/GUERRERO/E2_1-G03%20A%20La%20Carga%21.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708560/E2/GUERRERO/E2_1-G03%20A%20La%20Carga%21.png</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287998/E2/GUERRERO/E2_2-G02%20Caballero%20Leal.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708562/E2/GUERRERO/E2_2-G02%20Caballero%20Leal.png</t>
         </is>
       </c>
     </row>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750287999/E2/GUERRERO/E2_2-G03%20Mercenario%20Valeroso.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708563/E2/GUERRERO/E2_2-G03%20Mercenario%20Valeroso.png</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288000/E2/GUERRERO/E2_3-G02%20Comandante%20Veterano.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708565/E2/GUERRERO/E2_3-G02%20Comandante%20Veterano.png</t>
         </is>
       </c>
     </row>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288001/E2/PESADILLA/E2-P02%20Devorador.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708566/E2/PESADILLA/E2-P02%20Devorador.png</t>
         </is>
       </c>
     </row>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288002/E2/PESADILLA/E2-P03%20Come%20Hombres.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708567/E2/PESADILLA/E2-P03%20Come%20Hombres.png</t>
         </is>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288004/E2/PESADILLA/E2-P07%20Culto%20Convocatorio.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708569/E2/PESADILLA/E2-P07%20Culto%20Convocatorio.png</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288005/E2/PESADILLA/E2-P08%20Fest%C3%ADn.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708570/E2/PESADILLA/E2-P08%20Fest%C3%ADn.png</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288006/E2/PESADILLA/E2_1-P01%20Can%20Infernal.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708572/E2/PESADILLA/E2_1-P01%20Can%20Infernal.png</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288007/E2/PESADILLA/E2_1-P02%20Comandante%20Del%20Ej%C3%A9rcito%20Perdido.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708573/E2/PESADILLA/E2_1-P02%20Comandante%20Del%20Ej%C3%A9rcito%20Perdido.png</t>
         </is>
       </c>
     </row>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288008/E2/PESADILLA/E2_1-P03%20Devorador%20De%20Cazadores.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708575/E2/PESADILLA/E2_1-P03%20Devorador%20De%20Cazadores.png</t>
         </is>
       </c>
     </row>
@@ -2249,7 +2249,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288009/E2/PESADILLA/E2_2-P02%20Centauros%20De%20La%20Noche%20Iluminada.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708576/E2/PESADILLA/E2_2-P02%20Centauros%20De%20La%20Noche%20Iluminada.png</t>
         </is>
       </c>
     </row>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288010/E2/PESADILLA/E2_2-P03%20Traga%20Almas.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708577/E2/PESADILLA/E2_2-P03%20Traga%20Almas.png</t>
         </is>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288011/E2/PESADILLA/E2_2-P04%20Hellios.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708579/E2/PESADILLA/E2_2-P04%20Hellios.png</t>
         </is>
       </c>
     </row>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288012/E2/PESADILLA/E2_3-P04%20Fusi%C3%B3n%20De%20Los%20Huesos%20Encarnados.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708580/E2/PESADILLA/E2_3-P04%20Fusi%C3%B3n%20De%20Los%20Huesos%20Encarnados.png</t>
         </is>
       </c>
     </row>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288013/E3/BOSQUEMAGO/E3-B01%20Dirug%C3%B3n.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708582/E3/BOSQUEMAGO/E3-B01%20Dirug%C3%B3n.png</t>
         </is>
       </c>
     </row>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288015/E3/BOSQUEMAGO/E3-B02%20Ptreorag%C3%B3n.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708583/E3/BOSQUEMAGO/E3-B02%20Ptreorag%C3%B3n.png</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288016/E3/BOSQUEMAGO/E3-B04%20Fresnag%C3%B3n.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708585/E3/BOSQUEMAGO/E3-B04%20Fresnag%C3%B3n.png</t>
         </is>
       </c>
     </row>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288017/E3/BOSQUEMAGO/E3-B07%20Monta%C3%B1as%20Volc%C3%A1nicas.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708586/E3/BOSQUEMAGO/E3-B07%20Monta%C3%B1as%20Volc%C3%A1nicas.png</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288018/E3/BOSQUEMAGO/E3-B08%20Embestida%20Aerea.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708587/E3/BOSQUEMAGO/E3-B08%20Embestida%20Aerea.png</t>
         </is>
       </c>
     </row>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288019/E3/BOSQUEMAGO/E3_1-B01%20Elegante%20Wyrm.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708589/E3/BOSQUEMAGO/E3_1-B01%20Elegante%20Wyrm.png</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288020/E3/BOSQUEMAGO/E3_1-B02%20Ddraker.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708590/E3/BOSQUEMAGO/E3_1-B02%20Ddraker.png</t>
         </is>
       </c>
     </row>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288021/E3/BOSQUEMAGO/E3_1-B03%20Unicornio%20Espada.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708592/E3/BOSQUEMAGO/E3_1-B03%20Unicornio%20Espada.png</t>
         </is>
       </c>
     </row>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288022/E3/BOSQUEMAGO/E3_2-B01%20Bis%C3%B3n%20Lanudo%20Lunar.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708593/E3/BOSQUEMAGO/E3_2-B01%20Bis%C3%B3n%20Lanudo%20Lunar.png</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288024/E3/BOSQUEMAGO/E3_2-B02%20Dracotyrantus%20Magna.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708594/E3/BOSQUEMAGO/E3_2-B02%20Dracotyrantus%20Magna.png</t>
         </is>
       </c>
     </row>
@@ -2443,7 +2443,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288025/E3/BOSQUEMAGO/E3_3-B01%20Pegaso%20De%20Pradera.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708596/E3/BOSQUEMAGO/E3_3-B01%20Pegaso%20De%20Pradera.png</t>
         </is>
       </c>
     </row>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288027/E3/BOSQUEMAGO/E3_3-B02%20Drag%C3%B3n%20Pluma%20Cristal.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708597/E3/BOSQUEMAGO/E3_3-B02%20Drag%C3%B3n%20Pluma%20Cristal.png</t>
         </is>
       </c>
     </row>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288028/E3/BOSQUEMAGO/E3_3-B03%20Gaeos%20El%20Ala%20De%20La%20Tierra.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708598/E3/BOSQUEMAGO/E3_3-B03%20Gaeos%20El%20Ala%20De%20La%20Tierra.png</t>
         </is>
       </c>
     </row>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288029/E3/DISRUPCION/E3-D01%20Prometeo%20Erasmoos.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708600/E3/DISRUPCION/E3-D01%20Prometeo%20Erasmoos.png</t>
         </is>
       </c>
     </row>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288030/E3/DISRUPCION/E3-D02%20Khalesa.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708601/E3/DISRUPCION/E3-D02%20Khalesa.png</t>
         </is>
       </c>
     </row>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288031/E3/DISRUPCION/E3-D03%20Feretrus.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708603/E3/DISRUPCION/E3-D03%20Feretrus.png</t>
         </is>
       </c>
     </row>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288032/E3/DISRUPCION/E3-D04%20Principe%20Eos.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708604/E3/DISRUPCION/E3-D04%20Principe%20Eos.png</t>
         </is>
       </c>
     </row>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288034/E3/DISRUPCION/E3-D06%20Compresi%C3%B3n%20Interdimensional.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708606/E3/DISRUPCION/E3-D06%20Compresi%C3%B3n%20Interdimensional.png</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288035/E3/DISRUPCION/E3_1-D01%20Cronoflureteus.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708607/E3/DISRUPCION/E3_1-D01%20Cronoflureteus.png</t>
         </is>
       </c>
     </row>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288036/E3/DISRUPCION/E3_1-D02%20Torre%20Ritual.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708608/E3/DISRUPCION/E3_1-D02%20Torre%20Ritual.png</t>
         </is>
       </c>
     </row>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288038/E3/DISRUPCION/E3_2-D01%20Entidad%20Ermita%C3%B1a%20Errante.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708610/E3/DISRUPCION/E3_2-D01%20Entidad%20Ermita%C3%B1a%20Errante.png</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288039/E3/DISRUPCION/E3_2-D02%20Protectora%20Interdimensional.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708611/E3/DISRUPCION/E3_2-D02%20Protectora%20Interdimensional.png</t>
         </is>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288040/E3/DISRUPCION/E3_3-D01%20Platareum.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708613/E3/DISRUPCION/E3_3-D01%20Platareum.png</t>
         </is>
       </c>
     </row>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288041/E3/DISRUPCION/E3_3-D02%20Eteleo%20Caos.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708614/E3/DISRUPCION/E3_3-D02%20Eteleo%20Caos.png</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288042/E3/GUERRERO/E3-G01%20Arquero%20De%20Emboscada.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708615/E3/GUERRERO/E3-G01%20Arquero%20De%20Emboscada.png</t>
         </is>
       </c>
     </row>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288043/E3/GUERRERO/E3-G02%20Asaltante%20P%C3%ADcaro.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708616/E3/GUERRERO/E3-G02%20Asaltante%20P%C3%ADcaro.png</t>
         </is>
       </c>
     </row>
@@ -2663,7 +2663,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288044/E3/GUERRERO/E3-G03%20Letric%20De%20Eslavies.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708618/E3/GUERRERO/E3-G03%20Letric%20De%20Eslavies.png</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288045/E3/GUERRERO/E3-G04%20Emboscada.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708619/E3/GUERRERO/E3-G04%20Emboscada.png</t>
         </is>
       </c>
     </row>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288047/E3/GUERRERO/E3-G05%20Ataque%20Sorpresa.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708621/E3/GUERRERO/E3-G05%20Ataque%20Sorpresa.png</t>
         </is>
       </c>
     </row>
@@ -2693,7 +2693,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288049/E3/GUERRERO/E3-G06%20Bot%C3%ADn.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708622/E3/GUERRERO/E3-G06%20Bot%C3%ADn.png</t>
         </is>
       </c>
     </row>
@@ -2715,7 +2715,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288060/E3/GUERRERO/E3_1-G01%20Mercenario%20Nocturno.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708624/E3/GUERRERO/E3_1-G01%20Mercenario%20Nocturno.png</t>
         </is>
       </c>
     </row>
@@ -2725,7 +2725,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288061/E3/GUERRERO/E3_1-G02%20Encargo.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708625/E3/GUERRERO/E3_1-G02%20Encargo.png</t>
         </is>
       </c>
     </row>
@@ -2747,7 +2747,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288062/E3/GUERRERO/E3_2-G01%20Jack%20Kest%C3%B3.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708627/E3/GUERRERO/E3_2-G01%20Jack%20Kest%C3%B3.png</t>
         </is>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288064/E3/GUERRERO/E3_2-G02%20Taberna.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708628/E3/GUERRERO/E3_2-G02%20Taberna.png</t>
         </is>
       </c>
     </row>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288065/E3/GUERRERO/E3_2-G03%20Infamia.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708629/E3/GUERRERO/E3_2-G03%20Infamia.png</t>
         </is>
       </c>
     </row>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288067/E3/GUERRERO/E3_3-G01%20Loan%20El%20Despiadado.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708631/E3/GUERRERO/E3_3-G01%20Loan%20El%20Despiadado.png</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288068/E3/GUERRERO/E3_3-G02%20Kholeus%20El%20Inmortal.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708632/E3/GUERRERO/E3_3-G02%20Kholeus%20El%20Inmortal.png</t>
         </is>
       </c>
     </row>
@@ -2815,7 +2815,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288069/E3/PESADILLA/E3-P01%20Abraza%20Almas.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708633/E3/PESADILLA/E3-P01%20Abraza%20Almas.png</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288071/E3/PESADILLA/E3-P03%20Convocador%20De%20Sombras.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708635/E3/PESADILLA/E3-P03%20Convocador%20De%20Sombras.png</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288072/E3/PESADILLA/E3-P04%20Amalgama%20Cadav%C3%A9rica.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708636/E3/PESADILLA/E3-P04%20Amalgama%20Cadav%C3%A9rica.png</t>
         </is>
       </c>
     </row>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288073/E3/PESADILLA/E3-P08%20Asedio%20Del%20Inframundo.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708637/E3/PESADILLA/E3-P08%20Asedio%20Del%20Inframundo.png</t>
         </is>
       </c>
     </row>
@@ -2885,7 +2885,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288075/E3/PESADILLA/E3_1-P02%20Alarido%20Espectral.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708639/E3/PESADILLA/E3_1-P02%20Alarido%20Espectral.png</t>
         </is>
       </c>
     </row>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288076/E3/PESADILLA/E3_1-P03%20Augurio%20Floreciente.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708640/E3/PESADILLA/E3_1-P03%20Augurio%20Floreciente.png</t>
         </is>
       </c>
     </row>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288077/E3/PESADILLA/E3_1-P04%20Cosecha%20De%20Almas.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708641/E3/PESADILLA/E3_1-P04%20Cosecha%20De%20Almas.png</t>
         </is>
       </c>
     </row>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288078/E3/PESADILLA/E3_2-P02%20Fereteus.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708643/E3/PESADILLA/E3_2-P02%20Fereteus.png</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288079/E3/PESADILLA/E3_2-P03%20Desollador.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708644/E3/PESADILLA/E3_2-P03%20Desollador.png</t>
         </is>
       </c>
     </row>
@@ -2941,7 +2941,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288080/E3/PESADILLA/E3_2-P04%20Maleficio%20Devastador.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708646/E3/PESADILLA/E3_2-P04%20Maleficio%20Devastador.png</t>
         </is>
       </c>
     </row>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288081/E3/PESADILLA/E3_3-P01%20Hul.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708647/E3/PESADILLA/E3_3-P01%20Hul.png</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288082/E3/PESADILLA/E3_3-P02%20Rey%20Oscuro.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708648/E3/PESADILLA/E3_3-P02%20Rey%20Oscuro.png</t>
         </is>
       </c>
     </row>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288083/E3/PESADILLA/E3_3-P03%20Reclamo%20Del%20Inframundo.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708650/E3/PESADILLA/E3_3-P03%20Reclamo%20Del%20Inframundo.png</t>
         </is>
       </c>
     </row>
@@ -2981,7 +2981,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288084/E3/PESADILLA/E3_3-P04%20Pacto%20De%20Sangre%20Pura.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708651/E3/PESADILLA/E3_3-P04%20Pacto%20De%20Sangre%20Pura.png</t>
         </is>
       </c>
     </row>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288085/E4/BOSQUEMAGO/E4-B01%20Florri%C3%B3n.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708652/E4/BOSQUEMAGO/E4-B01%20Florri%C3%B3n.png</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288086/E4/BOSQUEMAGO/E4-B03%20Le%C3%B3n%20De%20La%20Zarza%20Sombr%C3%ADa.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708654/E4/BOSQUEMAGO/E4-B03%20Le%C3%B3n%20De%20La%20Zarza%20Sombr%C3%ADa.png</t>
         </is>
       </c>
     </row>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288087/E4/BOSQUEMAGO/E4-B06%20Magnaus%20Protector%20Del%20BosqueM%C3%A1gico.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708655/E4/BOSQUEMAGO/E4-B06%20Magnaus%20Protector%20Del%20BosqueM%C3%A1gico.png</t>
         </is>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288088/E4/BOSQUEMAGO/E4-B07%20BosqueM%C3%A1gico%20Profundo.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708656/E4/BOSQUEMAGO/E4-B07%20BosqueM%C3%A1gico%20Profundo.png</t>
         </is>
       </c>
     </row>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288089/E4/BOSQUEMAGO/E4_1-B01%20Tinflarus.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708658/E4/BOSQUEMAGO/E4_1-B01%20Tinflarus.png</t>
         </is>
       </c>
     </row>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288091/E4/BOSQUEMAGO/E4_1-B03%20BosqueM%C3%A1gico%20De%20La%20Fauna.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708659/E4/BOSQUEMAGO/E4_1-B03%20BosqueM%C3%A1gico%20De%20La%20Fauna.png</t>
         </is>
       </c>
     </row>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288092/E4/BOSQUEMAGO/E4_2-B01%20Tigre%20R%C3%BAnico.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708660/E4/BOSQUEMAGO/E4_2-B01%20Tigre%20R%C3%BAnico.png</t>
         </is>
       </c>
     </row>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288093/E4/BOSQUEMAGO/E4_2-B02%20Kir%C3%ADn.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708661/E4/BOSQUEMAGO/E4_2-B02%20Kir%C3%ADn.png</t>
         </is>
       </c>
     </row>
@@ -3125,7 +3125,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288094/E4/BOSQUEMAGO/E4_3-B02%20Grifo.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708663/E4/BOSQUEMAGO/E4_3-B02%20Grifo.png</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288095/E4/BOSQUEMAGO/E4_3-B03%20Guardi%C3%A1n%20Anciano%20Del%20BosqueM%C3%A1gico.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708664/E4/BOSQUEMAGO/E4_3-B03%20Guardi%C3%A1n%20Anciano%20Del%20BosqueM%C3%A1gico.png</t>
         </is>
       </c>
     </row>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288096/E4/GUERRERO/E4-G01%20Pe%C3%B3n%20Del%20Castillo.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708665/E4/GUERRERO/E4-G01%20Pe%C3%B3n%20Del%20Castillo.png</t>
         </is>
       </c>
     </row>
@@ -3161,7 +3161,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288098/E4/GUERRERO/E4-G02%20Infanter%C3%ADa%20de%20Primera%20L%C3%ADnea.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708667/E4/GUERRERO/E4-G02%20Infanter%C3%ADa%20de%20Primera%20L%C3%ADnea.png</t>
         </is>
       </c>
     </row>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288099/E4/GUERRERO/E4-G03%20Caballer%C3%ADa%20De%20Primera%20L%C3%ADnea.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708668/E4/GUERRERO/E4-G03%20Caballer%C3%ADa%20De%20Primera%20L%C3%ADnea.png</t>
         </is>
       </c>
     </row>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288100/E4/GUERRERO/E4-G08%20Fervor%20De%20Primera%20L%C3%ADnea.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708669/E4/GUERRERO/E4-G08%20Fervor%20De%20Primera%20L%C3%ADnea.png</t>
         </is>
       </c>
     </row>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288101/E4/GUERRERO/E4_1-G02%20Prince%20Alphonse%20Di%20Castirion.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708671/E4/GUERRERO/E4_1-G02%20Prince%20Alphonse%20Di%20Castirion.png</t>
         </is>
       </c>
     </row>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288102/E4/GUERRERO/E4_1-G03%20Reino%20Castirion.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708672/E4/GUERRERO/E4_1-G03%20Reino%20Castirion.png</t>
         </is>
       </c>
     </row>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288104/E4/GUERRERO/E4_2-G02%20Charles%20Di%20Castirion.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708673/E4/GUERRERO/E4_2-G02%20Charles%20Di%20Castirion.png</t>
         </is>
       </c>
     </row>
@@ -3263,7 +3263,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288105/E4/GUERRERO/E4_2-G03%20Estandarte%20De%20Primera%20L%C3%ADnea.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708674/E4/GUERRERO/E4_2-G03%20Estandarte%20De%20Primera%20L%C3%ADnea.png</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288106/E4/GUERRERO/E4_3-G02%20Caballero%20Heroico.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708676/E4/GUERRERO/E4_3-G02%20Caballero%20Heroico.png</t>
         </is>
       </c>
     </row>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288107/E4/GUERRERO/E4_3-G03%20Trabuquete.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708677/E4/GUERRERO/E4_3-G03%20Trabuquete.png</t>
         </is>
       </c>
     </row>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288109/E4/DISRUPCION/E4-D01%20BIO-EXUS-3.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708678/E4/DISRUPCION/E4-D01%20BIO-EXUS-3.png</t>
         </is>
       </c>
     </row>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288110/E4/DISRUPCION/E4-D02%20Bio-Exterminador%20Errante.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708680/E4/DISRUPCION/E4-D02%20Bio-Exterminador%20Errante.png</t>
         </is>
       </c>
     </row>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288111/E4/DISRUPCION/E4-D04%20Explorador%20De%20Emergencia.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708682/E4/DISRUPCION/E4-D04%20Explorador%20De%20Emergencia.png</t>
         </is>
       </c>
     </row>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288113/E4/DISRUPCION/E4-D07%20BIO-Aniquilador.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708684/E4/DISRUPCION/E4-D07%20BIO-Aniquilador.png</t>
         </is>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288114/E4/DISRUPCION/E4_1-D02%20Ciudad%20Desolada.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708686/E4/DISRUPCION/E4_1-D02%20Ciudad%20Desolada.png</t>
         </is>
       </c>
     </row>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288116/E4/DISRUPCION/E4_1-D03%20Producci%C3%B3n%20De%20Biomaquinaria.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708687/E4/DISRUPCION/E4_1-D03%20Producci%C3%B3n%20De%20Biomaquinaria.png</t>
         </is>
       </c>
     </row>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288117/E4/DISRUPCION/E4_2-D02%20Fabricante%20De%20Ciudad.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708688/E4/DISRUPCION/E4_2-D02%20Fabricante%20De%20Ciudad.png</t>
         </is>
       </c>
     </row>
@@ -3423,7 +3423,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288118/E4/DISRUPCION/E4_2-D03%20ERR-707.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708690/E4/DISRUPCION/E4_2-D03%20ERR-707.png</t>
         </is>
       </c>
     </row>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288119/E4/DISRUPCION/E4_3-D02%20Bio-Aniquilador%20Incompleto.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708691/E4/DISRUPCION/E4_3-D02%20Bio-Aniquilador%20Incompleto.png</t>
         </is>
       </c>
     </row>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288121/E4/DISRUPCION/E4_3-D03%20Objetivo%20Adquirido.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708693/E4/DISRUPCION/E4_3-D03%20Objetivo%20Adquirido.png</t>
         </is>
       </c>
     </row>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288122/E4/PESADILLA/E4-P01%20Bruja%20Mensajera.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708694/E4/PESADILLA/E4-P01%20Bruja%20Mensajera.png</t>
         </is>
       </c>
     </row>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288123/E4/PESADILLA/E4-P02%20Pir%C3%B3mago.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708696/E4/PESADILLA/E4-P02%20Pir%C3%B3mago.png</t>
         </is>
       </c>
     </row>
@@ -3491,7 +3491,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288124/E4/PESADILLA/E4-P03%20Hrauf.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708698/E4/PESADILLA/E4-P03%20Hrauf.png</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288125/E4/PESADILLA/E4-P06%20Liche.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708699/E4/PESADILLA/E4-P06%20Liche.png</t>
         </is>
       </c>
     </row>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288126/E4/PESADILLA/E4-P07%20Imperio%20Desolado.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708701/E4/PESADILLA/E4-P07%20Imperio%20Desolado.png</t>
         </is>
       </c>
     </row>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288127/E4/PESADILLA/E4-P07%20Ritual%20Convocatorio.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708702/E4/PESADILLA/E4-P07%20Ritual%20Convocatorio.png</t>
         </is>
       </c>
     </row>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288128/E4/PESADILLA/E4_1-P01%20Bruja%20Lunar.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708704/E4/PESADILLA/E4_1-P01%20Bruja%20Lunar.png</t>
         </is>
       </c>
     </row>
@@ -3553,7 +3553,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288130/E4/PESADILLA/E4_1-P02%20Augurio%20De%20Cat%C3%A1strofe.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708705/E4/PESADILLA/E4_1-P02%20Augurio%20De%20Cat%C3%A1strofe.png</t>
         </is>
       </c>
     </row>
@@ -3563,7 +3563,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288131/E4/PESADILLA/E4_1-P03%20N%27Rax.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708706/E4/PESADILLA/E4_1-P03%20N%27Rax.png</t>
         </is>
       </c>
     </row>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288132/E4/PESADILLA/E4_2-P02%20Conjurado%20Olvidado.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708708/E4/PESADILLA/E4_2-P02%20Conjurado%20Olvidado.png</t>
         </is>
       </c>
     </row>
@@ -3595,7 +3595,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288134/E4/PESADILLA/E4_2-P03%20Zot.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708709/E4/PESADILLA/E4_2-P03%20Zot.png</t>
         </is>
       </c>
     </row>
@@ -3605,7 +3605,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288135/E4/PESADILLA/E4_2-P04%20Quebrantamiento.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708711/E4/PESADILLA/E4_2-P04%20Quebrantamiento.png</t>
         </is>
       </c>
     </row>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288136/E4/PESADILLA/E4_3-P01%20Gaur.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708712/E4/PESADILLA/E4_3-P01%20Gaur.png</t>
         </is>
       </c>
     </row>
@@ -3643,7 +3643,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288138/E5/BOSQUEMAGO/E5-B01%20Cr%C3%ADa%20Quim%C3%A9rica.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708714/E5/BOSQUEMAGO/E5-B01%20Cr%C3%ADa%20Quim%C3%A9rica.png</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288139/E5/BOSQUEMAGO/E5-B03%20Glifo%20R%C3%BAnico.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708715/E5/BOSQUEMAGO/E5-B03%20Glifo%20R%C3%BAnico.png</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288140/E5/BOSQUEMAGO/E5-B06%20Quimera%20Divina.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708716/E5/BOSQUEMAGO/E5-B06%20Quimera%20Divina.png</t>
         </is>
       </c>
     </row>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288141/E5/BOSQUEMAGO/E5-B07%20Grimorio%20De%20Invocaciones.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708717/E5/BOSQUEMAGO/E5-B07%20Grimorio%20De%20Invocaciones.png</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288142/E5/BOSQUEMAGO/E5-B08%20Secta%20De%20La%20Bestia%20Del%20Final%20De%20Los%20Tiempos.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708718/E5/BOSQUEMAGO/E5-B08%20Secta%20De%20La%20Bestia%20Del%20Final%20De%20Los%20Tiempos.png</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288143/E5/BOSQUEMAGO/E5_1-B02%20Ketzeol.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708719/E5/BOSQUEMAGO/E5_1-B02%20Ketzeol.png</t>
         </is>
       </c>
     </row>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288144/E5/BOSQUEMAGO/E5_1-B03%20Capricio%20Rayo%20Del%20Monte.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708721/E5/BOSQUEMAGO/E5_1-B03%20Capricio%20Rayo%20Del%20Monte.png</t>
         </is>
       </c>
     </row>
@@ -3743,7 +3743,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288146/E5/BOSQUEMAGO/E5_2-B01%20Orador%20De%20Las%20Quimeras.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708722/E5/BOSQUEMAGO/E5_2-B01%20Orador%20De%20Las%20Quimeras.png</t>
         </is>
       </c>
     </row>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288147/E5/BOSQUEMAGO/E5_3-B04%20Aberraci%C3%B3n%20Quim%C3%A9rica.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708724/E5/BOSQUEMAGO/E5_3-B04%20Aberraci%C3%B3n%20Quim%C3%A9rica.png</t>
         </is>
       </c>
     </row>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750706271/E5/GUERRERO/E5-G01%20Cortesana%20Setsuna.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708725/E5/GUERRERO/E5-G01%20Cortesana%20Setsuna.png</t>
         </is>
       </c>
     </row>
@@ -3809,7 +3809,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750706272/E5/GUERRERO/E5-G02%20Bushi.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708726/E5/GUERRERO/E5-G02%20Bushi.png</t>
         </is>
       </c>
     </row>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750706273/E5/GUERRERO/E5-G03%20Kamen%20No%20Bushi.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708728/E5/GUERRERO/E5-G03%20Kamen%20No%20Bushi.png</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750706274/E5/GUERRERO/E5-G06%20Jinrai%20No%20Taish%C5%8D.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708729/E5/GUERRERO/E5-G06%20Jinrai%20No%20Taish%C5%8D.png</t>
         </is>
       </c>
     </row>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750706275/E5/GUERRERO/E5-G07%20Bonsai%20Centenario.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708730/E5/GUERRERO/E5-G07%20Bonsai%20Centenario.png</t>
         </is>
       </c>
     </row>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750706276/E5/GUERRERO/E5_1-G01%20Cortesana%20Yukihana.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708731/E5/GUERRERO/E5_1-G01%20Cortesana%20Yukihana.png</t>
         </is>
       </c>
     </row>
@@ -3877,7 +3877,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750706277/E5/GUERRERO/E5_1-G02%20Petalo%20De%20La%20Luna%20De%20Plata.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708733/E5/GUERRERO/E5_1-G02%20Petalo%20De%20La%20Luna%20De%20Plata.png</t>
         </is>
       </c>
     </row>
@@ -3899,7 +3899,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750706278/E5/GUERRERO/E5_2-G01%20Fukuya%20La%20Cortesana%20Carmes%C3%AD.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708734/E5/GUERRERO/E5_2-G01%20Fukuya%20La%20Cortesana%20Carmes%C3%AD.png</t>
         </is>
       </c>
     </row>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750706279/E5/GUERRERO/E5_2-G02%20Tsukiyo%20La%20Cortesana%20Domadora%20De%20Bestias.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708735/E5/GUERRERO/E5_2-G02%20Tsukiyo%20La%20Cortesana%20Domadora%20De%20Bestias.png</t>
         </is>
       </c>
     </row>
@@ -3953,7 +3953,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750706280/E5/GUERRERO/E5_3-G04%20Shinken%20No%20Tenshi.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708737/E5/GUERRERO/E5_3-G04%20Shinken%20No%20Tenshi.png</t>
         </is>
       </c>
     </row>
@@ -3963,7 +3963,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288148/E5/DISRUPCION/E5-D01%20Pintor%20De%20Los%20Cielos.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708739/E5/DISRUPCION/E5-D01%20Pintor%20De%20Los%20Cielos.png</t>
         </is>
       </c>
     </row>
@@ -3973,7 +3973,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288149/E5/DISRUPCION/E5-D02%20%C3%81ngel%20Mensajero.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708740/E5/DISRUPCION/E5-D02%20%C3%81ngel%20Mensajero.png</t>
         </is>
       </c>
     </row>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288150/E5/DISRUPCION/E5-D03%20Shilpher%20El%20Protector.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708741/E5/DISRUPCION/E5-D03%20Shilpher%20El%20Protector.png</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288151/E5/DISRUPCION/E5-D04%20Lilith%20Las%20Alas%20Del%20Susurro.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708742/E5/DISRUPCION/E5-D04%20Lilith%20Las%20Alas%20Del%20Susurro.png</t>
         </is>
       </c>
     </row>
@@ -4003,7 +4003,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288152/E5/DISRUPCION/E5-D05%20Uriel%20El%20Fuego%20De%20La%20Esperanza.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708744/E5/DISRUPCION/E5-D05%20Uriel%20El%20Fuego%20De%20La%20Esperanza.png</t>
         </is>
       </c>
     </row>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288153/E5/DISRUPCION/E5-D06%20Samael%20El%20Fuego%20De%20La%20Destrucci%C3%B3n.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708745/E5/DISRUPCION/E5-D06%20Samael%20El%20Fuego%20De%20La%20Destrucci%C3%B3n.png</t>
         </is>
       </c>
     </row>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288154/E5/DISRUPCION/E5_1-D01%20Oradora%20De%20Los%20Ca%C3%ADdos.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708746/E5/DISRUPCION/E5_1-D01%20Oradora%20De%20Los%20Ca%C3%ADdos.png</t>
         </is>
       </c>
     </row>
@@ -4055,7 +4055,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288157/E5/DISRUPCION/E5_1-D03%20Voluntad%20Del%20Fuego%20Ignoto.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708747/E5/DISRUPCION/E5_1-D03%20Voluntad%20Del%20Fuego%20Ignoto.png</t>
         </is>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288157/E5/DISRUPCION/E5_2-D02%20Raziel%20El%20Ojo%20De%20La%20Luz%20Y%20La%20Oscuridad.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708749/E5/DISRUPCION/E5_2-D02%20Raziel%20El%20Ojo%20De%20La%20Luz%20Y%20La%20Oscuridad.png</t>
         </is>
       </c>
     </row>
@@ -4087,7 +4087,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288158/E5/DISRUPCION/E5_2-D03%20Decepci%C3%B3n%20Del%20Nombre%20Perdido.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708750/E5/DISRUPCION/E5_2-D03%20Decepci%C3%B3n%20Del%20Nombre%20Perdido.png</t>
         </is>
       </c>
     </row>
@@ -4103,7 +4103,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288160/E5/DISRUPCION/E5_3-D01%20Seraf%C3%ADn%20Ignoto%20Fuego%20Del%20Caos.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708751/E5/DISRUPCION/E5_3-D01%20Seraf%C3%ADn%20Ignoto%20Fuego%20Del%20Caos.png</t>
         </is>
       </c>
     </row>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288161/E5/DISRUPCION/E5_3-D02%20Catedral%20De%20La%20Luz%20Divina.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708753/E5/DISRUPCION/E5_3-D02%20Catedral%20De%20La%20Luz%20Divina.png</t>
         </is>
       </c>
     </row>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288162/E5/PESADILLA/E5-P01%20Dregmilt.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708754/E5/PESADILLA/E5-P01%20Dregmilt.png</t>
         </is>
       </c>
     </row>
@@ -4145,7 +4145,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288163/E5/PESADILLA/E5-P02%20Zau.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708755/E5/PESADILLA/E5-P02%20Zau.png</t>
         </is>
       </c>
     </row>
@@ -4155,7 +4155,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288164/E5/PESADILLA/E5-P03%20Gloopers.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708757/E5/PESADILLA/E5-P03%20Gloopers.png</t>
         </is>
       </c>
     </row>
@@ -4165,7 +4165,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288167/E5/PESADILLA/E5-P04%20Jax%20Kreel.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708758/E5/PESADILLA/E5-P04%20Jax%20Kreel.png</t>
         </is>
       </c>
     </row>
@@ -4175,7 +4175,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288168/E5/PESADILLA/E5-P05%20Capit%C3%A1n%20Sharkly.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708759/E5/PESADILLA/E5-P05%20Capit%C3%A1n%20Sharkly.png</t>
         </is>
       </c>
     </row>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288169/E5/PESADILLA/E5-P06%20Nixal%27Abizot%20El%20Terror%20De%20La%20Penumbra%20Abisal.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708761/E5/PESADILLA/E5-P06%20Nixal%27Abizot%20El%20Terror%20De%20La%20Penumbra%20Abisal.png</t>
         </is>
       </c>
     </row>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288171/E5/PESADILLA/E5-P07%20Oceano%20Tormentoso.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708762/E5/PESADILLA/E5-P07%20Oceano%20Tormentoso.png</t>
         </is>
       </c>
     </row>
@@ -4205,7 +4205,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288172/E5/PESADILLA/E5-P08%20%C2%A1Ataque%20Desde%20Las%20Profundidades%21.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708764/E5/PESADILLA/E5-P08%20%C2%A1Ataque%20Desde%20Las%20Profundidades%21.png</t>
         </is>
       </c>
     </row>
@@ -4215,7 +4215,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288173/E5/PESADILLA/E5_1-P01%20Sel.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708765/E5/PESADILLA/E5_1-P01%20Sel.png</t>
         </is>
       </c>
     </row>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288175/E5/PESADILLA/E5_1-P02%20Abysalis.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708767/E5/PESADILLA/E5_1-P02%20Abysalis.png</t>
         </is>
       </c>
     </row>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288176/E5/PESADILLA/E5_2-P01%20Dregmilt%20De%20Costas%20Pantanosas.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708768/E5/PESADILLA/E5_2-P01%20Dregmilt%20De%20Costas%20Pantanosas.png</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288177/E5/PESADILLA/E5_2-P02%20Voe.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708769/E5/PESADILLA/E5_2-P02%20Voe.png</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750706281/E6/GUERRERO/E6_1-G01%20Y%C5%ABrei%20La%20Cortesana%20Solitaria.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708771/E6/GUERRERO/E6_1-G01%20Y%C5%ABrei%20La%20Cortesana%20Solitaria.png</t>
         </is>
       </c>
     </row>
@@ -4493,7 +4493,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750706282/E6/GUERRERO/E6_1-G04%20Danza%20Lunar.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708772/E6/GUERRERO/E6_1-G04%20Danza%20Lunar.png</t>
         </is>
       </c>
     </row>
@@ -4503,7 +4503,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750706282/E6/GUERRERO/E6_2-G01%20Fukage.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708773/E6/GUERRERO/E6_2-G01%20Fukage.png</t>
         </is>
       </c>
     </row>
@@ -4537,7 +4537,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750706283/E6/GUERRERO/E6_3-G02%20Yako%20Kitsune.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708774/E6/GUERRERO/E6_3-G02%20Yako%20Kitsune.png</t>
         </is>
       </c>
     </row>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288179/E6/PESADILLA/E6-P01%20Jug.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708776/E6/PESADILLA/E6-P01%20Jug.png</t>
         </is>
       </c>
     </row>
@@ -4707,7 +4707,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288180/E6/PESADILLA/E6-P05%20Zrau.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708777/E6/PESADILLA/E6-P05%20Zrau.png</t>
         </is>
       </c>
     </row>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288181/E6/PESADILLA/E6-P06%20Exanirot.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708778/E6/PESADILLA/E6-P06%20Exanirot.png</t>
         </is>
       </c>
     </row>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288182/E6/PESADILLA/E6-P07%20Mundo%20Corrupto.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708779/E6/PESADILLA/E6-P07%20Mundo%20Corrupto.png</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288183/E6/PESADILLA/E6-P08%20Alarido%20Iracundo.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708781/E6/PESADILLA/E6-P08%20Alarido%20Iracundo.png</t>
         </is>
       </c>
     </row>
@@ -4765,7 +4765,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288184/E6/PESADILLA/E6_1-P04%20Vortem.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708782/E6/PESADILLA/E6_1-P04%20Vortem.png</t>
         </is>
       </c>
     </row>
@@ -4793,7 +4793,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288185/E6/PESADILLA/E6_2-P04%20Lacriem.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708783/E6/PESADILLA/E6_2-P04%20Lacriem.png</t>
         </is>
       </c>
     </row>

--- a/uploaded_image_links.xlsx
+++ b/uploaded_image_links.xlsx
@@ -3799,7 +3799,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708725/E5/GUERRERO/E5-G01%20Cortesana%20Setsuna.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750912741/E5/GUERRERO/E5-G01%20Cortesana%20Setsuna.png</t>
         </is>
       </c>
     </row>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708728/E5/GUERRERO/E5-G03%20Kamen%20No%20Bushi.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750912743/E5/GUERRERO/E5-G03%20Kamen%20No%20Bushi.png</t>
         </is>
       </c>
     </row>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708730/E5/GUERRERO/E5-G07%20Bonsai%20Centenario.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750912745/E5/GUERRERO/E5-G07%20Bonsai%20Centenario.png</t>
         </is>
       </c>
     </row>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708731/E5/GUERRERO/E5_1-G01%20Cortesana%20Yukihana.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750912746/E5/GUERRERO/E5_1-G01%20Cortesana%20Yukihana.png</t>
         </is>
       </c>
     </row>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708735/E5/GUERRERO/E5_2-G02%20Tsukiyo%20La%20Cortesana%20Domadora%20De%20Bestias.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750912749/E5/GUERRERO/E5_2-G02%20Tsukiyo%20La%20Cortesana%20Domadora%20De%20Bestias.png</t>
         </is>
       </c>
     </row>
@@ -3953,7 +3953,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708737/E5/GUERRERO/E5_3-G04%20Shinken%20No%20Tenshi.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750912752/E5/GUERRERO/E5_3-G04%20Shinken%20No%20Tenshi.png</t>
         </is>
       </c>
     </row>
@@ -4503,7 +4503,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708773/E6/GUERRERO/E6_2-G01%20Fukage.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750912754/E6/GUERRERO/E6_2-G01%20Fukage.png</t>
         </is>
       </c>
     </row>
@@ -4537,7 +4537,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708774/E6/GUERRERO/E6_3-G02%20Yako%20Kitsune.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750912756/E6/GUERRERO/E6_3-G02%20Yako%20Kitsune.png</t>
         </is>
       </c>
     </row>

--- a/uploaded_image_links.xlsx
+++ b/uploaded_image_links.xlsx
@@ -3851,7 +3851,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750912745/E5/GUERRERO/E5-G07%20Bonsai%20Centenario.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1751419821/E5/GUERRERO/E5-G07%20Bonsai%20Centenario.png</t>
         </is>
       </c>
     </row>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750912746/E5/GUERRERO/E5_1-G01%20Cortesana%20Yukihana.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1751419822/E5/GUERRERO/E5_1-G01%20Cortesana%20Yukihana.png</t>
         </is>
       </c>
     </row>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708754/E5/PESADILLA/E5-P01%20Dregmilt.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1751419823/E5/PESADILLA/E5-P01%20Dregmilt.png</t>
         </is>
       </c>
     </row>
@@ -4165,7 +4165,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708758/E5/PESADILLA/E5-P04%20Jax%20Kreel.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1751419825/E5/PESADILLA/E5-P04%20Jax%20Kreel.png</t>
         </is>
       </c>
     </row>
@@ -4175,7 +4175,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708759/E5/PESADILLA/E5-P05%20Capit%C3%A1n%20Sharkly.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1751419826/E5/PESADILLA/E5-P05%20Capit%C3%A1n%20Sharkly.png</t>
         </is>
       </c>
     </row>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708761/E5/PESADILLA/E5-P06%20Nixal%27Abizot%20El%20Terror%20De%20La%20Penumbra%20Abisal.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1751419828/E5/PESADILLA/E5-P06%20Nixal%27Abizot%20El%20Terror%20De%20La%20Penumbra%20Abisal.png</t>
         </is>
       </c>
     </row>
@@ -4205,7 +4205,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708764/E5/PESADILLA/E5-P08%20%C2%A1Ataque%20Desde%20Las%20Profundidades%21.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1751419829/E5/PESADILLA/E5-P08%20%C2%A1Ataque%20Desde%20Las%20Profundidades%21.png</t>
         </is>
       </c>
     </row>

--- a/uploaded_image_links.xlsx
+++ b/uploaded_image_links.xlsx
@@ -1647,7 +1647,11 @@
       <c r="A123" t="n">
         <v>121</v>
       </c>
-      <c r="B123" t="inlineStr"/>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1751420284/E2/BOSQUEMAGO/E2-B02%20Bonewillow.png</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -1715,7 +1719,11 @@
       <c r="A131" t="n">
         <v>129</v>
       </c>
-      <c r="B131" t="inlineStr"/>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1751420285/E2/BOSQUEMAGO/E2_1-B02%20Coloso%20Enraizado.png</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -2325,7 +2333,11 @@
       <c r="A204" t="n">
         <v>202</v>
       </c>
-      <c r="B204" t="inlineStr"/>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1751420286/E3/BOSQUEMAGO/E3-B03%20Treant%20Courser.png</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -2435,7 +2447,11 @@
       <c r="A217" t="n">
         <v>215</v>
       </c>
-      <c r="B217" t="inlineStr"/>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1751420288/E3/BOSQUEMAGO/E3_2-B04%20Siempre%20Verde.png</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">

--- a/uploaded_image_links.xlsx
+++ b/uploaded_image_links.xlsx
@@ -3063,7 +3063,11 @@
       <c r="A289" t="n">
         <v>287</v>
       </c>
-      <c r="B289" t="inlineStr"/>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1751422697/E4/BOSQUEMAGO/E4-B08%20Renacimiento%20Vital.png</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -3071,7 +3075,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708658/E4/BOSQUEMAGO/E4_1-B01%20Tinflarus.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1751422698/E4/BOSQUEMAGO/E4_1-B01%20Tinflarus.png</t>
         </is>
       </c>
     </row>
@@ -3779,7 +3783,11 @@
       <c r="A377" t="n">
         <v>375</v>
       </c>
-      <c r="B377" t="inlineStr"/>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1751422699/E5/BOSQUEMAGO/E5_2-B04%20Bosque%20H%C3%BAmedo.png</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -4317,7 +4325,11 @@
       <c r="A442" t="n">
         <v>440</v>
       </c>
-      <c r="B442" t="inlineStr"/>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1751422701/E6/BOSQUEMAGO/E6-B01%20Peque%C3%B1o%20Treant.png</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -4335,7 +4347,11 @@
       <c r="A445" t="n">
         <v>443</v>
       </c>
-      <c r="B445" t="inlineStr"/>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1751422702/E6/BOSQUEMAGO/E6-B04%20Treant%20Pantanoso.png</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -4347,13 +4363,21 @@
       <c r="A447" t="n">
         <v>445</v>
       </c>
-      <c r="B447" t="inlineStr"/>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1751422703/E6/BOSQUEMAGO/E6-B06%20Thalaesk%20El%20Alarido%20Del%20Bosque%20Podrido.png</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
         <v>446</v>
       </c>
-      <c r="B448" t="inlineStr"/>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1751422704/E6/BOSQUEMAGO/E6-B07%20Bosque%20Selv%C3%A1tico.png</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -4377,7 +4401,11 @@
       <c r="A452" t="n">
         <v>450</v>
       </c>
-      <c r="B452" t="inlineStr"/>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1751422705/E6/BOSQUEMAGO/E6_1-B03%20Treant%20Oto%C3%B1al.png</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">

--- a/uploaded_image_links.xlsx
+++ b/uploaded_image_links.xlsx
@@ -4435,7 +4435,11 @@
       <c r="A457" t="n">
         <v>455</v>
       </c>
-      <c r="B457" t="inlineStr"/>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1751422839/E6/BOSQUEMAGO/E6_2-B04%20Bosque%20R%C3%BAnico.png</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -4447,7 +4451,11 @@
       <c r="A459" t="n">
         <v>457</v>
       </c>
-      <c r="B459" t="inlineStr"/>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1751422842/E6/BOSQUEMAGO/E6_3-B02%20Treant%20Olvidado.png</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">

--- a/uploaded_image_links.xlsx
+++ b/uploaded_image_links.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708351/E1/BOSQUEMAGO/E1-B02%20Wynsdey.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753512878/E1/BOSQUEMAGO/E1-B02%20Wynsdey.png</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708353/E1/BOSQUEMAGO/E1-B04%20Driada.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753512879/E1/BOSQUEMAGO/E1-B04%20Driada.png</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708356/E1/BOSQUEMAGO/E1-B06%20Hada%20Revitalizante.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753512880/E1/BOSQUEMAGO/E1-B06%20Hada%20Revitalizante.png</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708359/E1/BOSQUEMAGO/E1-B08%20Ninfa%20Cantante%20De%20Dragones.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753512881/E1/BOSQUEMAGO/E1-B08%20Ninfa%20Cantante%20De%20Dragones.png</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708360/E1/BOSQUEMAGO/E1-B09%20Uzume.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753512882/E1/BOSQUEMAGO/E1-B09%20Uzume.png</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708366/E1/BOSQUEMAGO/E1_1-B02%20Lyna.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753512885/E1/BOSQUEMAGO/E1_1-B02%20Lyna.png</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708369/E1/BOSQUEMAGO/E1_1-B04%20Juleus%20El%20Principe%20Olvidado.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753512886/E1/BOSQUEMAGO/E1_1-B04%20Juleus%20El%20Principe%20Olvidado.png</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708373/E1/BOSQUEMAGO/E1_2-B01%20Anna.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753512888/E1/BOSQUEMAGO/E1_2-B01%20Anna.png</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708394/E1/DISRUPCION/E1-D03%20VA-7.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753512891/E1/DISRUPCION/E1-D03%20VA-7.png</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708410/E1/DISRUPCION/E1_1-D02%20Sp-7h.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753512895/E1/DISRUPCION/E1_1-D02%20Sp-7h.png</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708411/E1/DISRUPCION/E1_1-D03%20Unidad%20H3-R0.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753512896/E1/DISRUPCION/E1_1-D03%20Unidad%20H3-R0.png</t>
         </is>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708514/E2/BOSQUEMAGO/E2-B01%20Elida.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753512905/E2/BOSQUEMAGO/E2-B01%20Elida.png</t>
         </is>
       </c>
     </row>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708516/E2/BOSQUEMAGO/E2-B03%20Dela.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753512906/E2/BOSQUEMAGO/E2-B03%20Dela.png</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708517/E2/BOSQUEMAGO/E2-B04%20Palad%C3%ADn%20De%20La%20Tierra%20Oculta.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753512907/E2/BOSQUEMAGO/E2-B04%20Palad%C3%ADn%20De%20La%20Tierra%20Oculta.png</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708518/E2/BOSQUEMAGO/E2-B05%20Dianthe.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753512908/E2/BOSQUEMAGO/E2-B05%20Dianthe.png</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708522/E2/BOSQUEMAGO/E2-B08%20Bosque%20Perdido.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753512910/E2/BOSQUEMAGO/E2-B08%20Bosque%20Perdido.png</t>
         </is>
       </c>
     </row>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708525/E2/BOSQUEMAGO/E2_1-B04%20Bosque%20M%C3%A1gico%20De%20Los%20Esp%C3%ADritus.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753512912/E2/BOSQUEMAGO/E2_1-B04%20Bosque%20M%C3%A1gico%20De%20Los%20Esp%C3%ADritus.png</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708526/E2/BOSQUEMAGO/E2_2-B01%20Hada%20Perdida.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753512914/E2/BOSQUEMAGO/E2_2-B01%20Hada%20Perdida.png</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708530/E2/BOSQUEMAGO/E2_3-B02%20%C3%81nima%20Feral.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753512918/E2/BOSQUEMAGO/E2_3-B02%20%C3%81nima%20Feral.png</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708536/E2/DISRUPCION/E2-D02%20VS-1.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753512921/E2/DISRUPCION/E2-D02%20VS-1.png</t>
         </is>
       </c>
     </row>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708537/E2/DISRUPCION/E2-D03%20AX-4.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753512922/E2/DISRUPCION/E2-D03%20AX-4.png</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708539/E2/DISRUPCION/E2-D05%20ES-707.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753512924/E2/DISRUPCION/E2-D05%20ES-707.png</t>
         </is>
       </c>
     </row>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708540/E2/DISRUPCION/E2-D07%20Cianotipo%20De%20Aut%C3%B3mata.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753512925/E2/DISRUPCION/E2-D07%20Cianotipo%20De%20Aut%C3%B3mata.png</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708543/E2/DISRUPCION/E2_1-D02%20EXO-91.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753512928/E2/DISRUPCION/E2_1-D02%20EXO-91.png</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708548/E2/DISRUPCION/E2_2-D02%20Sobrecarga.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753512930/E2/DISRUPCION/E2_2-D02%20Sobrecarga.png</t>
         </is>
       </c>
     </row>

--- a/uploaded_image_links.xlsx
+++ b/uploaded_image_links.xlsx
@@ -521,7 +521,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753512881/E1/BOSQUEMAGO/E1-B08%20Ninfa%20Cantante%20De%20Dragones.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753603943/E1/BOSQUEMAGO/E1-B08%20Ninfa%20Cantante%20De%20Dragones.png</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708439/E1/GUERRERO/E1-G08%20Guardian%20imperial.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753603950/E1/GUERRERO/E1-G08%20Guardian%20imperial.png</t>
         </is>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708442/E1/GUERRERO/E1-G10%20Imperial%20De%20La%20Llama%20Eterna.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753603951/E1/GUERRERO/E1-G10%20Imperial%20De%20La%20Llama%20Eterna.png</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708464/E1/GUERRERO/E1_3-G02%20Arco%20Le%C3%B3n%20Dorado.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753603954/E1/GUERRERO/E1_3-G02%20Arco%20Le%C3%B3n%20Dorado.png</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708465/E1/GUERRERO/E1_3-G03%20Caballero%20Jurado.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753603955/E1/GUERRERO/E1_3-G03%20Caballero%20Jurado.png</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,11 @@
       <c r="A180" t="n">
         <v>178</v>
       </c>
-      <c r="B180" t="inlineStr"/>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753603958/E2/GUERRERO/E2_3-G03%20Comandante%20Veterano.png</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -3233,7 +3237,11 @@
       <c r="A310" t="n">
         <v>308</v>
       </c>
-      <c r="B310" t="inlineStr"/>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753603959/E4/GUERRERO/E4_1-G01%20Caballero%20Le%C3%B3n%20Dorado.png</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -3265,7 +3273,11 @@
       <c r="A314" t="n">
         <v>312</v>
       </c>
-      <c r="B314" t="inlineStr"/>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753603960/E4/GUERRERO/E4_2-G01%20Caballero%20Errante.png</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -3297,7 +3309,11 @@
       <c r="A318" t="n">
         <v>316</v>
       </c>
-      <c r="B318" t="inlineStr"/>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753603961/E4/GUERRERO/E4_3-G01%20Filo%20Doppelganger.png</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -3851,13 +3867,21 @@
       <c r="A385" t="n">
         <v>383</v>
       </c>
-      <c r="B385" t="inlineStr"/>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753603962/E5/GUERRERO/E5-G04%20Comandante%20De%20Los%20Leones%20Dorados.png</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
         <v>384</v>
       </c>
-      <c r="B386" t="inlineStr"/>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753603963/E5/GUERRERO/E5-G05%20La%20Muerte%20De%20La%20Voluntad.png</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -3953,7 +3977,11 @@
       <c r="A398" t="n">
         <v>396</v>
       </c>
-      <c r="B398" t="inlineStr"/>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753603964/E5/GUERRERO/E5_3-G01%20Protector%20De%20Las%20Puertas%20De%20La%20Luz.png</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">

--- a/uploaded_image_links.xlsx
+++ b/uploaded_image_links.xlsx
@@ -1993,7 +1993,11 @@
       <c r="A162" t="n">
         <v>160</v>
       </c>
-      <c r="B162" t="inlineStr"/>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753604149/E2/GUERRERO/E2-G01%20Estoque%20De%20Los%20Guerreros%20Jurados.png</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -2089,7 +2093,11 @@
       <c r="A174" t="n">
         <v>172</v>
       </c>
-      <c r="B174" t="inlineStr"/>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753604150/E2/GUERRERO/E2_2-G01%20Guerrero%20Del%20Alma%20Imbatible.png</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -2121,7 +2129,11 @@
       <c r="A178" t="n">
         <v>176</v>
       </c>
-      <c r="B178" t="inlineStr"/>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753604151/E2/GUERRERO/E2_3-G01%20Mago%20Armado%20Del%20Ocaso.png</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">

--- a/uploaded_image_links.xlsx
+++ b/uploaded_image_links.xlsx
@@ -2141,7 +2141,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708565/E2/GUERRERO/E2_3-G02%20Comandante%20Veterano.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753604242/E2/GUERRERO/E2_3-G02%20Armadura%20Del%20Alma%20Impasible.png</t>
         </is>
       </c>
     </row>

--- a/uploaded_image_links.xlsx
+++ b/uploaded_image_links.xlsx
@@ -1059,7 +1059,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708432/E1/GUERRERO/E1-G03%20Martillo%20Frontal.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754179356/E1/GUERRERO/E1-G03%20Martillo%20Frontal.png</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753603954/E1/GUERRERO/E1_3-G02%20Arco%20Le%C3%B3n%20Dorado.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754179358/E1/GUERRERO/E1_3-G02%20Arco%20Le%C3%B3n%20Dorado.png</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753512921/E2/DISRUPCION/E2-D02%20VS-1.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754179359/E2/DISRUPCION/E2-D02%20Infanter%C3%ADa%20A-1.png</t>
         </is>
       </c>
     </row>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753512922/E2/DISRUPCION/E2-D03%20AX-4.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754179599/E2/DISRUPCION/E2-D03%20VS-1.png</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,11 @@
       <c r="A145" t="n">
         <v>143</v>
       </c>
-      <c r="B145" t="inlineStr"/>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754179600/E2/DISRUPCION/E2-D04%20AX-4.png</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -1891,7 +1895,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708542/E2/DISRUPCION/E2_1-D01%20Explorador%20Viajero%20V2.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754179363/E2/DISRUPCION/E2_1-D01%20Infanter%C3%ADa%20A-2.png</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1905,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753512928/E2/DISRUPCION/E2_1-D02%20EXO-91.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754180588/E2/DISRUPCION/E2_1-D02%20Explorador%20Viajero%20V2.png</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1915,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708545/E2/DISRUPCION/E2_1-D03%20Geo%20Vigilante.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754180590/E2/DISRUPCION/E2_1-D03%20EXO-91.png</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1923,11 @@
       <c r="A153" t="n">
         <v>151</v>
       </c>
-      <c r="B153" t="inlineStr"/>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754180591/E2/DISRUPCION/E2_1-D04%20Geo%20Vigilante.png</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -1927,7 +1935,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708546/E2/DISRUPCION/E2_2-D01%20Vigilante%20Pasivo.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754179368/E2/DISRUPCION/E2_2-D01%20Piloto%20A1.png</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1945,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753512930/E2/DISRUPCION/E2_2-D02%20Sobrecarga.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754180592/E2/DISRUPCION/E2_2-D02%20Vigilante%20Pasivo.png</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1955,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708549/E2/DISRUPCION/E2_2-D03%20Proto%20Ca%C3%B1on%20De%20Largo%20Alcance.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754180594/E2/DISRUPCION/E2_2-D03%20Sobrecarga.png</t>
         </is>
       </c>
     </row>
@@ -1955,7 +1963,11 @@
       <c r="A157" t="n">
         <v>155</v>
       </c>
-      <c r="B157" t="inlineStr"/>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754180595/E2/DISRUPCION/E2_2-D04%20Proto%20Ca%C3%B1on%20De%20Largo%20Alcance.png</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -1971,7 +1983,11 @@
       <c r="A159" t="n">
         <v>157</v>
       </c>
-      <c r="B159" t="inlineStr"/>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754179369/E2/DISRUPCION/E2_3-D02%20Infanter%C3%ADa%20C-2.png</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -1995,7 +2011,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753604149/E2/GUERRERO/E2-G01%20Estoque%20De%20Los%20Guerreros%20Jurados.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754179371/E2/GUERRERO/E2-G01%20Estoque%20De%20Los%20Guerreros%20Jurados.png</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2147,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753604151/E2/GUERRERO/E2_3-G01%20Mago%20Armado%20Del%20Ocaso.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754179372/E2/GUERRERO/E2_3-G01%20Mago%20Armado%20Del%20Ocaso.png</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2157,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753604242/E2/GUERRERO/E2_3-G02%20Armadura%20Del%20Alma%20Impasible.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754179373/E2/GUERRERO/E2_3-G02%20Armadura%20Del%20Alma%20Impasible.png</t>
         </is>
       </c>
     </row>
@@ -2521,7 +2537,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708601/E3/DISRUPCION/E3-D02%20Khalesa.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754180596/E3/DISRUPCION/E3-D02%20Infanter%C3%ADa%20B-2S.png</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2547,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708603/E3/DISRUPCION/E3-D03%20Feretrus.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754180597/E3/DISRUPCION/E3-D03%20Khalesa.png</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2557,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708604/E3/DISRUPCION/E3-D04%20Principe%20Eos.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754180598/E3/DISRUPCION/E3-D04%20Feretrus.png</t>
         </is>
       </c>
     </row>
@@ -2549,7 +2565,11 @@
       <c r="A226" t="n">
         <v>224</v>
       </c>
-      <c r="B226" t="inlineStr"/>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754180600/E3/DISRUPCION/E3-D05%20Principe%20Eos.png</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -2571,7 +2591,11 @@
       <c r="A229" t="n">
         <v>227</v>
       </c>
-      <c r="B229" t="inlineStr"/>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754179380/E3/DISRUPCION/E3-D08%20Compresi%C3%B3n%20Interdimensional.png</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -2643,7 +2667,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708613/E3/DISRUPCION/E3_3-D01%20Platareum.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754179381/E3/DISRUPCION/E3_3-D01%20Infanter%C3%ADa%20A-2F.png</t>
         </is>
       </c>
     </row>
@@ -2661,13 +2685,21 @@
       <c r="A240" t="n">
         <v>238</v>
       </c>
-      <c r="B240" t="inlineStr"/>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754180601/E3/DISRUPCION/E3_3-D03%20Platareum.png</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
         <v>239</v>
       </c>
-      <c r="B241" t="inlineStr"/>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754180602/E3/DISRUPCION/E3_3-D04%20Eteleo%20Caos.png</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -3287,7 +3319,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753603960/E4/GUERRERO/E4_2-G01%20Caballero%20Errante.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754179384/E4/GUERRERO/E4_2-G01%20Caballero%20Errante.png</t>
         </is>
       </c>
     </row>
@@ -3307,7 +3339,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708674/E4/GUERRERO/E4_2-G03%20Estandarte%20De%20Primera%20L%C3%ADnea.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754179386/E4/GUERRERO/E4_2-G03%20Estandarte%20De%20Primera%20L%C3%ADnea.png</t>
         </is>
       </c>
     </row>
@@ -3369,7 +3401,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708680/E4/DISRUPCION/E4-D02%20Bio-Exterminador%20Errante.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754180603/E4/DISRUPCION/E4-D02%20Bio-Exterminador%20Errante.png</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3409,11 @@
       <c r="A324" t="n">
         <v>322</v>
       </c>
-      <c r="B324" t="inlineStr"/>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754179387/E4/DISRUPCION/E4-D03%20Infanter%C3%ADa%20SC-4.png</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -3385,7 +3421,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708682/E4/DISRUPCION/E4-D04%20Explorador%20De%20Emergencia.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754180605/E4/DISRUPCION/E4-D04%20Explorador%20De%20Emergencia.png</t>
         </is>
       </c>
     </row>
@@ -3393,7 +3429,11 @@
       <c r="A326" t="n">
         <v>324</v>
       </c>
-      <c r="B326" t="inlineStr"/>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754180606/E4/DISRUPCION/E4-D05%20Unidad%20X84%20De%20Fuerzas%20Especiales.png</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -3421,7 +3461,11 @@
       <c r="A330" t="n">
         <v>328</v>
       </c>
-      <c r="B330" t="inlineStr"/>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754179389/E4/DISRUPCION/E4_1-D01%20Infanter%C3%ADa%20SA-3.png</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -3479,7 +3523,11 @@
       <c r="A337" t="n">
         <v>335</v>
       </c>
-      <c r="B337" t="inlineStr"/>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754180607/E4/DISRUPCION/E4_2-D04%20Artiller%C3%ADa%20Fija.png</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -3881,7 +3929,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753603962/E5/GUERRERO/E5-G04%20Comandante%20De%20Los%20Leones%20Dorados.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754179390/E5/GUERRERO/E5-G04%20Comandante%20De%20Los%20Leones%20Dorados.png</t>
         </is>
       </c>
     </row>
@@ -3891,7 +3939,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753603963/E5/GUERRERO/E5-G05%20La%20Muerte%20De%20La%20Voluntad.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754179392/E5/GUERRERO/E5-G05%20La%20Muerte%20De%20La%20Voluntad.png</t>
         </is>
       </c>
     </row>
@@ -3991,7 +4039,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753603964/E5/GUERRERO/E5_3-G01%20Protector%20De%20Las%20Puertas%20De%20La%20Luz.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754179393/E5/GUERRERO/E5_3-G01%20Protector%20De%20Las%20Puertas%20De%20La%20Luz.png</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4139,11 @@
       <c r="A409" t="n">
         <v>407</v>
       </c>
-      <c r="B409" t="inlineStr"/>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754179394/E5/DISRUPCION/E5-D08%20Despliegue%20De%20Infanter%C3%ADa.png</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -4109,7 +4161,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750288155/E5/DISRUPCION/E5_1-D02%20Pecado%20Encadenado.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754179397/E5/DISRUPCION/E5_1-D02%20Pecado%20Encadenado.png</t>
         </is>
       </c>
     </row>

--- a/uploaded_image_links.xlsx
+++ b/uploaded_image_links.xlsx
@@ -3533,7 +3533,11 @@
       <c r="A338" t="n">
         <v>336</v>
       </c>
-      <c r="B338" t="inlineStr"/>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754180901/E4/DISRUPCION/E4_3-D01%20Tirador%20Designado%20H4.png</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">

--- a/uploaded_image_links.xlsx
+++ b/uploaded_image_links.xlsx
@@ -1785,7 +1785,11 @@
       <c r="A138" t="n">
         <v>136</v>
       </c>
-      <c r="B138" t="inlineStr"/>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1755937270/E2/BOSQUEMAGO/E2_3-B01%20Bonny.png</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -1935,7 +1939,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754179368/E2/DISRUPCION/E2_2-D01%20Piloto%20A1.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1755937275/E2/DISRUPCION/E2_2-D01%20Piloto%20A1.png</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2015,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754179371/E2/GUERRERO/E2-G01%20Estoque%20De%20Los%20Guerreros%20Jurados.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1755937278/E2/GUERRERO/E2-G01%20Estoque%20De%20Los%20Guerreros%20Jurados.png</t>
         </is>
       </c>
     </row>
@@ -2147,7 +2151,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754179372/E2/GUERRERO/E2_3-G01%20Mago%20Armado%20Del%20Ocaso.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1755937279/E2/GUERRERO/E2_3-G01%20Mago%20Armado%20Del%20Ocaso.png</t>
         </is>
       </c>
     </row>
@@ -2419,7 +2423,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708589/E3/BOSQUEMAGO/E3_1-B01%20Elegante%20Wyrm.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1755937280/E3/BOSQUEMAGO/E3_1-B01%20Freiha.png</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2433,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708590/E3/BOSQUEMAGO/E3_1-B02%20Ddraker.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1755937281/E3/BOSQUEMAGO/E3_1-B02%20Elegante%20Wyrm.png</t>
         </is>
       </c>
     </row>
@@ -2439,7 +2443,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708592/E3/BOSQUEMAGO/E3_1-B03%20Unicornio%20Espada.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1755937282/E3/BOSQUEMAGO/E3_1-B03%20Ddraker.png</t>
         </is>
       </c>
     </row>
@@ -2447,7 +2451,11 @@
       <c r="A213" t="n">
         <v>211</v>
       </c>
-      <c r="B213" t="inlineStr"/>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1755937284/E3/BOSQUEMAGO/E3_1-B04%20Unicornio%20Espada.png</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -2537,7 +2545,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754180596/E3/DISRUPCION/E3-D02%20Infanter%C3%ADa%20B-2S.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1755937285/E3/DISRUPCION/E3-D02%20Infanter%C3%ADa%20B-2S.png</t>
         </is>
       </c>
     </row>
@@ -3535,7 +3543,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754180901/E4/DISRUPCION/E4_3-D01%20Tirador%20Designado%20H4.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1755937293/E4/DISRUPCION/E4_3-D01%20Tirador%20Designado%20H4.png</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3759,11 @@
       <c r="A363" t="n">
         <v>361</v>
       </c>
-      <c r="B363" t="inlineStr"/>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1755937294/E5/BOSQUEMAGO/E5-B02%20Lux.png</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -3767,13 +3779,21 @@
       <c r="A365" t="n">
         <v>363</v>
       </c>
-      <c r="B365" t="inlineStr"/>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1755937295/E5/BOSQUEMAGO/E5-B04%20%C3%81gata.png</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
         <v>364</v>
       </c>
-      <c r="B366" t="inlineStr"/>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1755937296/E5/BOSQUEMAGO/E5-B05%20Solaris.png</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -3809,7 +3829,11 @@
       <c r="A370" t="n">
         <v>368</v>
       </c>
-      <c r="B370" t="inlineStr"/>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1755937297/E5/BOSQUEMAGO/E5_1-B01%20Velmora.png</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -3835,7 +3859,11 @@
       <c r="A373" t="n">
         <v>371</v>
       </c>
-      <c r="B373" t="inlineStr"/>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1755937298/E5/BOSQUEMAGO/E5_1-B04%20Lummy.png</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -3851,7 +3879,11 @@
       <c r="A375" t="n">
         <v>373</v>
       </c>
-      <c r="B375" t="inlineStr"/>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1755937299/E5/BOSQUEMAGO/E5_2-B02%20Ignis.png</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -3879,13 +3911,21 @@
       <c r="A379" t="n">
         <v>377</v>
       </c>
-      <c r="B379" t="inlineStr"/>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1755937300/E5/BOSQUEMAGO/E5_3-B02%20Lyra.png</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
         <v>378</v>
       </c>
-      <c r="B380" t="inlineStr"/>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1755937301/E5/BOSQUEMAGO/E5_3-B03%20Marrow.png</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -4043,7 +4083,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754179393/E5/GUERRERO/E5_3-G01%20Protector%20De%20Las%20Puertas%20De%20La%20Luz.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1755937302/E5/GUERRERO/E5_3-G01%20Protector%20De%20Las%20Puertas%20De%20La%20Luz.png</t>
         </is>
       </c>
     </row>
@@ -4453,7 +4493,11 @@
       <c r="A446" t="n">
         <v>444</v>
       </c>
-      <c r="B446" t="inlineStr"/>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1755937304/E6/BOSQUEMAGO/E6-B05%20Luccy.png</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -4471,7 +4515,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1751422704/E6/BOSQUEMAGO/E6-B07%20Bosque%20Selv%C3%A1tico.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1755937305/E6/BOSQUEMAGO/E6-B07%20Lumisdragon%20Arcano.png</t>
         </is>
       </c>
     </row>
@@ -4479,7 +4523,11 @@
       <c r="A449" t="n">
         <v>447</v>
       </c>
-      <c r="B449" t="inlineStr"/>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1755937307/E6/BOSQUEMAGO/E6-B08%20Bosque%20Selv%C3%A1tico.png</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -4507,7 +4555,11 @@
       <c r="A453" t="n">
         <v>451</v>
       </c>
-      <c r="B453" t="inlineStr"/>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1755937308/E6/BOSQUEMAGO/E6_1-B04%20Tierra%20De%20Noth.png</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -4525,7 +4577,11 @@
       <c r="A456" t="n">
         <v>454</v>
       </c>
-      <c r="B456" t="inlineStr"/>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1755937309/E6/BOSQUEMAGO/E6_2-B03%20Eiris.png</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">

--- a/uploaded_image_links.xlsx
+++ b/uploaded_image_links.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708349/E1/BOSQUEMAGO/E1-B01%20Dureg%C3%B3n.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756264703/E1/BOSQUEMAGO/E1-B01%20Dureg%C3%B3n.png</t>
         </is>
       </c>
     </row>
@@ -461,7 +461,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753512878/E1/BOSQUEMAGO/E1-B02%20Wynsdey.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756264705/E1/BOSQUEMAGO/E1-B02%20Wynsdey.png</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753512888/E1/BOSQUEMAGO/E1_2-B01%20Anna.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756264707/E1/BOSQUEMAGO/E1_2-B01%20Anna.png</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708382/E1/BOSQUEMAGO/E1_3-B01%20Hatchkin.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756264709/E1/BOSQUEMAGO/E1_3-B01%20Hatchkin.png</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708391/E1/DISRUPCION/E1-D01%20Cazador%20K3.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756264712/E1/DISRUPCION/E1-D01%20Cazador%20K3.png</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708423/E1/DISRUPCION/E1_3-D01%20Groll%20Vand%C3%A1lico.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756264715/E1/DISRUPCION/E1_3-D01%20Groll%20Vand%C3%A1lico.png</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708431/E1/GUERRERO/E1-G02%20Caballero%20Umbr%C3%ADo.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756264716/E1/GUERRERO/E1-G02%20Caballero%20Umbr%C3%ADo.png</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708470/E1/PESADILLA/E1-P01%20Alb%C3%ADgio.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756264719/E1/PESADILLA/E1-P01%20Alb%C3%ADgio.png</t>
         </is>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708496/E1/PESADILLA/E1_2-P01%20Esqueleto%20Errante.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756264720/E1/PESADILLA/E1_2-P01%20Esqueleto%20Errante.png</t>
         </is>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1753512905/E2/BOSQUEMAGO/E2-B01%20Elida.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756264722/E2/BOSQUEMAGO/E2-B01%20Elida.png</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754179359/E2/DISRUPCION/E2-D02%20Infanter%C3%ADa%20A-1.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756264727/E2/DISRUPCION/E2-D02%20Infanter%C3%ADa%20A-1.png</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754179600/E2/DISRUPCION/E2-D04%20AX-4.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756264729/E2/DISRUPCION/E2-D04%20AX-4.png</t>
         </is>
       </c>
     </row>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1754179363/E2/DISRUPCION/E2_1-D01%20Infanter%C3%ADa%20A-2.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756264730/E2/DISRUPCION/E2_1-D01%20Infanter%C3%ADa%20A-2.png</t>
         </is>
       </c>
     </row>
@@ -2015,7 +2015,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1755937278/E2/GUERRERO/E2-G01%20Estoque%20De%20Los%20Guerreros%20Jurados.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756264731/E2/GUERRERO/E2-G01%20Estoque%20De%20Los%20Guerreros%20Jurados.png</t>
         </is>
       </c>
     </row>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708562/E2/GUERRERO/E2_2-G02%20Caballero%20Leal.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756264733/E2/GUERRERO/E2_2-G02%20Caballero%20Leal.png</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1755937281/E3/BOSQUEMAGO/E3_1-B02%20Elegante%20Wyrm.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756264735/E3/BOSQUEMAGO/E3_1-B02%20Elegante%20Wyrm.png</t>
         </is>
       </c>
     </row>
@@ -2535,7 +2535,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708600/E3/DISRUPCION/E3-D01%20Prometeo%20Erasmoos.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756264736/E3/DISRUPCION/E3-D01%20Prometeo%20Erasmoos.png</t>
         </is>
       </c>
     </row>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708624/E3/GUERRERO/E3_1-G01%20Mercenario%20Nocturno.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756264738/E3/GUERRERO/E3_1-G01%20Mercenario%20Nocturno.png</t>
         </is>
       </c>
     </row>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708633/E3/PESADILLA/E3-P01%20Abraza%20Almas.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756264739/E3/PESADILLA/E3-P01%20Abraza%20Almas.png</t>
         </is>
       </c>
     </row>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708652/E4/BOSQUEMAGO/E4-B01%20Florri%C3%B3n.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756264743/E4/BOSQUEMAGO/E4-B01%20Florri%C3%B3n.png</t>
         </is>
       </c>
     </row>
@@ -3227,7 +3227,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708665/E4/GUERRERO/E4-G01%20Pe%C3%B3n%20Del%20Castillo.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756264744/E4/GUERRERO/E4-G01%20Pe%C3%B3n%20Del%20Castillo.png</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708669/E4/GUERRERO/E4-G08%20Fervor%20De%20Primera%20L%C3%ADnea.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756264746/E4/GUERRERO/E4-G08%20Fervor%20De%20Primera%20L%C3%ADnea.png</t>
         </is>
       </c>
     </row>
@@ -3579,7 +3579,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708694/E4/PESADILLA/E4-P01%20Bruja%20Mensajera.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756264747/E4/PESADILLA/E4-P01%20Bruja%20Mensajera.png</t>
         </is>
       </c>
     </row>
@@ -3589,7 +3589,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708696/E4/PESADILLA/E4-P02%20Pir%C3%B3mago.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756264750/E4/PESADILLA/E4-P02%20Pir%C3%B3mago.png</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708714/E5/BOSQUEMAGO/E5-B01%20Cr%C3%ADa%20Quim%C3%A9rica.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756264751/E5/BOSQUEMAGO/E5-B01%20Cr%C3%ADa%20Quim%C3%A9rica.png</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1755937294/E5/BOSQUEMAGO/E5-B02%20Lux.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756264752/E5/BOSQUEMAGO/E5-B02%20Lux.png</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708716/E5/BOSQUEMAGO/E5-B06%20Quimera%20Divina.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756264756/E5/BOSQUEMAGO/E5-B06%20Quimera%20Divina.png</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1755937298/E5/BOSQUEMAGO/E5_1-B04%20Lummy.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756264758/E5/BOSQUEMAGO/E5_1-B04%20Lummy.png</t>
         </is>
       </c>
     </row>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1755937299/E5/BOSQUEMAGO/E5_2-B02%20Ignis.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756264760/E5/BOSQUEMAGO/E5_2-B02%20Ignis.png</t>
         </is>
       </c>
     </row>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1755937300/E5/BOSQUEMAGO/E5_3-B02%20Lyra.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756264761/E5/BOSQUEMAGO/E5_3-B02%20Lyra.png</t>
         </is>
       </c>
     </row>
@@ -3943,7 +3943,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750912741/E5/GUERRERO/E5-G01%20Cortesana%20Setsuna.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756264764/E5/GUERRERO/E5-G01%20Cortesana%20Setsuna.png</t>
         </is>
       </c>
     </row>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708739/E5/DISRUPCION/E5-D01%20Pintor%20De%20Los%20Cielos.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756264765/E5/DISRUPCION/E5-D01%20Pintor%20De%20Los%20Cielos.png</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708749/E5/DISRUPCION/E5_2-D02%20Raziel%20El%20Ojo%20De%20La%20Luz%20Y%20La%20Oscuridad.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756264767/E5/DISRUPCION/E5_2-D02%20Raziel%20El%20Ojo%20De%20La%20Luz%20Y%20La%20Oscuridad.png</t>
         </is>
       </c>
     </row>
@@ -4295,7 +4295,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1751419823/E5/PESADILLA/E5-P01%20Dregmilt.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756264769/E5/PESADILLA/E5-P01%20Dregmilt.png</t>
         </is>
       </c>
     </row>

--- a/uploaded_image_links.xlsx
+++ b/uploaded_image_links.xlsx
@@ -919,7 +919,11 @@
       <c r="A49" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756616847/E1/DISRUPCION/E1_1-D06%20Token.png</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -975,7 +979,11 @@
       <c r="A55" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756616848/E1/DISRUPCION/E1_2-D06%20Token.png</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1031,7 +1039,11 @@
       <c r="A61" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756616849/E1/DISRUPCION/E1_3-D06%20Token.png</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1857,7 +1869,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756264729/E2/DISRUPCION/E2-D04%20AX-4.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756616852/E2/DISRUPCION/E2-D04%20AX-4.png</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2655,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708610/E3/DISRUPCION/E3_2-D01%20Entidad%20Ermita%C3%B1a%20Errante.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756616853/E3/DISRUPCION/E3_2-D01%20Entidad%20Ermita%C3%B1a%20Errante.png</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2817,11 @@
       <c r="A252" t="n">
         <v>250</v>
       </c>
-      <c r="B252" t="inlineStr"/>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756616854/E3/GUERRERO/E3_1-G03%20Encargo.png</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -3187,7 +3203,11 @@
       <c r="A297" t="n">
         <v>295</v>
       </c>
-      <c r="B297" t="inlineStr"/>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756616855/E4/BOSQUEMAGO/E4_2-B04%20Santuario%20Bosquem%C3%A1gico.png</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -3219,7 +3239,11 @@
       <c r="A301" t="n">
         <v>299</v>
       </c>
-      <c r="B301" t="inlineStr"/>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756616856/E4/BOSQUEMAGO/E4_3-B04%20Resplandor%20Primordial.png</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">

--- a/uploaded_image_links.xlsx
+++ b/uploaded_image_links.xlsx
@@ -2809,7 +2809,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1750708625/E3/GUERRERO/E3_1-G02%20Encargo.png</t>
+          <t>https://res.cloudinary.com/dtwiayh6c/image/upload/v1756617004/E3/GUERRERO/E3_1-G02%20Escudo%20Jurado.png</t>
         </is>
       </c>
     </row>
